--- a/BackTest/2020-01-25 BackTest REP.xlsx
+++ b/BackTest/2020-01-25 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:M247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,25 @@
         <v>16160</v>
       </c>
       <c r="C2" t="n">
-        <v>16150</v>
+        <v>16140</v>
       </c>
       <c r="D2" t="n">
-        <v>16200</v>
+        <v>16160</v>
       </c>
       <c r="E2" t="n">
         <v>16140</v>
       </c>
       <c r="F2" t="n">
-        <v>1450.0783</v>
+        <v>59.779</v>
       </c>
       <c r="G2" t="n">
-        <v>15854.33333333333</v>
+        <v>15844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16190</v>
+        <v>16160</v>
       </c>
       <c r="C3" t="n">
-        <v>16160</v>
+        <v>16150</v>
       </c>
       <c r="D3" t="n">
-        <v>16190</v>
+        <v>16200</v>
       </c>
       <c r="E3" t="n">
-        <v>16150</v>
+        <v>16140</v>
       </c>
       <c r="F3" t="n">
-        <v>80.43473730697961</v>
+        <v>1450.0783</v>
       </c>
       <c r="G3" t="n">
-        <v>15864.5</v>
+        <v>15854.33333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>16190</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16190</v>
+      </c>
+      <c r="E4" t="n">
         <v>16150</v>
       </c>
-      <c r="C4" t="n">
-        <v>16180</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16180</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16140</v>
-      </c>
       <c r="F4" t="n">
-        <v>261.7222</v>
+        <v>80.43473730697961</v>
       </c>
       <c r="G4" t="n">
-        <v>15873.66666666667</v>
+        <v>15864.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16180</v>
+        <v>16150</v>
       </c>
       <c r="C5" t="n">
         <v>16180</v>
@@ -547,13 +547,13 @@
         <v>16180</v>
       </c>
       <c r="E5" t="n">
-        <v>16180</v>
+        <v>16140</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0745</v>
+        <v>261.7222</v>
       </c>
       <c r="G5" t="n">
-        <v>15884</v>
+        <v>15873.66666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16130</v>
+        <v>16180</v>
       </c>
       <c r="C6" t="n">
         <v>16180</v>
@@ -582,13 +582,13 @@
         <v>16180</v>
       </c>
       <c r="E6" t="n">
-        <v>16130</v>
+        <v>16180</v>
       </c>
       <c r="F6" t="n">
-        <v>97.40260000000001</v>
+        <v>0.0745</v>
       </c>
       <c r="G6" t="n">
-        <v>15892.83333333333</v>
+        <v>15884</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>16130</v>
+      </c>
+      <c r="C7" t="n">
         <v>16180</v>
       </c>
-      <c r="C7" t="n">
-        <v>16200</v>
-      </c>
       <c r="D7" t="n">
-        <v>16200</v>
+        <v>16180</v>
       </c>
       <c r="E7" t="n">
-        <v>16180</v>
+        <v>16130</v>
       </c>
       <c r="F7" t="n">
-        <v>163.2583626930204</v>
+        <v>97.40260000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>15902</v>
+        <v>15892.83333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>16180</v>
+      </c>
+      <c r="C8" t="n">
         <v>16200</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16130</v>
       </c>
       <c r="D8" t="n">
         <v>16200</v>
       </c>
       <c r="E8" t="n">
-        <v>16130</v>
+        <v>16180</v>
       </c>
       <c r="F8" t="n">
-        <v>140.6076</v>
+        <v>163.2583626930204</v>
       </c>
       <c r="G8" t="n">
-        <v>15908.83333333333</v>
+        <v>15902</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16190</v>
+        <v>16200</v>
       </c>
       <c r="C9" t="n">
-        <v>16220</v>
+        <v>16130</v>
       </c>
       <c r="D9" t="n">
-        <v>16220</v>
+        <v>16200</v>
       </c>
       <c r="E9" t="n">
-        <v>16190</v>
+        <v>16130</v>
       </c>
       <c r="F9" t="n">
-        <v>108.6835</v>
+        <v>140.6076</v>
       </c>
       <c r="G9" t="n">
-        <v>15918.83333333333</v>
+        <v>15908.83333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16210</v>
+        <v>16190</v>
       </c>
       <c r="C10" t="n">
-        <v>16210</v>
+        <v>16220</v>
       </c>
       <c r="D10" t="n">
-        <v>16210</v>
+        <v>16220</v>
       </c>
       <c r="E10" t="n">
-        <v>16090</v>
+        <v>16190</v>
       </c>
       <c r="F10" t="n">
-        <v>54.5922</v>
+        <v>108.6835</v>
       </c>
       <c r="G10" t="n">
-        <v>15929</v>
+        <v>15918.83333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16180</v>
+        <v>16210</v>
       </c>
       <c r="C11" t="n">
-        <v>16230</v>
+        <v>16210</v>
       </c>
       <c r="D11" t="n">
-        <v>16230</v>
+        <v>16210</v>
       </c>
       <c r="E11" t="n">
-        <v>16180</v>
+        <v>16090</v>
       </c>
       <c r="F11" t="n">
-        <v>207.7477</v>
+        <v>54.5922</v>
       </c>
       <c r="G11" t="n">
-        <v>15939.33333333333</v>
+        <v>15929</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>16180</v>
+      </c>
+      <c r="C12" t="n">
         <v>16230</v>
       </c>
-      <c r="C12" t="n">
-        <v>16370</v>
-      </c>
       <c r="D12" t="n">
-        <v>16370</v>
+        <v>16230</v>
       </c>
       <c r="E12" t="n">
-        <v>16230</v>
+        <v>16180</v>
       </c>
       <c r="F12" t="n">
-        <v>767.4048</v>
+        <v>207.7477</v>
       </c>
       <c r="G12" t="n">
-        <v>15951.83333333333</v>
+        <v>15939.33333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16380</v>
+        <v>16230</v>
       </c>
       <c r="C13" t="n">
-        <v>16350</v>
+        <v>16370</v>
       </c>
       <c r="D13" t="n">
-        <v>16380</v>
+        <v>16370</v>
       </c>
       <c r="E13" t="n">
-        <v>16310</v>
+        <v>16230</v>
       </c>
       <c r="F13" t="n">
-        <v>129.9745</v>
+        <v>767.4048</v>
       </c>
       <c r="G13" t="n">
-        <v>15962.83333333333</v>
+        <v>15951.83333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16310</v>
+        <v>16380</v>
       </c>
       <c r="C14" t="n">
-        <v>16320</v>
+        <v>16350</v>
       </c>
       <c r="D14" t="n">
-        <v>16360</v>
+        <v>16380</v>
       </c>
       <c r="E14" t="n">
         <v>16310</v>
       </c>
       <c r="F14" t="n">
-        <v>72.36879999999999</v>
+        <v>129.9745</v>
       </c>
       <c r="G14" t="n">
-        <v>15975.33333333333</v>
+        <v>15962.83333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16360</v>
+        <v>16310</v>
       </c>
       <c r="C15" t="n">
-        <v>16310</v>
+        <v>16320</v>
       </c>
       <c r="D15" t="n">
         <v>16360</v>
@@ -900,10 +900,10 @@
         <v>16310</v>
       </c>
       <c r="F15" t="n">
-        <v>103.7173</v>
+        <v>72.36879999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>15985.66666666667</v>
+        <v>15975.33333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>16360</v>
       </c>
       <c r="C16" t="n">
+        <v>16310</v>
+      </c>
+      <c r="D16" t="n">
         <v>16360</v>
       </c>
-      <c r="D16" t="n">
-        <v>16370</v>
-      </c>
       <c r="E16" t="n">
-        <v>16320</v>
+        <v>16310</v>
       </c>
       <c r="F16" t="n">
-        <v>153.3307</v>
+        <v>103.7173</v>
       </c>
       <c r="G16" t="n">
-        <v>15996.66666666667</v>
+        <v>15985.66666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>16360</v>
       </c>
       <c r="C17" t="n">
-        <v>16370</v>
+        <v>16360</v>
       </c>
       <c r="D17" t="n">
         <v>16370</v>
       </c>
       <c r="E17" t="n">
-        <v>16360</v>
+        <v>16320</v>
       </c>
       <c r="F17" t="n">
-        <v>152.6578</v>
+        <v>153.3307</v>
       </c>
       <c r="G17" t="n">
-        <v>16009</v>
+        <v>15996.66666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16360</v>
+      </c>
+      <c r="C18" t="n">
         <v>16370</v>
       </c>
-      <c r="C18" t="n">
-        <v>16380</v>
-      </c>
       <c r="D18" t="n">
-        <v>16380</v>
+        <v>16370</v>
       </c>
       <c r="E18" t="n">
-        <v>16370</v>
+        <v>16360</v>
       </c>
       <c r="F18" t="n">
-        <v>42.8239</v>
+        <v>152.6578</v>
       </c>
       <c r="G18" t="n">
-        <v>16020.33333333333</v>
+        <v>16009</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>16370</v>
+      </c>
+      <c r="C19" t="n">
         <v>16380</v>
-      </c>
-      <c r="C19" t="n">
-        <v>16360</v>
       </c>
       <c r="D19" t="n">
         <v>16380</v>
       </c>
       <c r="E19" t="n">
-        <v>16360</v>
+        <v>16370</v>
       </c>
       <c r="F19" t="n">
-        <v>176.7814</v>
+        <v>42.8239</v>
       </c>
       <c r="G19" t="n">
-        <v>16030.66666666667</v>
+        <v>16020.33333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16310</v>
+        <v>16380</v>
       </c>
       <c r="C20" t="n">
-        <v>16270</v>
+        <v>16360</v>
       </c>
       <c r="D20" t="n">
-        <v>16310</v>
+        <v>16380</v>
       </c>
       <c r="E20" t="n">
-        <v>16270</v>
+        <v>16360</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0764</v>
+        <v>176.7814</v>
       </c>
       <c r="G20" t="n">
-        <v>16038.5</v>
+        <v>16030.66666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16240</v>
+        <v>16310</v>
       </c>
       <c r="C21" t="n">
-        <v>16220</v>
+        <v>16270</v>
       </c>
       <c r="D21" t="n">
+        <v>16310</v>
+      </c>
+      <c r="E21" t="n">
         <v>16270</v>
       </c>
-      <c r="E21" t="n">
-        <v>16130</v>
-      </c>
       <c r="F21" t="n">
-        <v>451.4858</v>
+        <v>241.0764</v>
       </c>
       <c r="G21" t="n">
-        <v>16044.66666666667</v>
+        <v>16038.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16110</v>
+        <v>16240</v>
       </c>
       <c r="C22" t="n">
-        <v>16150</v>
+        <v>16220</v>
       </c>
       <c r="D22" t="n">
-        <v>16170</v>
+        <v>16270</v>
       </c>
       <c r="E22" t="n">
-        <v>16090</v>
+        <v>16130</v>
       </c>
       <c r="F22" t="n">
-        <v>195.6209</v>
+        <v>451.4858</v>
       </c>
       <c r="G22" t="n">
-        <v>16051.16666666667</v>
+        <v>16044.66666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16180</v>
+        <v>16110</v>
       </c>
       <c r="C23" t="n">
-        <v>16180</v>
+        <v>16150</v>
       </c>
       <c r="D23" t="n">
-        <v>16180</v>
+        <v>16170</v>
       </c>
       <c r="E23" t="n">
-        <v>16180</v>
+        <v>16090</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0472</v>
+        <v>195.6209</v>
       </c>
       <c r="G23" t="n">
-        <v>16057.66666666667</v>
+        <v>16051.16666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16100</v>
+        <v>16180</v>
       </c>
       <c r="C24" t="n">
-        <v>16090</v>
+        <v>16180</v>
       </c>
       <c r="D24" t="n">
-        <v>16100</v>
+        <v>16180</v>
       </c>
       <c r="E24" t="n">
-        <v>16090</v>
+        <v>16180</v>
       </c>
       <c r="F24" t="n">
-        <v>119.0069</v>
+        <v>0.0472</v>
       </c>
       <c r="G24" t="n">
-        <v>16062.83333333333</v>
+        <v>16057.66666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16050</v>
+        <v>16100</v>
       </c>
       <c r="C25" t="n">
-        <v>16010</v>
+        <v>16090</v>
       </c>
       <c r="D25" t="n">
-        <v>16050</v>
+        <v>16100</v>
       </c>
       <c r="E25" t="n">
-        <v>16010</v>
+        <v>16090</v>
       </c>
       <c r="F25" t="n">
-        <v>128.2931</v>
+        <v>119.0069</v>
       </c>
       <c r="G25" t="n">
-        <v>16066.5</v>
+        <v>16062.83333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>16050</v>
+      </c>
+      <c r="C26" t="n">
         <v>16010</v>
       </c>
-      <c r="C26" t="n">
-        <v>16020</v>
-      </c>
       <c r="D26" t="n">
-        <v>16020</v>
+        <v>16050</v>
       </c>
       <c r="E26" t="n">
-        <v>15900</v>
+        <v>16010</v>
       </c>
       <c r="F26" t="n">
-        <v>66.0305</v>
+        <v>128.2931</v>
       </c>
       <c r="G26" t="n">
-        <v>16070.33333333333</v>
+        <v>16066.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15930</v>
+        <v>16010</v>
       </c>
       <c r="C27" t="n">
-        <v>15880</v>
+        <v>16020</v>
       </c>
       <c r="D27" t="n">
-        <v>15930</v>
+        <v>16020</v>
       </c>
       <c r="E27" t="n">
-        <v>15880</v>
+        <v>15900</v>
       </c>
       <c r="F27" t="n">
-        <v>283.9184</v>
+        <v>66.0305</v>
       </c>
       <c r="G27" t="n">
-        <v>16071.83333333333</v>
+        <v>16070.33333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>15930</v>
+      </c>
+      <c r="C28" t="n">
         <v>15880</v>
       </c>
-      <c r="C28" t="n">
-        <v>15890</v>
-      </c>
       <c r="D28" t="n">
-        <v>15970</v>
+        <v>15930</v>
       </c>
       <c r="E28" t="n">
-        <v>15870</v>
+        <v>15880</v>
       </c>
       <c r="F28" t="n">
-        <v>217.1455</v>
+        <v>283.9184</v>
       </c>
       <c r="G28" t="n">
-        <v>16073.66666666667</v>
+        <v>16071.83333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>15880</v>
+      </c>
+      <c r="C29" t="n">
         <v>15890</v>
       </c>
-      <c r="C29" t="n">
-        <v>15930</v>
-      </c>
       <c r="D29" t="n">
-        <v>15930</v>
+        <v>15970</v>
       </c>
       <c r="E29" t="n">
-        <v>15820</v>
+        <v>15870</v>
       </c>
       <c r="F29" t="n">
-        <v>678.5213</v>
+        <v>217.1455</v>
       </c>
       <c r="G29" t="n">
-        <v>16076</v>
+        <v>16073.66666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15830</v>
+        <v>15890</v>
       </c>
       <c r="C30" t="n">
-        <v>15830</v>
+        <v>15930</v>
       </c>
       <c r="D30" t="n">
-        <v>15940</v>
+        <v>15930</v>
       </c>
       <c r="E30" t="n">
-        <v>15830</v>
+        <v>15820</v>
       </c>
       <c r="F30" t="n">
-        <v>12.7783</v>
+        <v>678.5213</v>
       </c>
       <c r="G30" t="n">
-        <v>16077.5</v>
+        <v>16076</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>15830</v>
       </c>
       <c r="C31" t="n">
-        <v>15820</v>
+        <v>15830</v>
       </c>
       <c r="D31" t="n">
+        <v>15940</v>
+      </c>
+      <c r="E31" t="n">
         <v>15830</v>
       </c>
-      <c r="E31" t="n">
-        <v>15820</v>
-      </c>
       <c r="F31" t="n">
-        <v>110.3909</v>
+        <v>12.7783</v>
       </c>
       <c r="G31" t="n">
-        <v>16077</v>
+        <v>16077.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15820</v>
+        <v>15830</v>
       </c>
       <c r="C32" t="n">
         <v>15820</v>
       </c>
       <c r="D32" t="n">
-        <v>15820</v>
+        <v>15830</v>
       </c>
       <c r="E32" t="n">
         <v>15820</v>
       </c>
       <c r="F32" t="n">
-        <v>43.0754</v>
+        <v>110.3909</v>
       </c>
       <c r="G32" t="n">
-        <v>16076</v>
+        <v>16077</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,19 +1518,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15800</v>
+        <v>15820</v>
       </c>
       <c r="C33" t="n">
-        <v>15850</v>
+        <v>15820</v>
       </c>
       <c r="D33" t="n">
-        <v>15850</v>
+        <v>15820</v>
       </c>
       <c r="E33" t="n">
-        <v>15800</v>
+        <v>15820</v>
       </c>
       <c r="F33" t="n">
-        <v>72.64870000000001</v>
+        <v>43.0754</v>
       </c>
       <c r="G33" t="n">
         <v>16076</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15820</v>
+        <v>15800</v>
       </c>
       <c r="C34" t="n">
-        <v>15820</v>
+        <v>15850</v>
       </c>
       <c r="D34" t="n">
-        <v>15820</v>
+        <v>15850</v>
       </c>
       <c r="E34" t="n">
-        <v>15820</v>
+        <v>15800</v>
       </c>
       <c r="F34" t="n">
-        <v>3.642</v>
+        <v>72.64870000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>16075.5</v>
+        <v>16076</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>15820</v>
       </c>
       <c r="C35" t="n">
-        <v>15750</v>
+        <v>15820</v>
       </c>
       <c r="D35" t="n">
-        <v>15850</v>
+        <v>15820</v>
       </c>
       <c r="E35" t="n">
-        <v>15750</v>
+        <v>15820</v>
       </c>
       <c r="F35" t="n">
-        <v>137.9789</v>
+        <v>3.642</v>
       </c>
       <c r="G35" t="n">
-        <v>16073.83333333333</v>
+        <v>16075.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>15820</v>
+      </c>
+      <c r="C36" t="n">
         <v>15750</v>
-      </c>
-      <c r="C36" t="n">
-        <v>15850</v>
       </c>
       <c r="D36" t="n">
         <v>15850</v>
@@ -1635,7 +1635,7 @@
         <v>15750</v>
       </c>
       <c r="F36" t="n">
-        <v>47.5941</v>
+        <v>137.9789</v>
       </c>
       <c r="G36" t="n">
         <v>16073.83333333333</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15780</v>
+        <v>15750</v>
       </c>
       <c r="C37" t="n">
-        <v>15790</v>
+        <v>15850</v>
       </c>
       <c r="D37" t="n">
-        <v>15790</v>
+        <v>15850</v>
       </c>
       <c r="E37" t="n">
-        <v>15770</v>
+        <v>15750</v>
       </c>
       <c r="F37" t="n">
-        <v>15.2957</v>
+        <v>47.5941</v>
       </c>
       <c r="G37" t="n">
-        <v>16072.16666666667</v>
+        <v>16073.83333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>15780</v>
+      </c>
+      <c r="C38" t="n">
+        <v>15790</v>
+      </c>
+      <c r="D38" t="n">
+        <v>15790</v>
+      </c>
+      <c r="E38" t="n">
         <v>15770</v>
       </c>
-      <c r="C38" t="n">
-        <v>15780</v>
-      </c>
-      <c r="D38" t="n">
-        <v>15780</v>
-      </c>
-      <c r="E38" t="n">
-        <v>15750</v>
-      </c>
       <c r="F38" t="n">
-        <v>83.12569999999999</v>
+        <v>15.2957</v>
       </c>
       <c r="G38" t="n">
-        <v>16070.5</v>
+        <v>16072.16666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15750</v>
+        <v>15770</v>
       </c>
       <c r="C39" t="n">
         <v>15780</v>
@@ -1740,10 +1740,10 @@
         <v>15750</v>
       </c>
       <c r="F39" t="n">
-        <v>114.2199</v>
+        <v>83.12569999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>16068.66666666667</v>
+        <v>16070.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15770</v>
+        <v>15750</v>
       </c>
       <c r="C40" t="n">
-        <v>15790</v>
+        <v>15780</v>
       </c>
       <c r="D40" t="n">
-        <v>15790</v>
+        <v>15780</v>
       </c>
       <c r="E40" t="n">
-        <v>15770</v>
+        <v>15750</v>
       </c>
       <c r="F40" t="n">
-        <v>189.5199</v>
+        <v>114.2199</v>
       </c>
       <c r="G40" t="n">
-        <v>16067</v>
+        <v>16068.66666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15740</v>
+        <v>15770</v>
       </c>
       <c r="C41" t="n">
-        <v>15740</v>
+        <v>15790</v>
       </c>
       <c r="D41" t="n">
-        <v>15740</v>
+        <v>15790</v>
       </c>
       <c r="E41" t="n">
-        <v>15740</v>
+        <v>15770</v>
       </c>
       <c r="F41" t="n">
-        <v>1.9122</v>
+        <v>189.5199</v>
       </c>
       <c r="G41" t="n">
-        <v>16063.83333333333</v>
+        <v>16067</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15770</v>
+        <v>15740</v>
       </c>
       <c r="C42" t="n">
-        <v>15770</v>
+        <v>15740</v>
       </c>
       <c r="D42" t="n">
-        <v>15770</v>
+        <v>15740</v>
       </c>
       <c r="E42" t="n">
-        <v>15770</v>
+        <v>15740</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0519</v>
+        <v>1.9122</v>
       </c>
       <c r="G42" t="n">
-        <v>16061.33333333333</v>
+        <v>16063.83333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15700</v>
+        <v>15770</v>
       </c>
       <c r="C43" t="n">
-        <v>15630</v>
+        <v>15770</v>
       </c>
       <c r="D43" t="n">
-        <v>15750</v>
+        <v>15770</v>
       </c>
       <c r="E43" t="n">
-        <v>15630</v>
+        <v>15770</v>
       </c>
       <c r="F43" t="n">
-        <v>30.1011</v>
+        <v>0.0519</v>
       </c>
       <c r="G43" t="n">
-        <v>16056.16666666667</v>
+        <v>16061.33333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15730</v>
+        <v>15700</v>
       </c>
       <c r="C44" t="n">
-        <v>15730</v>
+        <v>15630</v>
       </c>
       <c r="D44" t="n">
-        <v>15730</v>
+        <v>15750</v>
       </c>
       <c r="E44" t="n">
-        <v>15730</v>
+        <v>15630</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0653</v>
+        <v>30.1011</v>
       </c>
       <c r="G44" t="n">
-        <v>16052.66666666667</v>
+        <v>16056.16666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>15730</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0318</v>
+        <v>0.0653</v>
       </c>
       <c r="G45" t="n">
-        <v>16050.5</v>
+        <v>16052.66666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15650</v>
+        <v>15730</v>
       </c>
       <c r="C46" t="n">
-        <v>15740</v>
+        <v>15730</v>
       </c>
       <c r="D46" t="n">
-        <v>15740</v>
+        <v>15730</v>
       </c>
       <c r="E46" t="n">
-        <v>15610</v>
+        <v>15730</v>
       </c>
       <c r="F46" t="n">
-        <v>67.7268</v>
+        <v>0.0318</v>
       </c>
       <c r="G46" t="n">
-        <v>16047</v>
+        <v>16050.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15760</v>
+        <v>15650</v>
       </c>
       <c r="C47" t="n">
-        <v>15760</v>
+        <v>15740</v>
       </c>
       <c r="D47" t="n">
-        <v>15760</v>
+        <v>15740</v>
       </c>
       <c r="E47" t="n">
-        <v>15760</v>
+        <v>15610</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0446</v>
+        <v>67.7268</v>
       </c>
       <c r="G47" t="n">
-        <v>16043.66666666667</v>
+        <v>16047</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15620</v>
+        <v>15760</v>
       </c>
       <c r="C48" t="n">
-        <v>15620</v>
+        <v>15760</v>
       </c>
       <c r="D48" t="n">
-        <v>15630</v>
+        <v>15760</v>
       </c>
       <c r="E48" t="n">
-        <v>15620</v>
+        <v>15760</v>
       </c>
       <c r="F48" t="n">
-        <v>243.5011</v>
+        <v>0.0446</v>
       </c>
       <c r="G48" t="n">
-        <v>16037.83333333333</v>
+        <v>16043.66666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15640</v>
+        <v>15620</v>
       </c>
       <c r="C49" t="n">
-        <v>15700</v>
+        <v>15620</v>
       </c>
       <c r="D49" t="n">
-        <v>15700</v>
+        <v>15630</v>
       </c>
       <c r="E49" t="n">
         <v>15620</v>
       </c>
       <c r="F49" t="n">
-        <v>18.7192</v>
+        <v>243.5011</v>
       </c>
       <c r="G49" t="n">
-        <v>16032.66666666667</v>
+        <v>16037.83333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15620</v>
+        <v>15640</v>
       </c>
       <c r="C50" t="n">
-        <v>15710</v>
+        <v>15700</v>
       </c>
       <c r="D50" t="n">
-        <v>15710</v>
+        <v>15700</v>
       </c>
       <c r="E50" t="n">
         <v>15620</v>
       </c>
       <c r="F50" t="n">
-        <v>10.4424</v>
+        <v>18.7192</v>
       </c>
       <c r="G50" t="n">
-        <v>16025.83333333333</v>
+        <v>16032.66666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>15620</v>
       </c>
       <c r="C51" t="n">
-        <v>15620</v>
+        <v>15710</v>
       </c>
       <c r="D51" t="n">
-        <v>15670</v>
+        <v>15710</v>
       </c>
       <c r="E51" t="n">
         <v>15620</v>
       </c>
       <c r="F51" t="n">
-        <v>6.8664</v>
+        <v>10.4424</v>
       </c>
       <c r="G51" t="n">
-        <v>16017.83333333333</v>
+        <v>16025.83333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>15620</v>
       </c>
       <c r="C52" t="n">
-        <v>15680</v>
+        <v>15620</v>
       </c>
       <c r="D52" t="n">
-        <v>15680</v>
+        <v>15670</v>
       </c>
       <c r="E52" t="n">
-        <v>15610</v>
+        <v>15620</v>
       </c>
       <c r="F52" t="n">
-        <v>1.9891</v>
+        <v>6.8664</v>
       </c>
       <c r="G52" t="n">
-        <v>16010.5</v>
+        <v>16017.83333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15690</v>
+        <v>15620</v>
       </c>
       <c r="C53" t="n">
+        <v>15680</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15680</v>
+      </c>
+      <c r="E53" t="n">
         <v>15610</v>
       </c>
-      <c r="D53" t="n">
-        <v>15690</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15600</v>
-      </c>
       <c r="F53" t="n">
-        <v>47.0539</v>
+        <v>1.9891</v>
       </c>
       <c r="G53" t="n">
-        <v>16002</v>
+        <v>16010.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>15690</v>
+      </c>
+      <c r="C54" t="n">
         <v>15610</v>
       </c>
-      <c r="C54" t="n">
-        <v>15600</v>
-      </c>
       <c r="D54" t="n">
-        <v>15610</v>
+        <v>15690</v>
       </c>
       <c r="E54" t="n">
         <v>15600</v>
       </c>
       <c r="F54" t="n">
-        <v>65</v>
+        <v>47.0539</v>
       </c>
       <c r="G54" t="n">
-        <v>15993.33333333333</v>
+        <v>16002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15600</v>
+        <v>15610</v>
       </c>
       <c r="C55" t="n">
         <v>15600</v>
       </c>
       <c r="D55" t="n">
-        <v>15600</v>
+        <v>15610</v>
       </c>
       <c r="E55" t="n">
         <v>15600</v>
       </c>
       <c r="F55" t="n">
-        <v>0.033</v>
+        <v>65</v>
       </c>
       <c r="G55" t="n">
-        <v>15984.66666666667</v>
+        <v>15993.33333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15590</v>
+        <v>15600</v>
       </c>
       <c r="C56" t="n">
-        <v>15560</v>
+        <v>15600</v>
       </c>
       <c r="D56" t="n">
-        <v>15590</v>
+        <v>15600</v>
       </c>
       <c r="E56" t="n">
-        <v>15560</v>
+        <v>15600</v>
       </c>
       <c r="F56" t="n">
-        <v>34.8141</v>
+        <v>0.033</v>
       </c>
       <c r="G56" t="n">
-        <v>15976.83333333333</v>
+        <v>15984.66666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>15590</v>
+      </c>
+      <c r="C57" t="n">
         <v>15560</v>
       </c>
-      <c r="C57" t="n">
-        <v>15540</v>
-      </c>
       <c r="D57" t="n">
+        <v>15590</v>
+      </c>
+      <c r="E57" t="n">
         <v>15560</v>
       </c>
-      <c r="E57" t="n">
-        <v>15540</v>
-      </c>
       <c r="F57" t="n">
-        <v>649.9846</v>
+        <v>34.8141</v>
       </c>
       <c r="G57" t="n">
-        <v>15967.5</v>
+        <v>15976.83333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15550</v>
+        <v>15560</v>
       </c>
       <c r="C58" t="n">
-        <v>15550</v>
+        <v>15540</v>
       </c>
       <c r="D58" t="n">
-        <v>15550</v>
+        <v>15560</v>
       </c>
       <c r="E58" t="n">
-        <v>15530</v>
+        <v>15540</v>
       </c>
       <c r="F58" t="n">
-        <v>168.3134</v>
+        <v>649.9846</v>
       </c>
       <c r="G58" t="n">
-        <v>15958.16666666667</v>
+        <v>15967.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2437,13 +2437,13 @@
         <v>15550</v>
       </c>
       <c r="E59" t="n">
-        <v>15550</v>
+        <v>15530</v>
       </c>
       <c r="F59" t="n">
-        <v>6.575</v>
+        <v>168.3134</v>
       </c>
       <c r="G59" t="n">
-        <v>15948.66666666667</v>
+        <v>15958.16666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>15550</v>
       </c>
       <c r="F60" t="n">
-        <v>7.0652</v>
+        <v>6.575</v>
       </c>
       <c r="G60" t="n">
-        <v>15938.5</v>
+        <v>15948.66666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>15550</v>
       </c>
       <c r="F61" t="n">
-        <v>15.8322</v>
+        <v>7.0652</v>
       </c>
       <c r="G61" t="n">
-        <v>15928.66666666667</v>
+        <v>15938.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>15550</v>
       </c>
       <c r="F62" t="n">
-        <v>4.8288</v>
+        <v>15.8322</v>
       </c>
       <c r="G62" t="n">
-        <v>15918.66666666667</v>
+        <v>15928.66666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15580</v>
+        <v>15550</v>
       </c>
       <c r="C63" t="n">
-        <v>15610</v>
+        <v>15550</v>
       </c>
       <c r="D63" t="n">
-        <v>15610</v>
+        <v>15550</v>
       </c>
       <c r="E63" t="n">
-        <v>15580</v>
+        <v>15550</v>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>4.8288</v>
       </c>
       <c r="G63" t="n">
-        <v>15909.5</v>
+        <v>15918.66666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15680</v>
+        <v>15580</v>
       </c>
       <c r="C64" t="n">
-        <v>15730</v>
+        <v>15610</v>
       </c>
       <c r="D64" t="n">
-        <v>15730</v>
+        <v>15610</v>
       </c>
       <c r="E64" t="n">
-        <v>15680</v>
+        <v>15580</v>
       </c>
       <c r="F64" t="n">
-        <v>1.4889</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>15902</v>
+        <v>15909.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15670</v>
+        <v>15680</v>
       </c>
       <c r="C65" t="n">
         <v>15730</v>
@@ -2647,13 +2647,13 @@
         <v>15730</v>
       </c>
       <c r="E65" t="n">
-        <v>15670</v>
+        <v>15680</v>
       </c>
       <c r="F65" t="n">
-        <v>0.104</v>
+        <v>1.4889</v>
       </c>
       <c r="G65" t="n">
-        <v>15894.5</v>
+        <v>15902</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15710</v>
+        <v>15670</v>
       </c>
       <c r="C66" t="n">
-        <v>15840</v>
+        <v>15730</v>
       </c>
       <c r="D66" t="n">
-        <v>15840</v>
+        <v>15730</v>
       </c>
       <c r="E66" t="n">
-        <v>15710</v>
+        <v>15670</v>
       </c>
       <c r="F66" t="n">
-        <v>1.4</v>
+        <v>0.104</v>
       </c>
       <c r="G66" t="n">
-        <v>15888.83333333333</v>
+        <v>15894.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15860</v>
+        <v>15710</v>
       </c>
       <c r="C67" t="n">
-        <v>15860</v>
+        <v>15840</v>
       </c>
       <c r="D67" t="n">
-        <v>15860</v>
+        <v>15840</v>
       </c>
       <c r="E67" t="n">
-        <v>15860</v>
+        <v>15710</v>
       </c>
       <c r="F67" t="n">
-        <v>2.8682</v>
+        <v>1.4</v>
       </c>
       <c r="G67" t="n">
-        <v>15883.16666666667</v>
+        <v>15888.83333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>15860</v>
       </c>
       <c r="C68" t="n">
-        <v>15940</v>
+        <v>15860</v>
       </c>
       <c r="D68" t="n">
-        <v>15940</v>
+        <v>15860</v>
       </c>
       <c r="E68" t="n">
         <v>15860</v>
       </c>
       <c r="F68" t="n">
-        <v>0.07199999999999999</v>
+        <v>2.8682</v>
       </c>
       <c r="G68" t="n">
-        <v>15880</v>
+        <v>15883.16666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>15860</v>
+      </c>
+      <c r="C69" t="n">
         <v>15940</v>
       </c>
-      <c r="C69" t="n">
-        <v>15950</v>
-      </c>
       <c r="D69" t="n">
-        <v>15950</v>
+        <v>15940</v>
       </c>
       <c r="E69" t="n">
-        <v>15940</v>
+        <v>15860</v>
       </c>
       <c r="F69" t="n">
-        <v>35.1731</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>15875.5</v>
+        <v>15880</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>15940</v>
+      </c>
+      <c r="C70" t="n">
         <v>15950</v>
       </c>
-      <c r="C70" t="n">
-        <v>15960</v>
-      </c>
       <c r="D70" t="n">
-        <v>15960</v>
+        <v>15950</v>
       </c>
       <c r="E70" t="n">
-        <v>15950</v>
+        <v>15940</v>
       </c>
       <c r="F70" t="n">
-        <v>13.9318</v>
+        <v>35.1731</v>
       </c>
       <c r="G70" t="n">
-        <v>15871.33333333333</v>
+        <v>15875.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>15950</v>
       </c>
       <c r="C71" t="n">
-        <v>15950</v>
+        <v>15960</v>
       </c>
       <c r="D71" t="n">
-        <v>15950</v>
+        <v>15960</v>
       </c>
       <c r="E71" t="n">
         <v>15950</v>
       </c>
       <c r="F71" t="n">
-        <v>16.3673</v>
+        <v>13.9318</v>
       </c>
       <c r="G71" t="n">
-        <v>15866.66666666667</v>
+        <v>15871.33333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15940</v>
+        <v>15950</v>
       </c>
       <c r="C72" t="n">
-        <v>15850</v>
+        <v>15950</v>
       </c>
       <c r="D72" t="n">
-        <v>15940</v>
+        <v>15950</v>
       </c>
       <c r="E72" t="n">
-        <v>15760</v>
+        <v>15950</v>
       </c>
       <c r="F72" t="n">
-        <v>960.7943</v>
+        <v>16.3673</v>
       </c>
       <c r="G72" t="n">
-        <v>15858</v>
+        <v>15866.66666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15840</v>
+        <v>15940</v>
       </c>
       <c r="C73" t="n">
         <v>15850</v>
       </c>
       <c r="D73" t="n">
-        <v>15850</v>
+        <v>15940</v>
       </c>
       <c r="E73" t="n">
-        <v>15840</v>
+        <v>15760</v>
       </c>
       <c r="F73" t="n">
-        <v>88.5112</v>
+        <v>960.7943</v>
       </c>
       <c r="G73" t="n">
-        <v>15849.66666666667</v>
+        <v>15858</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15760</v>
+        <v>15840</v>
       </c>
       <c r="C74" t="n">
+        <v>15850</v>
+      </c>
+      <c r="D74" t="n">
+        <v>15850</v>
+      </c>
+      <c r="E74" t="n">
         <v>15840</v>
       </c>
-      <c r="D74" t="n">
-        <v>15840</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15660</v>
-      </c>
       <c r="F74" t="n">
-        <v>490.0673</v>
+        <v>88.5112</v>
       </c>
       <c r="G74" t="n">
-        <v>15841.66666666667</v>
+        <v>15849.66666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15770</v>
+        <v>15760</v>
       </c>
       <c r="C75" t="n">
-        <v>15770</v>
+        <v>15840</v>
       </c>
       <c r="D75" t="n">
-        <v>15770</v>
+        <v>15840</v>
       </c>
       <c r="E75" t="n">
-        <v>15770</v>
+        <v>15660</v>
       </c>
       <c r="F75" t="n">
-        <v>24.7966</v>
+        <v>490.0673</v>
       </c>
       <c r="G75" t="n">
-        <v>15832.66666666667</v>
+        <v>15841.66666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>15770</v>
       </c>
       <c r="F76" t="n">
-        <v>20.5331</v>
+        <v>24.7966</v>
       </c>
       <c r="G76" t="n">
-        <v>15822.83333333333</v>
+        <v>15832.66666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15710</v>
+        <v>15770</v>
       </c>
       <c r="C77" t="n">
-        <v>15690</v>
+        <v>15770</v>
       </c>
       <c r="D77" t="n">
-        <v>15710</v>
+        <v>15770</v>
       </c>
       <c r="E77" t="n">
-        <v>15690</v>
+        <v>15770</v>
       </c>
       <c r="F77" t="n">
-        <v>247.1932</v>
+        <v>20.5331</v>
       </c>
       <c r="G77" t="n">
-        <v>15811.5</v>
+        <v>15822.83333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15660</v>
+        <v>15710</v>
       </c>
       <c r="C78" t="n">
-        <v>15660</v>
+        <v>15690</v>
       </c>
       <c r="D78" t="n">
-        <v>15660</v>
+        <v>15710</v>
       </c>
       <c r="E78" t="n">
-        <v>15660</v>
+        <v>15690</v>
       </c>
       <c r="F78" t="n">
-        <v>150</v>
+        <v>247.1932</v>
       </c>
       <c r="G78" t="n">
-        <v>15799.5</v>
+        <v>15811.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15630</v>
+        <v>15660</v>
       </c>
       <c r="C79" t="n">
-        <v>15630</v>
+        <v>15660</v>
       </c>
       <c r="D79" t="n">
-        <v>15630</v>
+        <v>15660</v>
       </c>
       <c r="E79" t="n">
-        <v>15630</v>
+        <v>15660</v>
       </c>
       <c r="F79" t="n">
-        <v>159.8088</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
-        <v>15787.33333333333</v>
+        <v>15799.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15510</v>
+        <v>15630</v>
       </c>
       <c r="C80" t="n">
-        <v>15490</v>
+        <v>15630</v>
       </c>
       <c r="D80" t="n">
-        <v>15510</v>
+        <v>15630</v>
       </c>
       <c r="E80" t="n">
-        <v>15490</v>
+        <v>15630</v>
       </c>
       <c r="F80" t="n">
-        <v>59.4001</v>
+        <v>159.8088</v>
       </c>
       <c r="G80" t="n">
-        <v>15774.33333333333</v>
+        <v>15787.33333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>15510</v>
+      </c>
+      <c r="C81" t="n">
         <v>15490</v>
       </c>
-      <c r="C81" t="n">
-        <v>15470</v>
-      </c>
       <c r="D81" t="n">
+        <v>15510</v>
+      </c>
+      <c r="E81" t="n">
         <v>15490</v>
       </c>
-      <c r="E81" t="n">
-        <v>15470</v>
-      </c>
       <c r="F81" t="n">
-        <v>166.7364</v>
+        <v>59.4001</v>
       </c>
       <c r="G81" t="n">
-        <v>15761.83333333333</v>
+        <v>15774.33333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15460</v>
+        <v>15490</v>
       </c>
       <c r="C82" t="n">
-        <v>15420</v>
+        <v>15470</v>
       </c>
       <c r="D82" t="n">
-        <v>15460</v>
+        <v>15490</v>
       </c>
       <c r="E82" t="n">
-        <v>15420</v>
+        <v>15470</v>
       </c>
       <c r="F82" t="n">
-        <v>121.8931</v>
+        <v>166.7364</v>
       </c>
       <c r="G82" t="n">
-        <v>15749.66666666667</v>
+        <v>15761.83333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15420</v>
+        <v>15460</v>
       </c>
       <c r="C83" t="n">
         <v>15420</v>
       </c>
       <c r="D83" t="n">
-        <v>15420</v>
+        <v>15460</v>
       </c>
       <c r="E83" t="n">
         <v>15420</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>121.8931</v>
       </c>
       <c r="G83" t="n">
-        <v>15737</v>
+        <v>15749.66666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3306,19 @@
         <v>15420</v>
       </c>
       <c r="C84" t="n">
-        <v>15400</v>
+        <v>15420</v>
       </c>
       <c r="D84" t="n">
         <v>15420</v>
       </c>
       <c r="E84" t="n">
-        <v>15400</v>
+        <v>15420</v>
       </c>
       <c r="F84" t="n">
-        <v>355.1498</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>15725.5</v>
+        <v>15737</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15390</v>
+        <v>15420</v>
       </c>
       <c r="C85" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="D85" t="n">
-        <v>15390</v>
+        <v>15420</v>
       </c>
       <c r="E85" t="n">
-        <v>15390</v>
+        <v>15400</v>
       </c>
       <c r="F85" t="n">
-        <v>374.406</v>
+        <v>355.1498</v>
       </c>
       <c r="G85" t="n">
-        <v>15715.16666666667</v>
+        <v>15725.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15400</v>
+        <v>15390</v>
       </c>
       <c r="C86" t="n">
-        <v>15430</v>
+        <v>15390</v>
       </c>
       <c r="D86" t="n">
-        <v>15430</v>
+        <v>15390</v>
       </c>
       <c r="E86" t="n">
-        <v>15400</v>
+        <v>15390</v>
       </c>
       <c r="F86" t="n">
-        <v>1.4147</v>
+        <v>374.406</v>
       </c>
       <c r="G86" t="n">
-        <v>15705.33333333333</v>
+        <v>15715.16666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>15400</v>
       </c>
       <c r="C87" t="n">
-        <v>15390</v>
+        <v>15430</v>
       </c>
       <c r="D87" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E87" t="n">
         <v>15400</v>
       </c>
-      <c r="E87" t="n">
-        <v>15390</v>
-      </c>
       <c r="F87" t="n">
-        <v>149.0975</v>
+        <v>1.4147</v>
       </c>
       <c r="G87" t="n">
-        <v>15697.16666666667</v>
+        <v>15705.33333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15350</v>
+        <v>15400</v>
       </c>
       <c r="C88" t="n">
-        <v>15350</v>
+        <v>15390</v>
       </c>
       <c r="D88" t="n">
-        <v>15350</v>
+        <v>15400</v>
       </c>
       <c r="E88" t="n">
-        <v>15350</v>
+        <v>15390</v>
       </c>
       <c r="F88" t="n">
-        <v>749.1806</v>
+        <v>149.0975</v>
       </c>
       <c r="G88" t="n">
-        <v>15688.16666666667</v>
+        <v>15697.16666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15300</v>
+        <v>15350</v>
       </c>
       <c r="C89" t="n">
-        <v>15290</v>
+        <v>15350</v>
       </c>
       <c r="D89" t="n">
-        <v>15300</v>
+        <v>15350</v>
       </c>
       <c r="E89" t="n">
-        <v>15290</v>
+        <v>15350</v>
       </c>
       <c r="F89" t="n">
-        <v>47.1502</v>
+        <v>749.1806</v>
       </c>
       <c r="G89" t="n">
-        <v>15677.5</v>
+        <v>15688.16666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3516,19 @@
         <v>15300</v>
       </c>
       <c r="C90" t="n">
-        <v>15260</v>
+        <v>15290</v>
       </c>
       <c r="D90" t="n">
         <v>15300</v>
       </c>
       <c r="E90" t="n">
-        <v>15260</v>
+        <v>15290</v>
       </c>
       <c r="F90" t="n">
-        <v>603.8102</v>
+        <v>47.1502</v>
       </c>
       <c r="G90" t="n">
-        <v>15668</v>
+        <v>15677.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="C91" t="n">
-        <v>15200</v>
+        <v>15260</v>
       </c>
       <c r="D91" t="n">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="E91" t="n">
-        <v>15200</v>
+        <v>15260</v>
       </c>
       <c r="F91" t="n">
-        <v>28.7821</v>
+        <v>603.8102</v>
       </c>
       <c r="G91" t="n">
-        <v>15657.66666666667</v>
+        <v>15668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15210</v>
+        <v>15200</v>
       </c>
       <c r="C92" t="n">
-        <v>15210</v>
+        <v>15200</v>
       </c>
       <c r="D92" t="n">
-        <v>15210</v>
+        <v>15200</v>
       </c>
       <c r="E92" t="n">
-        <v>15210</v>
+        <v>15200</v>
       </c>
       <c r="F92" t="n">
-        <v>36.63</v>
+        <v>28.7821</v>
       </c>
       <c r="G92" t="n">
-        <v>15647.5</v>
+        <v>15657.66666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,19 +3621,19 @@
         <v>15210</v>
       </c>
       <c r="C93" t="n">
-        <v>15200</v>
+        <v>15210</v>
       </c>
       <c r="D93" t="n">
-        <v>15270</v>
+        <v>15210</v>
       </c>
       <c r="E93" t="n">
-        <v>15200</v>
+        <v>15210</v>
       </c>
       <c r="F93" t="n">
-        <v>211.4403844138834</v>
+        <v>36.63</v>
       </c>
       <c r="G93" t="n">
-        <v>15636.66666666667</v>
+        <v>15647.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15290</v>
+        <v>15210</v>
       </c>
       <c r="C94" t="n">
-        <v>15290</v>
+        <v>15200</v>
       </c>
       <c r="D94" t="n">
-        <v>15290</v>
+        <v>15270</v>
       </c>
       <c r="E94" t="n">
-        <v>15290</v>
+        <v>15200</v>
       </c>
       <c r="F94" t="n">
-        <v>0.039</v>
+        <v>211.4403844138834</v>
       </c>
       <c r="G94" t="n">
-        <v>15627.83333333333</v>
+        <v>15636.66666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15200</v>
+        <v>15290</v>
       </c>
       <c r="C95" t="n">
-        <v>15200</v>
+        <v>15290</v>
       </c>
       <c r="D95" t="n">
-        <v>15200</v>
+        <v>15290</v>
       </c>
       <c r="E95" t="n">
-        <v>15200</v>
+        <v>15290</v>
       </c>
       <c r="F95" t="n">
-        <v>7.5361</v>
+        <v>0.039</v>
       </c>
       <c r="G95" t="n">
-        <v>15618.66666666667</v>
+        <v>15627.83333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>15200</v>
       </c>
       <c r="C96" t="n">
-        <v>15190</v>
+        <v>15200</v>
       </c>
       <c r="D96" t="n">
         <v>15200</v>
       </c>
       <c r="E96" t="n">
-        <v>15190</v>
+        <v>15200</v>
       </c>
       <c r="F96" t="n">
-        <v>188.9735</v>
+        <v>7.5361</v>
       </c>
       <c r="G96" t="n">
-        <v>15607.66666666667</v>
+        <v>15618.66666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15270</v>
+        <v>15200</v>
       </c>
       <c r="C97" t="n">
-        <v>15270</v>
+        <v>15190</v>
       </c>
       <c r="D97" t="n">
-        <v>15270</v>
+        <v>15200</v>
       </c>
       <c r="E97" t="n">
-        <v>15270</v>
+        <v>15190</v>
       </c>
       <c r="F97" t="n">
-        <v>103.2795</v>
+        <v>188.9735</v>
       </c>
       <c r="G97" t="n">
-        <v>15599</v>
+        <v>15607.66666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15300</v>
+        <v>15270</v>
       </c>
       <c r="C98" t="n">
-        <v>15300</v>
+        <v>15270</v>
       </c>
       <c r="D98" t="n">
-        <v>15300</v>
+        <v>15270</v>
       </c>
       <c r="E98" t="n">
-        <v>15300</v>
+        <v>15270</v>
       </c>
       <c r="F98" t="n">
-        <v>51.5765</v>
+        <v>103.2795</v>
       </c>
       <c r="G98" t="n">
-        <v>15591</v>
+        <v>15599</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15290</v>
+        <v>15300</v>
       </c>
       <c r="C99" t="n">
-        <v>15290</v>
+        <v>15300</v>
       </c>
       <c r="D99" t="n">
-        <v>15290</v>
+        <v>15300</v>
       </c>
       <c r="E99" t="n">
-        <v>15290</v>
+        <v>15300</v>
       </c>
       <c r="F99" t="n">
-        <v>32.55</v>
+        <v>51.5765</v>
       </c>
       <c r="G99" t="n">
-        <v>15582.83333333333</v>
+        <v>15591</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15260</v>
+        <v>15290</v>
       </c>
       <c r="C100" t="n">
-        <v>15250</v>
+        <v>15290</v>
       </c>
       <c r="D100" t="n">
-        <v>15260</v>
+        <v>15290</v>
       </c>
       <c r="E100" t="n">
-        <v>15250</v>
+        <v>15290</v>
       </c>
       <c r="F100" t="n">
-        <v>34.1133</v>
+        <v>32.55</v>
       </c>
       <c r="G100" t="n">
-        <v>15573.83333333333</v>
+        <v>15582.83333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>15260</v>
       </c>
       <c r="C101" t="n">
-        <v>15260</v>
+        <v>15250</v>
       </c>
       <c r="D101" t="n">
         <v>15260</v>
       </c>
       <c r="E101" t="n">
-        <v>15260</v>
+        <v>15250</v>
       </c>
       <c r="F101" t="n">
-        <v>16.3813</v>
+        <v>34.1133</v>
       </c>
       <c r="G101" t="n">
-        <v>15565.83333333333</v>
+        <v>15573.83333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15310</v>
+        <v>15260</v>
       </c>
       <c r="C102" t="n">
-        <v>15250</v>
+        <v>15260</v>
       </c>
       <c r="D102" t="n">
-        <v>15330</v>
+        <v>15260</v>
       </c>
       <c r="E102" t="n">
-        <v>15250</v>
+        <v>15260</v>
       </c>
       <c r="F102" t="n">
-        <v>46.8978</v>
+        <v>16.3813</v>
       </c>
       <c r="G102" t="n">
-        <v>15557.16666666667</v>
+        <v>15565.83333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15250</v>
+        <v>15310</v>
       </c>
       <c r="C103" t="n">
         <v>15250</v>
       </c>
       <c r="D103" t="n">
-        <v>15250</v>
+        <v>15330</v>
       </c>
       <c r="E103" t="n">
         <v>15250</v>
       </c>
       <c r="F103" t="n">
-        <v>5.0385</v>
+        <v>46.8978</v>
       </c>
       <c r="G103" t="n">
-        <v>15550.83333333333</v>
+        <v>15557.16666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15200</v>
+        <v>15250</v>
       </c>
       <c r="C104" t="n">
         <v>15250</v>
@@ -4012,13 +4012,13 @@
         <v>15250</v>
       </c>
       <c r="E104" t="n">
-        <v>15200</v>
+        <v>15250</v>
       </c>
       <c r="F104" t="n">
-        <v>11.0105</v>
+        <v>5.0385</v>
       </c>
       <c r="G104" t="n">
-        <v>15542.83333333333</v>
+        <v>15550.83333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>15200</v>
       </c>
       <c r="C105" t="n">
-        <v>15190</v>
+        <v>15250</v>
       </c>
       <c r="D105" t="n">
+        <v>15250</v>
+      </c>
+      <c r="E105" t="n">
         <v>15200</v>
       </c>
-      <c r="E105" t="n">
-        <v>15190</v>
-      </c>
       <c r="F105" t="n">
-        <v>22.0583</v>
+        <v>11.0105</v>
       </c>
       <c r="G105" t="n">
-        <v>15533.83333333333</v>
+        <v>15542.83333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>15200</v>
+      </c>
+      <c r="C106" t="n">
         <v>15190</v>
       </c>
-      <c r="C106" t="n">
-        <v>15160</v>
-      </c>
       <c r="D106" t="n">
+        <v>15200</v>
+      </c>
+      <c r="E106" t="n">
         <v>15190</v>
       </c>
-      <c r="E106" t="n">
-        <v>15160</v>
-      </c>
       <c r="F106" t="n">
-        <v>222.9128</v>
+        <v>22.0583</v>
       </c>
       <c r="G106" t="n">
-        <v>15524.16666666667</v>
+        <v>15533.83333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>15190</v>
       </c>
       <c r="C107" t="n">
-        <v>15150</v>
+        <v>15160</v>
       </c>
       <c r="D107" t="n">
         <v>15190</v>
       </c>
       <c r="E107" t="n">
-        <v>15150</v>
+        <v>15160</v>
       </c>
       <c r="F107" t="n">
-        <v>375.3905</v>
+        <v>222.9128</v>
       </c>
       <c r="G107" t="n">
-        <v>15514</v>
+        <v>15524.16666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15220</v>
+        <v>15190</v>
       </c>
       <c r="C108" t="n">
-        <v>15240</v>
+        <v>15150</v>
       </c>
       <c r="D108" t="n">
-        <v>15240</v>
+        <v>15190</v>
       </c>
       <c r="E108" t="n">
-        <v>15220</v>
+        <v>15150</v>
       </c>
       <c r="F108" t="n">
-        <v>59.2571</v>
+        <v>375.3905</v>
       </c>
       <c r="G108" t="n">
-        <v>15507.66666666667</v>
+        <v>15514</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15240</v>
+        <v>15220</v>
       </c>
       <c r="C109" t="n">
         <v>15240</v>
@@ -4187,13 +4187,13 @@
         <v>15240</v>
       </c>
       <c r="E109" t="n">
-        <v>15240</v>
+        <v>15220</v>
       </c>
       <c r="F109" t="n">
-        <v>8.4215</v>
+        <v>59.2571</v>
       </c>
       <c r="G109" t="n">
-        <v>15500</v>
+        <v>15507.66666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15230</v>
+        <v>15240</v>
       </c>
       <c r="C110" t="n">
-        <v>15180</v>
+        <v>15240</v>
       </c>
       <c r="D110" t="n">
-        <v>15230</v>
+        <v>15240</v>
       </c>
       <c r="E110" t="n">
-        <v>15180</v>
+        <v>15240</v>
       </c>
       <c r="F110" t="n">
-        <v>12.0425</v>
+        <v>8.4215</v>
       </c>
       <c r="G110" t="n">
-        <v>15491.16666666667</v>
+        <v>15500</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15200</v>
+        <v>15230</v>
       </c>
       <c r="C111" t="n">
-        <v>15200</v>
+        <v>15180</v>
       </c>
       <c r="D111" t="n">
-        <v>15200</v>
+        <v>15230</v>
       </c>
       <c r="E111" t="n">
-        <v>15200</v>
+        <v>15180</v>
       </c>
       <c r="F111" t="n">
-        <v>19.1546</v>
+        <v>12.0425</v>
       </c>
       <c r="G111" t="n">
-        <v>15484.16666666667</v>
+        <v>15491.16666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15180</v>
+        <v>15200</v>
       </c>
       <c r="C112" t="n">
-        <v>15180</v>
+        <v>15200</v>
       </c>
       <c r="D112" t="n">
-        <v>15180</v>
+        <v>15200</v>
       </c>
       <c r="E112" t="n">
-        <v>15180</v>
+        <v>15200</v>
       </c>
       <c r="F112" t="n">
-        <v>82.0707</v>
+        <v>19.1546</v>
       </c>
       <c r="G112" t="n">
-        <v>15475.83333333333</v>
+        <v>15484.16666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,38 +4318,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15170</v>
+        <v>15180</v>
       </c>
       <c r="C113" t="n">
-        <v>15150</v>
+        <v>15180</v>
       </c>
       <c r="D113" t="n">
-        <v>15170</v>
+        <v>15180</v>
       </c>
       <c r="E113" t="n">
-        <v>15150</v>
+        <v>15180</v>
       </c>
       <c r="F113" t="n">
-        <v>37.3684</v>
+        <v>82.0707</v>
       </c>
       <c r="G113" t="n">
-        <v>15468.16666666667</v>
+        <v>15475.83333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>15180</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4359,38 +4353,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15190</v>
+        <v>15170</v>
       </c>
       <c r="C114" t="n">
-        <v>15190</v>
+        <v>15150</v>
       </c>
       <c r="D114" t="n">
-        <v>15190</v>
+        <v>15170</v>
       </c>
       <c r="E114" t="n">
-        <v>15190</v>
+        <v>15150</v>
       </c>
       <c r="F114" t="n">
-        <v>98.9509</v>
+        <v>37.3684</v>
       </c>
       <c r="G114" t="n">
-        <v>15461.33333333333</v>
+        <v>15468.16666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>15150</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4400,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15160</v>
+        <v>15190</v>
       </c>
       <c r="C115" t="n">
-        <v>15150</v>
+        <v>15190</v>
       </c>
       <c r="D115" t="n">
-        <v>15160</v>
+        <v>15190</v>
       </c>
       <c r="E115" t="n">
-        <v>15150</v>
+        <v>15190</v>
       </c>
       <c r="F115" t="n">
-        <v>66.6606</v>
+        <v>98.9509</v>
       </c>
       <c r="G115" t="n">
-        <v>15453.83333333333</v>
+        <v>15461.33333333333</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4424,14 +4412,12 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>15190</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15150</v>
+      </c>
+      <c r="K115" t="n">
+        <v>15150</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,22 +4427,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15150</v>
+        <v>15160</v>
       </c>
       <c r="C116" t="n">
         <v>15150</v>
       </c>
       <c r="D116" t="n">
-        <v>15150</v>
+        <v>15160</v>
       </c>
       <c r="E116" t="n">
         <v>15150</v>
       </c>
       <c r="F116" t="n">
-        <v>11.08</v>
+        <v>66.6606</v>
       </c>
       <c r="G116" t="n">
-        <v>15447</v>
+        <v>15453.83333333333</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4465,12 +4451,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>15150</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>15190</v>
+      </c>
+      <c r="K116" t="n">
+        <v>15150</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -4494,10 +4482,10 @@
         <v>15150</v>
       </c>
       <c r="F117" t="n">
-        <v>2.0373</v>
+        <v>11.08</v>
       </c>
       <c r="G117" t="n">
-        <v>15440.5</v>
+        <v>15447</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4508,7 +4496,9 @@
       <c r="J117" t="n">
         <v>15150</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>15150</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4523,22 +4513,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15180</v>
+        <v>15150</v>
       </c>
       <c r="C118" t="n">
-        <v>15180</v>
+        <v>15150</v>
       </c>
       <c r="D118" t="n">
-        <v>15180</v>
+        <v>15150</v>
       </c>
       <c r="E118" t="n">
-        <v>15180</v>
+        <v>15150</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8827</v>
+        <v>2.0373</v>
       </c>
       <c r="G118" t="n">
-        <v>15434.33333333333</v>
+        <v>15440.5</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4549,7 +4539,9 @@
       <c r="J118" t="n">
         <v>15150</v>
       </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>15150</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,22 +4556,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15170</v>
+        <v>15180</v>
       </c>
       <c r="C119" t="n">
-        <v>15170</v>
+        <v>15180</v>
       </c>
       <c r="D119" t="n">
-        <v>15170</v>
+        <v>15180</v>
       </c>
       <c r="E119" t="n">
-        <v>15170</v>
+        <v>15180</v>
       </c>
       <c r="F119" t="n">
-        <v>36.7504</v>
+        <v>0.8827</v>
       </c>
       <c r="G119" t="n">
-        <v>15428</v>
+        <v>15434.33333333333</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4588,9 +4580,11 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>15180</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+        <v>15150</v>
+      </c>
+      <c r="K119" t="n">
+        <v>15150</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,22 +4599,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15200</v>
+        <v>15170</v>
       </c>
       <c r="C120" t="n">
-        <v>15200</v>
+        <v>15170</v>
       </c>
       <c r="D120" t="n">
-        <v>15200</v>
+        <v>15170</v>
       </c>
       <c r="E120" t="n">
-        <v>15200</v>
+        <v>15170</v>
       </c>
       <c r="F120" t="n">
-        <v>25.7584</v>
+        <v>36.7504</v>
       </c>
       <c r="G120" t="n">
-        <v>15422.16666666667</v>
+        <v>15428</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4629,9 +4623,11 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>15170</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>15180</v>
+      </c>
+      <c r="K120" t="n">
+        <v>15150</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,28 +4645,32 @@
         <v>15200</v>
       </c>
       <c r="C121" t="n">
-        <v>15140</v>
+        <v>15200</v>
       </c>
       <c r="D121" t="n">
         <v>15200</v>
       </c>
       <c r="E121" t="n">
-        <v>15140</v>
+        <v>15200</v>
       </c>
       <c r="F121" t="n">
-        <v>30.8398</v>
+        <v>25.7584</v>
       </c>
       <c r="G121" t="n">
-        <v>15415.33333333333</v>
+        <v>15422.16666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15170</v>
+      </c>
+      <c r="K121" t="n">
+        <v>15150</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4685,31 +4685,35 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15210</v>
+        <v>15200</v>
       </c>
       <c r="C122" t="n">
-        <v>15210</v>
+        <v>15140</v>
       </c>
       <c r="D122" t="n">
-        <v>15210</v>
+        <v>15200</v>
       </c>
       <c r="E122" t="n">
-        <v>15210</v>
+        <v>15140</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04</v>
+        <v>30.8398</v>
       </c>
       <c r="G122" t="n">
-        <v>15409.66666666667</v>
+        <v>15415.33333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>15200</v>
+      </c>
+      <c r="K122" t="n">
+        <v>15150</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,31 +4728,35 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15210</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15210</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15210</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G123" t="n">
+        <v>15409.66666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
         <v>15140</v>
       </c>
-      <c r="C123" t="n">
-        <v>15120</v>
-      </c>
-      <c r="D123" t="n">
-        <v>15140</v>
-      </c>
-      <c r="E123" t="n">
-        <v>15120</v>
-      </c>
-      <c r="F123" t="n">
-        <v>60.6967</v>
-      </c>
-      <c r="G123" t="n">
-        <v>15401.5</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>15150</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,31 +4771,35 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15120</v>
+        <v>15140</v>
       </c>
       <c r="C124" t="n">
         <v>15120</v>
       </c>
       <c r="D124" t="n">
-        <v>15120</v>
+        <v>15140</v>
       </c>
       <c r="E124" t="n">
         <v>15120</v>
       </c>
       <c r="F124" t="n">
-        <v>20.3833</v>
+        <v>60.6967</v>
       </c>
       <c r="G124" t="n">
-        <v>15391.33333333333</v>
+        <v>15401.5</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15210</v>
+      </c>
+      <c r="K124" t="n">
+        <v>15150</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,31 +4814,35 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15170</v>
+        <v>15120</v>
       </c>
       <c r="C125" t="n">
-        <v>15170</v>
+        <v>15120</v>
       </c>
       <c r="D125" t="n">
-        <v>15170</v>
+        <v>15120</v>
       </c>
       <c r="E125" t="n">
-        <v>15170</v>
+        <v>15120</v>
       </c>
       <c r="F125" t="n">
-        <v>7.3311</v>
+        <v>20.3833</v>
       </c>
       <c r="G125" t="n">
-        <v>15382</v>
+        <v>15391.33333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15120</v>
+      </c>
+      <c r="K125" t="n">
+        <v>15150</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4841,31 +4857,35 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15090</v>
+        <v>15170</v>
       </c>
       <c r="C126" t="n">
-        <v>15090</v>
+        <v>15170</v>
       </c>
       <c r="D126" t="n">
-        <v>15090</v>
+        <v>15170</v>
       </c>
       <c r="E126" t="n">
-        <v>15090</v>
+        <v>15170</v>
       </c>
       <c r="F126" t="n">
-        <v>112.7938</v>
+        <v>7.3311</v>
       </c>
       <c r="G126" t="n">
-        <v>15369.5</v>
+        <v>15382</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15120</v>
+      </c>
+      <c r="K126" t="n">
+        <v>15150</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,31 +4900,35 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15070</v>
+        <v>15090</v>
       </c>
       <c r="C127" t="n">
-        <v>15070</v>
+        <v>15090</v>
       </c>
       <c r="D127" t="n">
-        <v>15070</v>
+        <v>15090</v>
       </c>
       <c r="E127" t="n">
-        <v>15070</v>
+        <v>15090</v>
       </c>
       <c r="F127" t="n">
-        <v>167.1528</v>
+        <v>112.7938</v>
       </c>
       <c r="G127" t="n">
-        <v>15356.33333333333</v>
+        <v>15369.5</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15170</v>
+      </c>
+      <c r="K127" t="n">
+        <v>15150</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4919,22 +4943,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15080</v>
+        <v>15070</v>
       </c>
       <c r="C128" t="n">
-        <v>15160</v>
+        <v>15070</v>
       </c>
       <c r="D128" t="n">
-        <v>15160</v>
+        <v>15070</v>
       </c>
       <c r="E128" t="n">
-        <v>15080</v>
+        <v>15070</v>
       </c>
       <c r="F128" t="n">
-        <v>0.074</v>
+        <v>167.1528</v>
       </c>
       <c r="G128" t="n">
-        <v>15343.33333333333</v>
+        <v>15356.33333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4943,7 +4967,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>15150</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,28 +4987,32 @@
         <v>15080</v>
       </c>
       <c r="C129" t="n">
+        <v>15160</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15160</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15080</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G129" t="n">
+        <v>15343.33333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
         <v>15070</v>
       </c>
-      <c r="D129" t="n">
-        <v>15080</v>
-      </c>
-      <c r="E129" t="n">
-        <v>15070</v>
-      </c>
-      <c r="F129" t="n">
-        <v>118.5111</v>
-      </c>
-      <c r="G129" t="n">
-        <v>15328.66666666667</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>15150</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5000,19 +5030,19 @@
         <v>15080</v>
       </c>
       <c r="C130" t="n">
-        <v>15080</v>
+        <v>15070</v>
       </c>
       <c r="D130" t="n">
         <v>15080</v>
       </c>
       <c r="E130" t="n">
-        <v>15080</v>
+        <v>15070</v>
       </c>
       <c r="F130" t="n">
-        <v>50.3872</v>
+        <v>118.5111</v>
       </c>
       <c r="G130" t="n">
-        <v>15314</v>
+        <v>15328.66666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5021,7 +5051,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>15150</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,31 +5068,35 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15090</v>
+        <v>15080</v>
       </c>
       <c r="C131" t="n">
-        <v>15030</v>
+        <v>15080</v>
       </c>
       <c r="D131" t="n">
-        <v>15090</v>
+        <v>15080</v>
       </c>
       <c r="E131" t="n">
-        <v>15030</v>
+        <v>15080</v>
       </c>
       <c r="F131" t="n">
-        <v>955.7609</v>
+        <v>50.3872</v>
       </c>
       <c r="G131" t="n">
-        <v>15298.66666666667</v>
+        <v>15314</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15070</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15150</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,31 +5111,35 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15030</v>
+        <v>15090</v>
       </c>
       <c r="C132" t="n">
         <v>15030</v>
       </c>
       <c r="D132" t="n">
+        <v>15090</v>
+      </c>
+      <c r="E132" t="n">
         <v>15030</v>
       </c>
-      <c r="E132" t="n">
-        <v>15020</v>
-      </c>
       <c r="F132" t="n">
-        <v>126.2666</v>
+        <v>955.7609</v>
       </c>
       <c r="G132" t="n">
-        <v>15285</v>
+        <v>15298.66666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15080</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15150</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>15030</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15030</v>
+      </c>
+      <c r="D133" t="n">
+        <v>15030</v>
+      </c>
+      <c r="E133" t="n">
         <v>15020</v>
       </c>
-      <c r="C133" t="n">
-        <v>15010</v>
-      </c>
-      <c r="D133" t="n">
-        <v>15020</v>
-      </c>
-      <c r="E133" t="n">
-        <v>15010</v>
-      </c>
       <c r="F133" t="n">
-        <v>176.6322</v>
+        <v>126.2666</v>
       </c>
       <c r="G133" t="n">
-        <v>15271</v>
+        <v>15285</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5138,7 +5178,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>15150</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,22 +5195,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>15020</v>
+      </c>
+      <c r="C134" t="n">
         <v>15010</v>
       </c>
-      <c r="C134" t="n">
-        <v>14970</v>
-      </c>
       <c r="D134" t="n">
+        <v>15020</v>
+      </c>
+      <c r="E134" t="n">
         <v>15010</v>
       </c>
-      <c r="E134" t="n">
-        <v>14970</v>
-      </c>
       <c r="F134" t="n">
-        <v>367.7026</v>
+        <v>176.6322</v>
       </c>
       <c r="G134" t="n">
-        <v>15256.5</v>
+        <v>15271</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5177,7 +5219,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>15150</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5192,22 +5236,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14960</v>
+        <v>15010</v>
       </c>
       <c r="C135" t="n">
-        <v>14960</v>
+        <v>14970</v>
       </c>
       <c r="D135" t="n">
-        <v>14960</v>
+        <v>15010</v>
       </c>
       <c r="E135" t="n">
-        <v>14960</v>
+        <v>14970</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5</v>
+        <v>367.7026</v>
       </c>
       <c r="G135" t="n">
-        <v>15243</v>
+        <v>15256.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5216,7 +5260,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>15150</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5231,22 +5277,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14930</v>
+        <v>14960</v>
       </c>
       <c r="C136" t="n">
-        <v>15010</v>
+        <v>14960</v>
       </c>
       <c r="D136" t="n">
-        <v>15010</v>
+        <v>14960</v>
       </c>
       <c r="E136" t="n">
-        <v>14930</v>
+        <v>14960</v>
       </c>
       <c r="F136" t="n">
-        <v>124.1574</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="n">
-        <v>15230.33333333333</v>
+        <v>15243</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5255,7 +5301,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>15150</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5270,22 +5318,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>14930</v>
+      </c>
+      <c r="C137" t="n">
         <v>15010</v>
       </c>
-      <c r="C137" t="n">
-        <v>15030</v>
-      </c>
       <c r="D137" t="n">
-        <v>15030</v>
+        <v>15010</v>
       </c>
       <c r="E137" t="n">
-        <v>15010</v>
+        <v>14930</v>
       </c>
       <c r="F137" t="n">
-        <v>96.739</v>
+        <v>124.1574</v>
       </c>
       <c r="G137" t="n">
-        <v>15219.33333333333</v>
+        <v>15230.33333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5294,7 +5342,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>15150</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5309,7 +5359,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>15030</v>
+        <v>15010</v>
       </c>
       <c r="C138" t="n">
         <v>15030</v>
@@ -5318,13 +5368,13 @@
         <v>15030</v>
       </c>
       <c r="E138" t="n">
-        <v>15030</v>
+        <v>15010</v>
       </c>
       <c r="F138" t="n">
-        <v>48.6</v>
+        <v>96.739</v>
       </c>
       <c r="G138" t="n">
-        <v>15208.83333333333</v>
+        <v>15219.33333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5333,7 +5383,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>15150</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5348,22 +5400,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="C139" t="n">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="D139" t="n">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="E139" t="n">
-        <v>15040</v>
+        <v>15030</v>
       </c>
       <c r="F139" t="n">
-        <v>10.1199</v>
+        <v>48.6</v>
       </c>
       <c r="G139" t="n">
-        <v>15199</v>
+        <v>15208.83333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5372,7 +5424,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>15150</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5387,22 +5441,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15100</v>
+        <v>15040</v>
       </c>
       <c r="C140" t="n">
-        <v>15100</v>
+        <v>15040</v>
       </c>
       <c r="D140" t="n">
-        <v>15100</v>
+        <v>15040</v>
       </c>
       <c r="E140" t="n">
-        <v>15100</v>
+        <v>15040</v>
       </c>
       <c r="F140" t="n">
-        <v>2.3046</v>
+        <v>10.1199</v>
       </c>
       <c r="G140" t="n">
-        <v>15192.5</v>
+        <v>15199</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5411,7 +5465,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>15150</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,22 +5482,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15110</v>
+        <v>15100</v>
       </c>
       <c r="C141" t="n">
-        <v>15110</v>
+        <v>15100</v>
       </c>
       <c r="D141" t="n">
-        <v>15110</v>
+        <v>15100</v>
       </c>
       <c r="E141" t="n">
-        <v>15110</v>
+        <v>15100</v>
       </c>
       <c r="F141" t="n">
-        <v>1.33</v>
+        <v>2.3046</v>
       </c>
       <c r="G141" t="n">
-        <v>15186.5</v>
+        <v>15192.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5450,7 +5506,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>15150</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5465,22 +5523,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>15050</v>
+        <v>15110</v>
       </c>
       <c r="C142" t="n">
-        <v>15010</v>
+        <v>15110</v>
       </c>
       <c r="D142" t="n">
-        <v>15050</v>
+        <v>15110</v>
       </c>
       <c r="E142" t="n">
-        <v>15010</v>
+        <v>15110</v>
       </c>
       <c r="F142" t="n">
-        <v>114.8823</v>
+        <v>1.33</v>
       </c>
       <c r="G142" t="n">
-        <v>15179.66666666667</v>
+        <v>15186.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5489,7 +5547,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>15150</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5504,22 +5564,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15090</v>
+        <v>15050</v>
       </c>
       <c r="C143" t="n">
-        <v>15110</v>
+        <v>15010</v>
       </c>
       <c r="D143" t="n">
-        <v>15160</v>
+        <v>15050</v>
       </c>
       <c r="E143" t="n">
-        <v>15090</v>
+        <v>15010</v>
       </c>
       <c r="F143" t="n">
-        <v>1640.5069</v>
+        <v>114.8823</v>
       </c>
       <c r="G143" t="n">
-        <v>15174.5</v>
+        <v>15179.66666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5528,7 +5588,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>15150</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,22 +5605,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15110</v>
+        <v>15090</v>
       </c>
       <c r="C144" t="n">
         <v>15110</v>
       </c>
       <c r="D144" t="n">
-        <v>15110</v>
+        <v>15160</v>
       </c>
       <c r="E144" t="n">
-        <v>15110</v>
+        <v>15090</v>
       </c>
       <c r="F144" t="n">
-        <v>1.13</v>
+        <v>1640.5069</v>
       </c>
       <c r="G144" t="n">
-        <v>15169.66666666667</v>
+        <v>15174.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5567,7 +5629,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>15150</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5594,10 +5658,10 @@
         <v>15110</v>
       </c>
       <c r="F145" t="n">
-        <v>4.48</v>
+        <v>1.13</v>
       </c>
       <c r="G145" t="n">
-        <v>15165</v>
+        <v>15169.66666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5606,7 +5670,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>15150</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5633,10 +5699,10 @@
         <v>15110</v>
       </c>
       <c r="F146" t="n">
-        <v>1.88</v>
+        <v>4.48</v>
       </c>
       <c r="G146" t="n">
-        <v>15159.66666666667</v>
+        <v>15165</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5645,7 +5711,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>15150</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5672,10 +5740,10 @@
         <v>15110</v>
       </c>
       <c r="F147" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G147" t="n">
-        <v>15155</v>
+        <v>15159.66666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5684,7 +5752,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>15150</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5699,22 +5769,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>15190</v>
+        <v>15110</v>
       </c>
       <c r="C148" t="n">
-        <v>15190</v>
+        <v>15110</v>
       </c>
       <c r="D148" t="n">
-        <v>15190</v>
+        <v>15110</v>
       </c>
       <c r="E148" t="n">
-        <v>15190</v>
+        <v>15110</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6205000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="G148" t="n">
-        <v>15152.33333333333</v>
+        <v>15155</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5723,7 +5793,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>15150</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,22 +5810,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>15150</v>
+        <v>15190</v>
       </c>
       <c r="C149" t="n">
-        <v>15140</v>
+        <v>15190</v>
       </c>
       <c r="D149" t="n">
-        <v>15150</v>
+        <v>15190</v>
       </c>
       <c r="E149" t="n">
-        <v>15140</v>
+        <v>15190</v>
       </c>
       <c r="F149" t="n">
-        <v>38.2066</v>
+        <v>0.6205000000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>15149.83333333333</v>
+        <v>15152.33333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5762,7 +5834,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>15150</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,22 +5851,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>15140</v>
+        <v>15150</v>
       </c>
       <c r="C150" t="n">
         <v>15140</v>
       </c>
       <c r="D150" t="n">
-        <v>15140</v>
+        <v>15150</v>
       </c>
       <c r="E150" t="n">
         <v>15140</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>38.2066</v>
       </c>
       <c r="G150" t="n">
-        <v>15147.83333333333</v>
+        <v>15149.83333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5801,7 +5875,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>15150</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5816,22 +5892,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15150</v>
+        <v>15140</v>
       </c>
       <c r="C151" t="n">
-        <v>15150</v>
+        <v>15140</v>
       </c>
       <c r="D151" t="n">
-        <v>15150</v>
+        <v>15140</v>
       </c>
       <c r="E151" t="n">
-        <v>15150</v>
+        <v>15140</v>
       </c>
       <c r="F151" t="n">
-        <v>50.7</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>15147</v>
+        <v>15147.83333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5840,7 +5916,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>15150</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,22 +5933,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15160</v>
+        <v>15150</v>
       </c>
       <c r="C152" t="n">
-        <v>15160</v>
+        <v>15150</v>
       </c>
       <c r="D152" t="n">
-        <v>15160</v>
+        <v>15150</v>
       </c>
       <c r="E152" t="n">
-        <v>15160</v>
+        <v>15150</v>
       </c>
       <c r="F152" t="n">
-        <v>9.871499999999999</v>
+        <v>50.7</v>
       </c>
       <c r="G152" t="n">
-        <v>15146.16666666667</v>
+        <v>15147</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5879,7 +5957,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>15150</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,22 +5974,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>15120</v>
+        <v>15160</v>
       </c>
       <c r="C153" t="n">
-        <v>15110</v>
+        <v>15160</v>
       </c>
       <c r="D153" t="n">
-        <v>15120</v>
+        <v>15160</v>
       </c>
       <c r="E153" t="n">
-        <v>15110</v>
+        <v>15160</v>
       </c>
       <c r="F153" t="n">
-        <v>17.8311</v>
+        <v>9.871499999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>15144.66666666667</v>
+        <v>15146.16666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5918,7 +5998,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>15150</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5936,19 +6018,19 @@
         <v>15120</v>
       </c>
       <c r="C154" t="n">
-        <v>15120</v>
+        <v>15110</v>
       </c>
       <c r="D154" t="n">
         <v>15120</v>
       </c>
       <c r="E154" t="n">
-        <v>15120</v>
+        <v>15110</v>
       </c>
       <c r="F154" t="n">
-        <v>0.034</v>
+        <v>17.8311</v>
       </c>
       <c r="G154" t="n">
-        <v>15141.83333333333</v>
+        <v>15144.66666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5957,7 +6039,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>15150</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5972,22 +6056,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>15200</v>
+        <v>15120</v>
       </c>
       <c r="C155" t="n">
-        <v>15230</v>
+        <v>15120</v>
       </c>
       <c r="D155" t="n">
-        <v>15230</v>
+        <v>15120</v>
       </c>
       <c r="E155" t="n">
         <v>15120</v>
       </c>
       <c r="F155" t="n">
-        <v>0.103</v>
+        <v>0.034</v>
       </c>
       <c r="G155" t="n">
-        <v>15142.33333333333</v>
+        <v>15141.83333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5996,7 +6080,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>15150</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,7 +6097,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>15230</v>
+        <v>15200</v>
       </c>
       <c r="C156" t="n">
         <v>15230</v>
@@ -6020,13 +6106,13 @@
         <v>15230</v>
       </c>
       <c r="E156" t="n">
-        <v>15230</v>
+        <v>15120</v>
       </c>
       <c r="F156" t="n">
-        <v>127.1783</v>
+        <v>0.103</v>
       </c>
       <c r="G156" t="n">
-        <v>15143</v>
+        <v>15142.33333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6035,7 +6121,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>15150</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6062,10 +6150,10 @@
         <v>15230</v>
       </c>
       <c r="F157" t="n">
-        <v>43.6559</v>
+        <v>127.1783</v>
       </c>
       <c r="G157" t="n">
-        <v>15142.33333333333</v>
+        <v>15143</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6074,7 +6162,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>15150</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6101,10 +6191,10 @@
         <v>15230</v>
       </c>
       <c r="F158" t="n">
-        <v>2.1784</v>
+        <v>43.6559</v>
       </c>
       <c r="G158" t="n">
-        <v>15141.16666666667</v>
+        <v>15142.33333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6113,7 +6203,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>15150</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6128,7 +6220,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15180</v>
+        <v>15230</v>
       </c>
       <c r="C159" t="n">
         <v>15230</v>
@@ -6137,13 +6229,13 @@
         <v>15230</v>
       </c>
       <c r="E159" t="n">
-        <v>15180</v>
+        <v>15230</v>
       </c>
       <c r="F159" t="n">
-        <v>0.066</v>
+        <v>2.1784</v>
       </c>
       <c r="G159" t="n">
-        <v>15140.16666666667</v>
+        <v>15141.16666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6152,7 +6244,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>15150</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,19 +6261,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>15250</v>
+        <v>15180</v>
       </c>
       <c r="C160" t="n">
-        <v>15250</v>
+        <v>15230</v>
       </c>
       <c r="D160" t="n">
-        <v>15250</v>
+        <v>15230</v>
       </c>
       <c r="E160" t="n">
-        <v>15250</v>
+        <v>15180</v>
       </c>
       <c r="F160" t="n">
-        <v>32.1621</v>
+        <v>0.066</v>
       </c>
       <c r="G160" t="n">
         <v>15140.16666666667</v>
@@ -6191,7 +6285,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>15150</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,19 +6302,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15260</v>
+        <v>15250</v>
       </c>
       <c r="C161" t="n">
-        <v>15260</v>
+        <v>15250</v>
       </c>
       <c r="D161" t="n">
-        <v>15260</v>
+        <v>15250</v>
       </c>
       <c r="E161" t="n">
-        <v>15260</v>
+        <v>15250</v>
       </c>
       <c r="F161" t="n">
-        <v>76.19540000000001</v>
+        <v>32.1621</v>
       </c>
       <c r="G161" t="n">
         <v>15140.16666666667</v>
@@ -6230,7 +6326,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>15150</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,19 +6346,19 @@
         <v>15260</v>
       </c>
       <c r="C162" t="n">
-        <v>15280</v>
+        <v>15260</v>
       </c>
       <c r="D162" t="n">
-        <v>15280</v>
+        <v>15260</v>
       </c>
       <c r="E162" t="n">
-        <v>15180</v>
+        <v>15260</v>
       </c>
       <c r="F162" t="n">
-        <v>106.7735</v>
+        <v>76.19540000000001</v>
       </c>
       <c r="G162" t="n">
-        <v>15140.66666666667</v>
+        <v>15140.16666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6269,7 +6367,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>15150</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6284,22 +6384,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15280</v>
+        <v>15260</v>
       </c>
       <c r="C163" t="n">
         <v>15280</v>
       </c>
       <c r="D163" t="n">
-        <v>15290</v>
+        <v>15280</v>
       </c>
       <c r="E163" t="n">
-        <v>15280</v>
+        <v>15180</v>
       </c>
       <c r="F163" t="n">
-        <v>10.8574</v>
+        <v>106.7735</v>
       </c>
       <c r="G163" t="n">
-        <v>15141.16666666667</v>
+        <v>15140.66666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6308,7 +6408,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>15150</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6323,22 +6425,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>15260</v>
+        <v>15280</v>
       </c>
       <c r="C164" t="n">
-        <v>15260</v>
+        <v>15280</v>
       </c>
       <c r="D164" t="n">
-        <v>15260</v>
+        <v>15290</v>
       </c>
       <c r="E164" t="n">
-        <v>15260</v>
+        <v>15280</v>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>10.8574</v>
       </c>
       <c r="G164" t="n">
-        <v>15141.33333333333</v>
+        <v>15141.16666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6347,7 +6449,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>15150</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,22 +6466,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15210</v>
+        <v>15260</v>
       </c>
       <c r="C165" t="n">
-        <v>15200</v>
+        <v>15260</v>
       </c>
       <c r="D165" t="n">
-        <v>15210</v>
+        <v>15260</v>
       </c>
       <c r="E165" t="n">
-        <v>15200</v>
+        <v>15260</v>
       </c>
       <c r="F165" t="n">
-        <v>76.19540000000001</v>
+        <v>100</v>
       </c>
       <c r="G165" t="n">
-        <v>15141.5</v>
+        <v>15141.33333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6386,7 +6490,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>15150</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6401,22 +6507,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>15190</v>
+        <v>15210</v>
       </c>
       <c r="C166" t="n">
-        <v>15190</v>
+        <v>15200</v>
       </c>
       <c r="D166" t="n">
-        <v>15190</v>
+        <v>15210</v>
       </c>
       <c r="E166" t="n">
-        <v>15190</v>
+        <v>15200</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>76.19540000000001</v>
       </c>
       <c r="G166" t="n">
-        <v>15142</v>
+        <v>15141.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6425,7 +6531,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>15150</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,22 +6548,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>15200</v>
+        <v>15190</v>
       </c>
       <c r="C167" t="n">
-        <v>15260</v>
+        <v>15190</v>
       </c>
       <c r="D167" t="n">
-        <v>15260</v>
+        <v>15190</v>
       </c>
       <c r="E167" t="n">
-        <v>15200</v>
+        <v>15190</v>
       </c>
       <c r="F167" t="n">
-        <v>0.066</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>15143.83333333333</v>
+        <v>15142</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6464,7 +6572,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>15150</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6479,7 +6589,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>15260</v>
+        <v>15200</v>
       </c>
       <c r="C168" t="n">
         <v>15260</v>
@@ -6488,13 +6598,13 @@
         <v>15260</v>
       </c>
       <c r="E168" t="n">
-        <v>15260</v>
+        <v>15200</v>
       </c>
       <c r="F168" t="n">
-        <v>12.0937</v>
+        <v>0.066</v>
       </c>
       <c r="G168" t="n">
-        <v>15144.16666666667</v>
+        <v>15143.83333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6503,7 +6613,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>15150</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,22 +6630,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>15210</v>
+        <v>15260</v>
       </c>
       <c r="C169" t="n">
-        <v>15270</v>
+        <v>15260</v>
       </c>
       <c r="D169" t="n">
-        <v>15270</v>
+        <v>15260</v>
       </c>
       <c r="E169" t="n">
-        <v>15210</v>
+        <v>15260</v>
       </c>
       <c r="F169" t="n">
-        <v>0.066</v>
+        <v>12.0937</v>
       </c>
       <c r="G169" t="n">
-        <v>15144.66666666667</v>
+        <v>15144.16666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6542,7 +6654,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>15150</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,22 +6671,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>15210</v>
+      </c>
+      <c r="C170" t="n">
         <v>15270</v>
       </c>
-      <c r="C170" t="n">
-        <v>15330</v>
-      </c>
       <c r="D170" t="n">
-        <v>15330</v>
+        <v>15270</v>
       </c>
       <c r="E170" t="n">
-        <v>15270</v>
+        <v>15210</v>
       </c>
       <c r="F170" t="n">
-        <v>424.9004889913083</v>
+        <v>0.066</v>
       </c>
       <c r="G170" t="n">
-        <v>15147.16666666667</v>
+        <v>15144.66666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6581,7 +6695,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>15150</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,22 +6712,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>15220</v>
+        <v>15270</v>
       </c>
       <c r="C171" t="n">
-        <v>15310</v>
+        <v>15330</v>
       </c>
       <c r="D171" t="n">
-        <v>15310</v>
+        <v>15330</v>
       </c>
       <c r="E171" t="n">
-        <v>15220</v>
+        <v>15270</v>
       </c>
       <c r="F171" t="n">
-        <v>0.066</v>
+        <v>424.9004889913083</v>
       </c>
       <c r="G171" t="n">
-        <v>15149</v>
+        <v>15147.16666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6620,7 +6736,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>15150</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,7 +6753,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>15310</v>
+        <v>15220</v>
       </c>
       <c r="C172" t="n">
         <v>15310</v>
@@ -6644,13 +6762,13 @@
         <v>15310</v>
       </c>
       <c r="E172" t="n">
-        <v>15310</v>
+        <v>15220</v>
       </c>
       <c r="F172" t="n">
-        <v>114.3394</v>
+        <v>0.066</v>
       </c>
       <c r="G172" t="n">
-        <v>15151.16666666667</v>
+        <v>15149</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6659,7 +6777,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>15150</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6674,22 +6794,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>15290</v>
+        <v>15310</v>
       </c>
       <c r="C173" t="n">
-        <v>15370</v>
+        <v>15310</v>
       </c>
       <c r="D173" t="n">
-        <v>15370</v>
+        <v>15310</v>
       </c>
       <c r="E173" t="n">
-        <v>15290</v>
+        <v>15310</v>
       </c>
       <c r="F173" t="n">
-        <v>0.066</v>
+        <v>114.3394</v>
       </c>
       <c r="G173" t="n">
-        <v>15154.83333333333</v>
+        <v>15151.16666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6698,7 +6818,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>15150</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6713,7 +6835,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>15370</v>
+        <v>15290</v>
       </c>
       <c r="C174" t="n">
         <v>15370</v>
@@ -6722,13 +6844,13 @@
         <v>15370</v>
       </c>
       <c r="E174" t="n">
-        <v>15370</v>
+        <v>15290</v>
       </c>
       <c r="F174" t="n">
-        <v>19.4946</v>
+        <v>0.066</v>
       </c>
       <c r="G174" t="n">
-        <v>15157.83333333333</v>
+        <v>15154.83333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6737,7 +6859,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>15150</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,22 +6876,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>15320</v>
+        <v>15370</v>
       </c>
       <c r="C175" t="n">
-        <v>15430</v>
+        <v>15370</v>
       </c>
       <c r="D175" t="n">
-        <v>15430</v>
+        <v>15370</v>
       </c>
       <c r="E175" t="n">
-        <v>15320</v>
+        <v>15370</v>
       </c>
       <c r="F175" t="n">
-        <v>0.066</v>
+        <v>19.4946</v>
       </c>
       <c r="G175" t="n">
-        <v>15162.5</v>
+        <v>15157.83333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6776,7 +6900,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>15150</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6791,22 +6917,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>15370</v>
+        <v>15320</v>
       </c>
       <c r="C176" t="n">
-        <v>15510</v>
+        <v>15430</v>
       </c>
       <c r="D176" t="n">
-        <v>15510</v>
+        <v>15430</v>
       </c>
       <c r="E176" t="n">
-        <v>15370</v>
+        <v>15320</v>
       </c>
       <c r="F176" t="n">
         <v>0.066</v>
       </c>
       <c r="G176" t="n">
-        <v>15168.5</v>
+        <v>15162.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6815,7 +6941,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>15150</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6830,22 +6958,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>15460</v>
+        <v>15370</v>
       </c>
       <c r="C177" t="n">
-        <v>15460</v>
+        <v>15510</v>
       </c>
       <c r="D177" t="n">
-        <v>15460</v>
+        <v>15510</v>
       </c>
       <c r="E177" t="n">
-        <v>15460</v>
+        <v>15370</v>
       </c>
       <c r="F177" t="n">
-        <v>0.132</v>
+        <v>0.066</v>
       </c>
       <c r="G177" t="n">
-        <v>15173.66666666667</v>
+        <v>15168.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6854,7 +6982,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>15150</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,22 +6999,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>15360</v>
+        <v>15460</v>
       </c>
       <c r="C178" t="n">
-        <v>15350</v>
+        <v>15460</v>
       </c>
       <c r="D178" t="n">
-        <v>15360</v>
+        <v>15460</v>
       </c>
       <c r="E178" t="n">
-        <v>15350</v>
+        <v>15460</v>
       </c>
       <c r="F178" t="n">
-        <v>85.08410000000001</v>
+        <v>0.132</v>
       </c>
       <c r="G178" t="n">
-        <v>15176.5</v>
+        <v>15173.66666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6893,7 +7023,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>15150</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,19 +7043,19 @@
         <v>15360</v>
       </c>
       <c r="C179" t="n">
-        <v>15340</v>
+        <v>15350</v>
       </c>
       <c r="D179" t="n">
         <v>15360</v>
       </c>
       <c r="E179" t="n">
-        <v>15260</v>
+        <v>15350</v>
       </c>
       <c r="F179" t="n">
-        <v>460.1205</v>
+        <v>85.08410000000001</v>
       </c>
       <c r="G179" t="n">
-        <v>15179.33333333333</v>
+        <v>15176.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6932,7 +7064,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>15150</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6947,22 +7081,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>15280</v>
+        <v>15360</v>
       </c>
       <c r="C180" t="n">
-        <v>15280</v>
+        <v>15340</v>
       </c>
       <c r="D180" t="n">
-        <v>15280</v>
+        <v>15360</v>
       </c>
       <c r="E180" t="n">
-        <v>15280</v>
+        <v>15260</v>
       </c>
       <c r="F180" t="n">
-        <v>45.5</v>
+        <v>460.1205</v>
       </c>
       <c r="G180" t="n">
-        <v>15180.66666666667</v>
+        <v>15179.33333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6971,7 +7105,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>15150</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,22 +7122,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>15200</v>
+        <v>15280</v>
       </c>
       <c r="C181" t="n">
-        <v>15200</v>
+        <v>15280</v>
       </c>
       <c r="D181" t="n">
-        <v>15200</v>
+        <v>15280</v>
       </c>
       <c r="E181" t="n">
-        <v>15200</v>
+        <v>15280</v>
       </c>
       <c r="F181" t="n">
-        <v>12.0937</v>
+        <v>45.5</v>
       </c>
       <c r="G181" t="n">
-        <v>15181.66666666667</v>
+        <v>15180.66666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7010,7 +7146,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>15150</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7028,19 +7166,19 @@
         <v>15200</v>
       </c>
       <c r="C182" t="n">
-        <v>15190</v>
+        <v>15200</v>
       </c>
       <c r="D182" t="n">
         <v>15200</v>
       </c>
       <c r="E182" t="n">
-        <v>15190</v>
+        <v>15200</v>
       </c>
       <c r="F182" t="n">
-        <v>12.3927</v>
+        <v>12.0937</v>
       </c>
       <c r="G182" t="n">
-        <v>15181.33333333333</v>
+        <v>15181.66666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7049,7 +7187,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>15150</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7064,22 +7204,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>15220</v>
+        <v>15200</v>
       </c>
       <c r="C183" t="n">
-        <v>15220</v>
+        <v>15190</v>
       </c>
       <c r="D183" t="n">
-        <v>15220</v>
+        <v>15200</v>
       </c>
       <c r="E183" t="n">
-        <v>15220</v>
+        <v>15190</v>
       </c>
       <c r="F183" t="n">
-        <v>0.033</v>
+        <v>12.3927</v>
       </c>
       <c r="G183" t="n">
-        <v>15183</v>
+        <v>15181.33333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7088,7 +7228,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>15150</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7103,22 +7245,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>15270</v>
+        <v>15220</v>
       </c>
       <c r="C184" t="n">
-        <v>15270</v>
+        <v>15220</v>
       </c>
       <c r="D184" t="n">
-        <v>15270</v>
+        <v>15220</v>
       </c>
       <c r="E184" t="n">
-        <v>15270</v>
+        <v>15220</v>
       </c>
       <c r="F184" t="n">
         <v>0.033</v>
       </c>
       <c r="G184" t="n">
-        <v>15185.5</v>
+        <v>15183</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7127,7 +7269,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>15150</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,22 +7286,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>15230</v>
+        <v>15270</v>
       </c>
       <c r="C185" t="n">
-        <v>15230</v>
+        <v>15270</v>
       </c>
       <c r="D185" t="n">
-        <v>15230</v>
+        <v>15270</v>
       </c>
       <c r="E185" t="n">
-        <v>15230</v>
+        <v>15270</v>
       </c>
       <c r="F185" t="n">
-        <v>61.5483</v>
+        <v>0.033</v>
       </c>
       <c r="G185" t="n">
-        <v>15186.5</v>
+        <v>15185.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7166,7 +7310,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>15150</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7181,22 +7327,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>15220</v>
+        <v>15230</v>
       </c>
       <c r="C186" t="n">
-        <v>15220</v>
+        <v>15230</v>
       </c>
       <c r="D186" t="n">
-        <v>15220</v>
+        <v>15230</v>
       </c>
       <c r="E186" t="n">
-        <v>15220</v>
+        <v>15230</v>
       </c>
       <c r="F186" t="n">
-        <v>20.2214</v>
+        <v>61.5483</v>
       </c>
       <c r="G186" t="n">
-        <v>15188.66666666667</v>
+        <v>15186.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7205,7 +7351,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>15150</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,19 +7371,19 @@
         <v>15220</v>
       </c>
       <c r="C187" t="n">
-        <v>15310</v>
+        <v>15220</v>
       </c>
       <c r="D187" t="n">
-        <v>15310</v>
+        <v>15220</v>
       </c>
       <c r="E187" t="n">
         <v>15220</v>
       </c>
       <c r="F187" t="n">
-        <v>0.066</v>
+        <v>20.2214</v>
       </c>
       <c r="G187" t="n">
-        <v>15192.66666666667</v>
+        <v>15188.66666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7244,7 +7392,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>15150</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7262,10 +7412,10 @@
         <v>15220</v>
       </c>
       <c r="C188" t="n">
-        <v>15300</v>
+        <v>15310</v>
       </c>
       <c r="D188" t="n">
-        <v>15300</v>
+        <v>15310</v>
       </c>
       <c r="E188" t="n">
         <v>15220</v>
@@ -7274,7 +7424,7 @@
         <v>0.066</v>
       </c>
       <c r="G188" t="n">
-        <v>15195</v>
+        <v>15192.66666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7283,7 +7433,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>15150</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7301,10 +7453,10 @@
         <v>15220</v>
       </c>
       <c r="C189" t="n">
-        <v>15320</v>
+        <v>15300</v>
       </c>
       <c r="D189" t="n">
-        <v>15320</v>
+        <v>15300</v>
       </c>
       <c r="E189" t="n">
         <v>15220</v>
@@ -7313,7 +7465,7 @@
         <v>0.066</v>
       </c>
       <c r="G189" t="n">
-        <v>15199.16666666667</v>
+        <v>15195</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7322,7 +7474,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>15150</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7337,22 +7491,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>15230</v>
+        <v>15220</v>
       </c>
       <c r="C190" t="n">
-        <v>15230</v>
+        <v>15320</v>
       </c>
       <c r="D190" t="n">
-        <v>15230</v>
+        <v>15320</v>
       </c>
       <c r="E190" t="n">
-        <v>15230</v>
+        <v>15220</v>
       </c>
       <c r="F190" t="n">
-        <v>3</v>
+        <v>0.066</v>
       </c>
       <c r="G190" t="n">
-        <v>15201.66666666667</v>
+        <v>15199.16666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7361,7 +7515,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>15150</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7379,19 +7535,19 @@
         <v>15230</v>
       </c>
       <c r="C191" t="n">
-        <v>15320</v>
+        <v>15230</v>
       </c>
       <c r="D191" t="n">
-        <v>15320</v>
+        <v>15230</v>
       </c>
       <c r="E191" t="n">
         <v>15230</v>
       </c>
       <c r="F191" t="n">
-        <v>0.066</v>
+        <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>15206.5</v>
+        <v>15201.66666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7400,7 +7556,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>15150</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7415,22 +7573,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>15310</v>
+        <v>15230</v>
       </c>
       <c r="C192" t="n">
-        <v>15310</v>
+        <v>15320</v>
       </c>
       <c r="D192" t="n">
-        <v>15310</v>
+        <v>15320</v>
       </c>
       <c r="E192" t="n">
-        <v>15310</v>
+        <v>15230</v>
       </c>
       <c r="F192" t="n">
-        <v>0.1525</v>
+        <v>0.066</v>
       </c>
       <c r="G192" t="n">
-        <v>15211.16666666667</v>
+        <v>15206.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7439,7 +7597,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>15150</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7466,10 +7626,10 @@
         <v>15310</v>
       </c>
       <c r="F193" t="n">
-        <v>9.6068</v>
+        <v>0.1525</v>
       </c>
       <c r="G193" t="n">
-        <v>15216.16666666667</v>
+        <v>15211.16666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7478,7 +7638,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>15150</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7493,22 +7655,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>15280</v>
+        <v>15310</v>
       </c>
       <c r="C194" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="D194" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="E194" t="n">
-        <v>15280</v>
+        <v>15310</v>
       </c>
       <c r="F194" t="n">
-        <v>31.0068</v>
+        <v>9.6068</v>
       </c>
       <c r="G194" t="n">
-        <v>15222</v>
+        <v>15216.16666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7517,7 +7679,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>15150</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7532,22 +7696,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>15280</v>
+      </c>
+      <c r="C195" t="n">
         <v>15320</v>
-      </c>
-      <c r="C195" t="n">
-        <v>15310</v>
       </c>
       <c r="D195" t="n">
         <v>15320</v>
       </c>
       <c r="E195" t="n">
-        <v>15310</v>
+        <v>15280</v>
       </c>
       <c r="F195" t="n">
-        <v>23.3087</v>
+        <v>31.0068</v>
       </c>
       <c r="G195" t="n">
-        <v>15227.83333333333</v>
+        <v>15222</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7556,7 +7720,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>15150</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,22 +7737,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>15240</v>
+        <v>15320</v>
       </c>
       <c r="C196" t="n">
-        <v>15330</v>
+        <v>15310</v>
       </c>
       <c r="D196" t="n">
-        <v>15330</v>
+        <v>15320</v>
       </c>
       <c r="E196" t="n">
-        <v>15240</v>
+        <v>15310</v>
       </c>
       <c r="F196" t="n">
-        <v>0.066</v>
+        <v>23.3087</v>
       </c>
       <c r="G196" t="n">
-        <v>15233.16666666667</v>
+        <v>15227.83333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7595,7 +7761,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>15150</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7610,22 +7778,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>15320</v>
+        <v>15240</v>
       </c>
       <c r="C197" t="n">
-        <v>15320</v>
+        <v>15330</v>
       </c>
       <c r="D197" t="n">
-        <v>15320</v>
+        <v>15330</v>
       </c>
       <c r="E197" t="n">
-        <v>15320</v>
+        <v>15240</v>
       </c>
       <c r="F197" t="n">
-        <v>2.0006</v>
+        <v>0.066</v>
       </c>
       <c r="G197" t="n">
-        <v>15238</v>
+        <v>15233.16666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7634,7 +7802,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>15150</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7649,22 +7819,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="C198" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="D198" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="E198" t="n">
-        <v>15270</v>
+        <v>15320</v>
       </c>
       <c r="F198" t="n">
-        <v>4</v>
+        <v>2.0006</v>
       </c>
       <c r="G198" t="n">
-        <v>15242</v>
+        <v>15238</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7673,7 +7843,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>15150</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,22 +7860,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>15250</v>
+        <v>15270</v>
       </c>
       <c r="C199" t="n">
-        <v>15250</v>
+        <v>15270</v>
       </c>
       <c r="D199" t="n">
-        <v>15250</v>
+        <v>15270</v>
       </c>
       <c r="E199" t="n">
-        <v>15250</v>
+        <v>15270</v>
       </c>
       <c r="F199" t="n">
-        <v>0.033</v>
+        <v>4</v>
       </c>
       <c r="G199" t="n">
-        <v>15245.5</v>
+        <v>15242</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7712,7 +7884,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>15150</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,19 +7904,19 @@
         <v>15250</v>
       </c>
       <c r="C200" t="n">
-        <v>15320</v>
+        <v>15250</v>
       </c>
       <c r="D200" t="n">
-        <v>15320</v>
+        <v>15250</v>
       </c>
       <c r="E200" t="n">
         <v>15250</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0658</v>
+        <v>0.033</v>
       </c>
       <c r="G200" t="n">
-        <v>15249.16666666667</v>
+        <v>15245.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7751,7 +7925,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>15150</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7766,22 +7942,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
+        <v>15250</v>
+      </c>
+      <c r="C201" t="n">
         <v>15320</v>
       </c>
-      <c r="C201" t="n">
-        <v>15330</v>
-      </c>
       <c r="D201" t="n">
-        <v>15330</v>
+        <v>15320</v>
       </c>
       <c r="E201" t="n">
-        <v>15320</v>
+        <v>15250</v>
       </c>
       <c r="F201" t="n">
-        <v>6.8579</v>
+        <v>0.0658</v>
       </c>
       <c r="G201" t="n">
-        <v>15252.83333333333</v>
+        <v>15249.16666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7790,7 +7966,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>15150</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7805,22 +7983,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>15260</v>
+        <v>15320</v>
       </c>
       <c r="C202" t="n">
-        <v>15260</v>
+        <v>15330</v>
       </c>
       <c r="D202" t="n">
-        <v>15260</v>
+        <v>15330</v>
       </c>
       <c r="E202" t="n">
-        <v>15260</v>
+        <v>15320</v>
       </c>
       <c r="F202" t="n">
-        <v>52.9106</v>
+        <v>6.8579</v>
       </c>
       <c r="G202" t="n">
-        <v>15257</v>
+        <v>15252.83333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7829,7 +8007,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>15150</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7844,22 +8024,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>15330</v>
+        <v>15260</v>
       </c>
       <c r="C203" t="n">
-        <v>15330</v>
+        <v>15260</v>
       </c>
       <c r="D203" t="n">
-        <v>15330</v>
+        <v>15260</v>
       </c>
       <c r="E203" t="n">
-        <v>15330</v>
+        <v>15260</v>
       </c>
       <c r="F203" t="n">
-        <v>3.3323</v>
+        <v>52.9106</v>
       </c>
       <c r="G203" t="n">
-        <v>15260.66666666667</v>
+        <v>15257</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7868,7 +8048,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>15150</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7883,22 +8065,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>15290</v>
+        <v>15330</v>
       </c>
       <c r="C204" t="n">
-        <v>15220</v>
+        <v>15330</v>
       </c>
       <c r="D204" t="n">
-        <v>15290</v>
+        <v>15330</v>
       </c>
       <c r="E204" t="n">
-        <v>15220</v>
+        <v>15330</v>
       </c>
       <c r="F204" t="n">
-        <v>141.2944</v>
+        <v>3.3323</v>
       </c>
       <c r="G204" t="n">
-        <v>15262.5</v>
+        <v>15260.66666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7907,7 +8089,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>15150</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,22 +8106,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>15230</v>
+        <v>15290</v>
       </c>
       <c r="C205" t="n">
-        <v>15310</v>
+        <v>15220</v>
       </c>
       <c r="D205" t="n">
-        <v>15310</v>
+        <v>15290</v>
       </c>
       <c r="E205" t="n">
-        <v>15230</v>
+        <v>15220</v>
       </c>
       <c r="F205" t="n">
-        <v>0.066</v>
+        <v>141.2944</v>
       </c>
       <c r="G205" t="n">
-        <v>15265.83333333333</v>
+        <v>15262.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7946,7 +8130,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>15150</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,22 +8147,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>15320</v>
+        <v>15230</v>
       </c>
       <c r="C206" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="D206" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="E206" t="n">
-        <v>15320</v>
+        <v>15230</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9615</v>
+        <v>0.066</v>
       </c>
       <c r="G206" t="n">
-        <v>15269.33333333333</v>
+        <v>15265.83333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7985,7 +8171,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>15150</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8000,22 +8188,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>15250</v>
+        <v>15320</v>
       </c>
       <c r="C207" t="n">
-        <v>15250</v>
+        <v>15320</v>
       </c>
       <c r="D207" t="n">
-        <v>15250</v>
+        <v>15320</v>
       </c>
       <c r="E207" t="n">
-        <v>15250</v>
+        <v>15320</v>
       </c>
       <c r="F207" t="n">
-        <v>20</v>
+        <v>0.9615</v>
       </c>
       <c r="G207" t="n">
-        <v>15271.66666666667</v>
+        <v>15269.33333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8024,7 +8212,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>15150</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8039,22 +8229,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>15240</v>
+        <v>15250</v>
       </c>
       <c r="C208" t="n">
-        <v>15180</v>
+        <v>15250</v>
       </c>
       <c r="D208" t="n">
-        <v>15240</v>
+        <v>15250</v>
       </c>
       <c r="E208" t="n">
-        <v>15180</v>
+        <v>15250</v>
       </c>
       <c r="F208" t="n">
-        <v>626.4549</v>
+        <v>20</v>
       </c>
       <c r="G208" t="n">
-        <v>15271.5</v>
+        <v>15271.66666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8063,7 +8253,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>15150</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8078,22 +8270,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>15200</v>
+        <v>15240</v>
       </c>
       <c r="C209" t="n">
-        <v>15200</v>
+        <v>15180</v>
       </c>
       <c r="D209" t="n">
-        <v>15200</v>
+        <v>15240</v>
       </c>
       <c r="E209" t="n">
-        <v>15200</v>
+        <v>15180</v>
       </c>
       <c r="F209" t="n">
-        <v>0.89</v>
+        <v>626.4549</v>
       </c>
       <c r="G209" t="n">
-        <v>15272.5</v>
+        <v>15271.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8102,7 +8294,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>15150</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,19 +8314,19 @@
         <v>15200</v>
       </c>
       <c r="C210" t="n">
-        <v>15190</v>
+        <v>15200</v>
       </c>
       <c r="D210" t="n">
         <v>15200</v>
       </c>
       <c r="E210" t="n">
-        <v>15180</v>
+        <v>15200</v>
       </c>
       <c r="F210" t="n">
-        <v>91.62</v>
+        <v>0.89</v>
       </c>
       <c r="G210" t="n">
-        <v>15273.33333333333</v>
+        <v>15272.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8141,7 +8335,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>15150</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,22 +8352,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>15130</v>
+        <v>15200</v>
       </c>
       <c r="C211" t="n">
-        <v>15130</v>
+        <v>15190</v>
       </c>
       <c r="D211" t="n">
-        <v>15130</v>
+        <v>15200</v>
       </c>
       <c r="E211" t="n">
-        <v>15130</v>
+        <v>15180</v>
       </c>
       <c r="F211" t="n">
-        <v>9.367900000000001</v>
+        <v>91.62</v>
       </c>
       <c r="G211" t="n">
-        <v>15273</v>
+        <v>15273.33333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8180,7 +8376,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>15150</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8195,22 +8393,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>15110</v>
+        <v>15130</v>
       </c>
       <c r="C212" t="n">
-        <v>15100</v>
+        <v>15130</v>
       </c>
       <c r="D212" t="n">
-        <v>15110</v>
+        <v>15130</v>
       </c>
       <c r="E212" t="n">
-        <v>15100</v>
+        <v>15130</v>
       </c>
       <c r="F212" t="n">
-        <v>30.744</v>
+        <v>9.367900000000001</v>
       </c>
       <c r="G212" t="n">
-        <v>15272</v>
+        <v>15273</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8219,7 +8417,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>15150</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,22 +8434,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>15080</v>
+        <v>15110</v>
       </c>
       <c r="C213" t="n">
-        <v>15130</v>
+        <v>15100</v>
       </c>
       <c r="D213" t="n">
-        <v>15130</v>
+        <v>15110</v>
       </c>
       <c r="E213" t="n">
-        <v>15080</v>
+        <v>15100</v>
       </c>
       <c r="F213" t="n">
-        <v>15.1855</v>
+        <v>30.744</v>
       </c>
       <c r="G213" t="n">
-        <v>15272.33333333333</v>
+        <v>15272</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8258,7 +8458,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>15150</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,7 +8475,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>15130</v>
+        <v>15080</v>
       </c>
       <c r="C214" t="n">
         <v>15130</v>
@@ -8282,13 +8484,13 @@
         <v>15130</v>
       </c>
       <c r="E214" t="n">
-        <v>15130</v>
+        <v>15080</v>
       </c>
       <c r="F214" t="n">
-        <v>30.6481</v>
+        <v>15.1855</v>
       </c>
       <c r="G214" t="n">
-        <v>15272.5</v>
+        <v>15272.33333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8297,7 +8499,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>15150</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,22 +8516,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>15060</v>
+        <v>15130</v>
       </c>
       <c r="C215" t="n">
-        <v>15060</v>
+        <v>15130</v>
       </c>
       <c r="D215" t="n">
-        <v>15060</v>
+        <v>15130</v>
       </c>
       <c r="E215" t="n">
-        <v>15060</v>
+        <v>15130</v>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>30.6481</v>
       </c>
       <c r="G215" t="n">
-        <v>15269.66666666667</v>
+        <v>15272.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8336,7 +8540,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>15150</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,22 +8557,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>15030</v>
+        <v>15060</v>
       </c>
       <c r="C216" t="n">
-        <v>15000</v>
+        <v>15060</v>
       </c>
       <c r="D216" t="n">
-        <v>15030</v>
+        <v>15060</v>
       </c>
       <c r="E216" t="n">
-        <v>15000</v>
+        <v>15060</v>
       </c>
       <c r="F216" t="n">
-        <v>408.3205</v>
+        <v>10</v>
       </c>
       <c r="G216" t="n">
-        <v>15265.83333333333</v>
+        <v>15269.66666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8375,7 +8581,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>15150</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8393,19 +8601,19 @@
         <v>15030</v>
       </c>
       <c r="C217" t="n">
-        <v>15010</v>
+        <v>15000</v>
       </c>
       <c r="D217" t="n">
         <v>15030</v>
       </c>
       <c r="E217" t="n">
-        <v>15010</v>
+        <v>15000</v>
       </c>
       <c r="F217" t="n">
-        <v>100</v>
+        <v>408.3205</v>
       </c>
       <c r="G217" t="n">
-        <v>15262.16666666667</v>
+        <v>15265.83333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8414,7 +8622,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>15150</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8429,22 +8639,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>14990</v>
+        <v>15030</v>
       </c>
       <c r="C218" t="n">
-        <v>14980</v>
+        <v>15010</v>
       </c>
       <c r="D218" t="n">
-        <v>14990</v>
+        <v>15030</v>
       </c>
       <c r="E218" t="n">
-        <v>14980</v>
+        <v>15010</v>
       </c>
       <c r="F218" t="n">
-        <v>50.7385</v>
+        <v>100</v>
       </c>
       <c r="G218" t="n">
-        <v>15258</v>
+        <v>15262.16666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8453,7 +8663,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>15150</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8468,22 +8680,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>14990</v>
+      </c>
+      <c r="C219" t="n">
         <v>14980</v>
       </c>
-      <c r="C219" t="n">
-        <v>15040</v>
-      </c>
       <c r="D219" t="n">
-        <v>15060</v>
+        <v>14990</v>
       </c>
       <c r="E219" t="n">
-        <v>14900</v>
+        <v>14980</v>
       </c>
       <c r="F219" t="n">
-        <v>1350.04</v>
+        <v>50.7385</v>
       </c>
       <c r="G219" t="n">
-        <v>15254.83333333333</v>
+        <v>15258</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8492,7 +8704,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>15150</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8507,31 +8721,35 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>14980</v>
+      </c>
+      <c r="C220" t="n">
         <v>15040</v>
       </c>
-      <c r="C220" t="n">
-        <v>15050</v>
-      </c>
       <c r="D220" t="n">
-        <v>15050</v>
+        <v>15060</v>
       </c>
       <c r="E220" t="n">
-        <v>15030</v>
+        <v>14900</v>
       </c>
       <c r="F220" t="n">
-        <v>67.9367</v>
+        <v>1350.04</v>
       </c>
       <c r="G220" t="n">
-        <v>15251.5</v>
+        <v>15254.83333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>14980</v>
+      </c>
+      <c r="K220" t="n">
+        <v>15150</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8546,22 +8764,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>15070</v>
+        <v>15040</v>
       </c>
       <c r="C221" t="n">
-        <v>15070</v>
+        <v>15050</v>
       </c>
       <c r="D221" t="n">
-        <v>15070</v>
+        <v>15050</v>
       </c>
       <c r="E221" t="n">
-        <v>15070</v>
+        <v>15030</v>
       </c>
       <c r="F221" t="n">
-        <v>19.8574</v>
+        <v>67.9367</v>
       </c>
       <c r="G221" t="n">
-        <v>15248.33333333333</v>
+        <v>15251.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8570,7 +8788,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>15150</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8585,22 +8805,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>15100</v>
+        <v>15070</v>
       </c>
       <c r="C222" t="n">
-        <v>15120</v>
+        <v>15070</v>
       </c>
       <c r="D222" t="n">
-        <v>15120</v>
+        <v>15070</v>
       </c>
       <c r="E222" t="n">
-        <v>15100</v>
+        <v>15070</v>
       </c>
       <c r="F222" t="n">
-        <v>114.9569</v>
+        <v>19.8574</v>
       </c>
       <c r="G222" t="n">
-        <v>15245.66666666667</v>
+        <v>15248.33333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8609,7 +8829,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>15150</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8624,7 +8846,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>15120</v>
+        <v>15100</v>
       </c>
       <c r="C223" t="n">
         <v>15120</v>
@@ -8633,13 +8855,13 @@
         <v>15120</v>
       </c>
       <c r="E223" t="n">
-        <v>15120</v>
+        <v>15100</v>
       </c>
       <c r="F223" t="n">
-        <v>19.672</v>
+        <v>114.9569</v>
       </c>
       <c r="G223" t="n">
-        <v>15243</v>
+        <v>15245.66666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8648,7 +8870,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>15150</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8663,22 +8887,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>15190</v>
+        <v>15120</v>
       </c>
       <c r="C224" t="n">
-        <v>15190</v>
+        <v>15120</v>
       </c>
       <c r="D224" t="n">
-        <v>15300</v>
+        <v>15120</v>
       </c>
       <c r="E224" t="n">
-        <v>15190</v>
+        <v>15120</v>
       </c>
       <c r="F224" t="n">
-        <v>64.3</v>
+        <v>19.672</v>
       </c>
       <c r="G224" t="n">
-        <v>15241.83333333333</v>
+        <v>15243</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8687,7 +8911,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>15150</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8702,22 +8928,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>15270</v>
+        <v>15190</v>
       </c>
       <c r="C225" t="n">
-        <v>15270</v>
+        <v>15190</v>
       </c>
       <c r="D225" t="n">
-        <v>15270</v>
+        <v>15300</v>
       </c>
       <c r="E225" t="n">
-        <v>15270</v>
+        <v>15190</v>
       </c>
       <c r="F225" t="n">
-        <v>2.0006</v>
+        <v>64.3</v>
       </c>
       <c r="G225" t="n">
-        <v>15243</v>
+        <v>15241.83333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8726,7 +8952,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>15150</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8741,22 +8969,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>15280</v>
+        <v>15270</v>
       </c>
       <c r="C226" t="n">
-        <v>15200</v>
+        <v>15270</v>
       </c>
       <c r="D226" t="n">
-        <v>15280</v>
+        <v>15270</v>
       </c>
       <c r="E226" t="n">
-        <v>15200</v>
+        <v>15270</v>
       </c>
       <c r="F226" t="n">
-        <v>69.4435</v>
+        <v>2.0006</v>
       </c>
       <c r="G226" t="n">
-        <v>15243.16666666667</v>
+        <v>15243</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8765,7 +8993,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>15150</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8780,22 +9010,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>15190</v>
+        <v>15280</v>
       </c>
       <c r="C227" t="n">
-        <v>15280</v>
+        <v>15200</v>
       </c>
       <c r="D227" t="n">
         <v>15280</v>
       </c>
       <c r="E227" t="n">
-        <v>15190</v>
+        <v>15200</v>
       </c>
       <c r="F227" t="n">
-        <v>0.067</v>
+        <v>69.4435</v>
       </c>
       <c r="G227" t="n">
-        <v>15243.5</v>
+        <v>15243.16666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8804,7 +9034,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>15150</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8819,7 +9051,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>15280</v>
+        <v>15190</v>
       </c>
       <c r="C228" t="n">
         <v>15280</v>
@@ -8828,13 +9060,13 @@
         <v>15280</v>
       </c>
       <c r="E228" t="n">
-        <v>15280</v>
+        <v>15190</v>
       </c>
       <c r="F228" t="n">
-        <v>1.2925</v>
+        <v>0.067</v>
       </c>
       <c r="G228" t="n">
-        <v>15243.83333333333</v>
+        <v>15243.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8843,7 +9075,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>15150</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,22 +9092,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>15300</v>
+        <v>15280</v>
       </c>
       <c r="C229" t="n">
-        <v>15340</v>
+        <v>15280</v>
       </c>
       <c r="D229" t="n">
-        <v>15340</v>
+        <v>15280</v>
       </c>
       <c r="E229" t="n">
-        <v>15300</v>
+        <v>15280</v>
       </c>
       <c r="F229" t="n">
-        <v>150.1129</v>
+        <v>1.2925</v>
       </c>
       <c r="G229" t="n">
-        <v>15245</v>
+        <v>15243.83333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8882,7 +9116,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>15150</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8897,22 +9133,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>15320</v>
+        <v>15300</v>
       </c>
       <c r="C230" t="n">
-        <v>15350</v>
+        <v>15340</v>
       </c>
       <c r="D230" t="n">
-        <v>15350</v>
+        <v>15340</v>
       </c>
       <c r="E230" t="n">
-        <v>15320</v>
+        <v>15300</v>
       </c>
       <c r="F230" t="n">
-        <v>979.7578</v>
+        <v>150.1129</v>
       </c>
       <c r="G230" t="n">
-        <v>15245.33333333333</v>
+        <v>15245</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8921,7 +9157,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>15150</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8936,22 +9174,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>15340</v>
+        <v>15320</v>
       </c>
       <c r="C231" t="n">
-        <v>15290</v>
+        <v>15350</v>
       </c>
       <c r="D231" t="n">
-        <v>15340</v>
+        <v>15350</v>
       </c>
       <c r="E231" t="n">
-        <v>15290</v>
+        <v>15320</v>
       </c>
       <c r="F231" t="n">
-        <v>52</v>
+        <v>979.7578</v>
       </c>
       <c r="G231" t="n">
-        <v>15245</v>
+        <v>15245.33333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8960,7 +9198,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>15150</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8975,22 +9215,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>15320</v>
+        <v>15340</v>
       </c>
       <c r="C232" t="n">
-        <v>15320</v>
+        <v>15290</v>
       </c>
       <c r="D232" t="n">
-        <v>15320</v>
+        <v>15340</v>
       </c>
       <c r="E232" t="n">
-        <v>15310</v>
+        <v>15290</v>
       </c>
       <c r="F232" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G232" t="n">
-        <v>15245.16666666667</v>
+        <v>15245</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8999,7 +9239,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>15150</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,22 +9256,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>15340</v>
+        <v>15320</v>
       </c>
       <c r="C233" t="n">
-        <v>15430</v>
+        <v>15320</v>
       </c>
       <c r="D233" t="n">
-        <v>15430</v>
+        <v>15320</v>
       </c>
       <c r="E233" t="n">
-        <v>15340</v>
+        <v>15310</v>
       </c>
       <c r="F233" t="n">
-        <v>2.4828</v>
+        <v>75</v>
       </c>
       <c r="G233" t="n">
-        <v>15246.16666666667</v>
+        <v>15245.16666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9038,7 +9280,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>15150</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9053,22 +9297,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>15350</v>
+        <v>15340</v>
       </c>
       <c r="C234" t="n">
-        <v>15340</v>
+        <v>15430</v>
       </c>
       <c r="D234" t="n">
-        <v>15350</v>
+        <v>15430</v>
       </c>
       <c r="E234" t="n">
         <v>15340</v>
       </c>
       <c r="F234" t="n">
-        <v>54.7906</v>
+        <v>2.4828</v>
       </c>
       <c r="G234" t="n">
-        <v>15245.66666666667</v>
+        <v>15246.16666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9077,7 +9321,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>15150</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9092,22 +9338,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>15310</v>
+        <v>15350</v>
       </c>
       <c r="C235" t="n">
-        <v>15310</v>
+        <v>15340</v>
       </c>
       <c r="D235" t="n">
-        <v>15310</v>
+        <v>15350</v>
       </c>
       <c r="E235" t="n">
-        <v>15310</v>
+        <v>15340</v>
       </c>
       <c r="F235" t="n">
-        <v>28.6393</v>
+        <v>54.7906</v>
       </c>
       <c r="G235" t="n">
-        <v>15243.66666666667</v>
+        <v>15245.66666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9116,7 +9362,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>15150</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9131,22 +9379,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="C236" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="D236" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="E236" t="n">
-        <v>15320</v>
+        <v>15310</v>
       </c>
       <c r="F236" t="n">
-        <v>0.034</v>
+        <v>28.6393</v>
       </c>
       <c r="G236" t="n">
-        <v>15240.5</v>
+        <v>15243.66666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9155,7 +9403,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>15150</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9170,38 +9420,40 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>15380</v>
+        <v>15320</v>
       </c>
       <c r="C237" t="n">
-        <v>15380</v>
+        <v>15320</v>
       </c>
       <c r="D237" t="n">
-        <v>15380</v>
+        <v>15320</v>
       </c>
       <c r="E237" t="n">
-        <v>15380</v>
+        <v>15320</v>
       </c>
       <c r="F237" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="G237" t="n">
-        <v>15239.16666666667</v>
+        <v>15240.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>15150</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>1</v>
+        <v>1.006221122112211</v>
       </c>
     </row>
     <row r="238">
@@ -9209,22 +9461,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>15350</v>
+        <v>15380</v>
       </c>
       <c r="C238" t="n">
-        <v>15420</v>
+        <v>15380</v>
       </c>
       <c r="D238" t="n">
-        <v>15420</v>
+        <v>15380</v>
       </c>
       <c r="E238" t="n">
-        <v>15350</v>
+        <v>15380</v>
       </c>
       <c r="F238" t="n">
-        <v>0.066</v>
+        <v>0.033</v>
       </c>
       <c r="G238" t="n">
-        <v>15240.33333333333</v>
+        <v>15239.16666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9234,11 +9486,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9248,36 +9496,32 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>15350</v>
+      </c>
+      <c r="C239" t="n">
         <v>15420</v>
       </c>
-      <c r="C239" t="n">
-        <v>15490</v>
-      </c>
       <c r="D239" t="n">
-        <v>15490</v>
+        <v>15420</v>
       </c>
       <c r="E239" t="n">
-        <v>15420</v>
+        <v>15350</v>
       </c>
       <c r="F239" t="n">
-        <v>130.9581</v>
+        <v>0.066</v>
       </c>
       <c r="G239" t="n">
-        <v>15242.83333333333</v>
+        <v>15240.33333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9287,22 +9531,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>15440</v>
+        <v>15420</v>
       </c>
       <c r="C240" t="n">
-        <v>15440</v>
+        <v>15490</v>
       </c>
       <c r="D240" t="n">
-        <v>15440</v>
+        <v>15490</v>
       </c>
       <c r="E240" t="n">
-        <v>15430</v>
+        <v>15420</v>
       </c>
       <c r="F240" t="n">
-        <v>11.9229</v>
+        <v>130.9581</v>
       </c>
       <c r="G240" t="n">
-        <v>15245.5</v>
+        <v>15242.83333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9312,11 +9556,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9326,22 +9566,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>15480</v>
+        <v>15440</v>
       </c>
       <c r="C241" t="n">
         <v>15440</v>
       </c>
       <c r="D241" t="n">
-        <v>15480</v>
+        <v>15440</v>
       </c>
       <c r="E241" t="n">
-        <v>15440</v>
+        <v>15430</v>
       </c>
       <c r="F241" t="n">
-        <v>101.2516</v>
+        <v>11.9229</v>
       </c>
       <c r="G241" t="n">
-        <v>15249.5</v>
+        <v>15245.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9351,11 +9591,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9365,22 +9601,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>15360</v>
+        <v>15480</v>
       </c>
       <c r="C242" t="n">
-        <v>15320</v>
+        <v>15440</v>
       </c>
       <c r="D242" t="n">
-        <v>15360</v>
+        <v>15480</v>
       </c>
       <c r="E242" t="n">
-        <v>15320</v>
+        <v>15440</v>
       </c>
       <c r="F242" t="n">
-        <v>76.2137</v>
+        <v>101.2516</v>
       </c>
       <c r="G242" t="n">
-        <v>15251.66666666667</v>
+        <v>15249.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9390,11 +9626,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9404,22 +9636,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>15400</v>
+        <v>15360</v>
       </c>
       <c r="C243" t="n">
-        <v>15440</v>
+        <v>15320</v>
       </c>
       <c r="D243" t="n">
-        <v>15440</v>
+        <v>15360</v>
       </c>
       <c r="E243" t="n">
-        <v>15400</v>
+        <v>15320</v>
       </c>
       <c r="F243" t="n">
-        <v>107.1534560880829</v>
+        <v>76.2137</v>
       </c>
       <c r="G243" t="n">
-        <v>15255.33333333333</v>
+        <v>15251.66666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9429,11 +9661,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9443,22 +9671,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>15360</v>
+        <v>15400</v>
       </c>
       <c r="C244" t="n">
-        <v>15340</v>
+        <v>15440</v>
       </c>
       <c r="D244" t="n">
-        <v>15360</v>
+        <v>15440</v>
       </c>
       <c r="E244" t="n">
-        <v>15340</v>
+        <v>15400</v>
       </c>
       <c r="F244" t="n">
-        <v>97.38290000000001</v>
+        <v>107.1534560880829</v>
       </c>
       <c r="G244" t="n">
-        <v>15256.5</v>
+        <v>15255.33333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9468,11 +9696,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9482,22 +9706,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>15420</v>
+        <v>15360</v>
       </c>
       <c r="C245" t="n">
-        <v>15430</v>
+        <v>15340</v>
       </c>
       <c r="D245" t="n">
-        <v>15440</v>
+        <v>15360</v>
       </c>
       <c r="E245" t="n">
-        <v>15420</v>
+        <v>15340</v>
       </c>
       <c r="F245" t="n">
-        <v>265.2656</v>
+        <v>97.38290000000001</v>
       </c>
       <c r="G245" t="n">
-        <v>15259.83333333333</v>
+        <v>15256.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9507,11 +9731,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9521,22 +9741,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>15430</v>
+        <v>15420</v>
       </c>
       <c r="C246" t="n">
         <v>15430</v>
       </c>
       <c r="D246" t="n">
-        <v>15460</v>
+        <v>15440</v>
       </c>
       <c r="E246" t="n">
-        <v>15430</v>
+        <v>15420</v>
       </c>
       <c r="F246" t="n">
-        <v>36.5313</v>
+        <v>265.2656</v>
       </c>
       <c r="G246" t="n">
-        <v>15263.33333333333</v>
+        <v>15259.83333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9546,12 +9766,43 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C247" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D247" t="n">
+        <v>15460</v>
+      </c>
+      <c r="E247" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F247" t="n">
+        <v>36.5313</v>
+      </c>
+      <c r="G247" t="n">
+        <v>15263.33333333333</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest REP.xlsx
+++ b/BackTest/2020-01-25 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>59.779</v>
       </c>
       <c r="G2" t="n">
+        <v>16086.66666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>15844</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1450.0783</v>
       </c>
       <c r="G3" t="n">
+        <v>16099.33333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>15854.33333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>80.43473730697961</v>
       </c>
       <c r="G4" t="n">
+        <v>16112</v>
+      </c>
+      <c r="H4" t="n">
         <v>15864.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>261.7222</v>
       </c>
       <c r="G5" t="n">
+        <v>16123.33333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>15873.66666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>0.0745</v>
       </c>
       <c r="G6" t="n">
+        <v>16127.33333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>15884</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>97.40260000000001</v>
       </c>
       <c r="G7" t="n">
+        <v>16132.66666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>15892.83333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>163.2583626930204</v>
       </c>
       <c r="G8" t="n">
+        <v>16138</v>
+      </c>
+      <c r="H8" t="n">
         <v>15902</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>140.6076</v>
       </c>
       <c r="G9" t="n">
+        <v>16138.66666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>15908.83333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>108.6835</v>
       </c>
       <c r="G10" t="n">
+        <v>16145.33333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>15918.83333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>54.5922</v>
       </c>
       <c r="G11" t="n">
+        <v>16151.33333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>15929</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>207.7477</v>
       </c>
       <c r="G12" t="n">
+        <v>16164.66666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>15939.33333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>767.4048</v>
       </c>
       <c r="G13" t="n">
+        <v>16182.66666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>15951.83333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>129.9745</v>
       </c>
       <c r="G14" t="n">
+        <v>16198.66666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>15962.83333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>72.36879999999999</v>
       </c>
       <c r="G15" t="n">
+        <v>16212</v>
+      </c>
+      <c r="H15" t="n">
         <v>15975.33333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>103.7173</v>
       </c>
       <c r="G16" t="n">
+        <v>16222</v>
+      </c>
+      <c r="H16" t="n">
         <v>15985.66666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>153.3307</v>
       </c>
       <c r="G17" t="n">
+        <v>16236.66666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>15996.66666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>152.6578</v>
       </c>
       <c r="G18" t="n">
+        <v>16251.33333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>16009</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>42.8239</v>
       </c>
       <c r="G19" t="n">
+        <v>16266</v>
+      </c>
+      <c r="H19" t="n">
         <v>16020.33333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>176.7814</v>
       </c>
       <c r="G20" t="n">
+        <v>16278</v>
+      </c>
+      <c r="H20" t="n">
         <v>16030.66666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>241.0764</v>
       </c>
       <c r="G21" t="n">
+        <v>16284</v>
+      </c>
+      <c r="H21" t="n">
         <v>16038.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>451.4858</v>
       </c>
       <c r="G22" t="n">
+        <v>16286.66666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>16044.66666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>195.6209</v>
       </c>
       <c r="G23" t="n">
+        <v>16283.33333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>16051.16666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>0.0472</v>
       </c>
       <c r="G24" t="n">
+        <v>16286.66666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>16057.66666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>119.0069</v>
       </c>
       <c r="G25" t="n">
+        <v>16278</v>
+      </c>
+      <c r="H25" t="n">
         <v>16062.83333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>128.2931</v>
       </c>
       <c r="G26" t="n">
+        <v>16264.66666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>16066.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>66.0305</v>
       </c>
       <c r="G27" t="n">
+        <v>16250.66666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>16070.33333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>283.9184</v>
       </c>
       <c r="G28" t="n">
+        <v>16218</v>
+      </c>
+      <c r="H28" t="n">
         <v>16071.83333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>217.1455</v>
       </c>
       <c r="G29" t="n">
+        <v>16187.33333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>16073.66666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>678.5213</v>
       </c>
       <c r="G30" t="n">
+        <v>16161.33333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>16076</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>12.7783</v>
       </c>
       <c r="G31" t="n">
+        <v>16129.33333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>16077.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>110.3909</v>
       </c>
       <c r="G32" t="n">
+        <v>16093.33333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>16077</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>43.0754</v>
       </c>
       <c r="G33" t="n">
+        <v>16056.66666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>16076</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>72.64870000000001</v>
       </c>
       <c r="G34" t="n">
+        <v>16021.33333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>16076</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>3.642</v>
       </c>
       <c r="G35" t="n">
+        <v>15985.33333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>16075.5</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>137.9789</v>
       </c>
       <c r="G36" t="n">
+        <v>15950.66666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>16073.83333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>47.5941</v>
       </c>
       <c r="G37" t="n">
+        <v>15926</v>
+      </c>
+      <c r="H37" t="n">
         <v>16073.83333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>15.2957</v>
       </c>
       <c r="G38" t="n">
+        <v>15902</v>
+      </c>
+      <c r="H38" t="n">
         <v>16072.16666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>83.12569999999999</v>
       </c>
       <c r="G39" t="n">
+        <v>15875.33333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>16070.5</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>114.2199</v>
       </c>
       <c r="G40" t="n">
+        <v>15854.66666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>16068.66666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>189.5199</v>
       </c>
       <c r="G41" t="n">
+        <v>15840</v>
+      </c>
+      <c r="H41" t="n">
         <v>16067</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1.9122</v>
       </c>
       <c r="G42" t="n">
+        <v>15821.33333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>16063.83333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>0.0519</v>
       </c>
       <c r="G43" t="n">
+        <v>15814</v>
+      </c>
+      <c r="H43" t="n">
         <v>16061.33333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>30.1011</v>
       </c>
       <c r="G44" t="n">
+        <v>15796.66666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>16056.16666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>0.0653</v>
       </c>
       <c r="G45" t="n">
+        <v>15783.33333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>16052.66666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>0.0318</v>
       </c>
       <c r="G46" t="n">
+        <v>15776.66666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>16050.5</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>67.7268</v>
       </c>
       <c r="G47" t="n">
+        <v>15771.33333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>16047</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>0.0446</v>
       </c>
       <c r="G48" t="n">
+        <v>15767.33333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>16043.66666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>243.5011</v>
       </c>
       <c r="G49" t="n">
+        <v>15752</v>
+      </c>
+      <c r="H49" t="n">
         <v>16037.83333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>18.7192</v>
       </c>
       <c r="G50" t="n">
+        <v>15744</v>
+      </c>
+      <c r="H50" t="n">
         <v>16032.66666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>10.4424</v>
       </c>
       <c r="G51" t="n">
+        <v>15741.33333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>16025.83333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>6.8664</v>
       </c>
       <c r="G52" t="n">
+        <v>15726</v>
+      </c>
+      <c r="H52" t="n">
         <v>16017.83333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>1.9891</v>
       </c>
       <c r="G53" t="n">
+        <v>15718.66666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>16010.5</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>47.0539</v>
       </c>
       <c r="G54" t="n">
+        <v>15707.33333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>16002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>65</v>
       </c>
       <c r="G55" t="n">
+        <v>15695.33333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>15993.33333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>0.033</v>
       </c>
       <c r="G56" t="n">
+        <v>15682.66666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>15984.66666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>34.8141</v>
       </c>
       <c r="G57" t="n">
+        <v>15670.66666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>15976.83333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>649.9846</v>
       </c>
       <c r="G58" t="n">
+        <v>15655.33333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>15967.5</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>168.3134</v>
       </c>
       <c r="G59" t="n">
+        <v>15650</v>
+      </c>
+      <c r="H59" t="n">
         <v>15958.16666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>6.575</v>
       </c>
       <c r="G60" t="n">
+        <v>15638</v>
+      </c>
+      <c r="H60" t="n">
         <v>15948.66666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>7.0652</v>
       </c>
       <c r="G61" t="n">
+        <v>15626</v>
+      </c>
+      <c r="H61" t="n">
         <v>15938.5</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>15.8322</v>
       </c>
       <c r="G62" t="n">
+        <v>15613.33333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>15928.66666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>4.8288</v>
       </c>
       <c r="G63" t="n">
+        <v>15599.33333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>15918.66666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>40</v>
       </c>
       <c r="G64" t="n">
+        <v>15598.66666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>15909.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1.4889</v>
       </c>
       <c r="G65" t="n">
+        <v>15600.66666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>15902</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>0.104</v>
       </c>
       <c r="G66" t="n">
+        <v>15602</v>
+      </c>
+      <c r="H66" t="n">
         <v>15894.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1.4</v>
       </c>
       <c r="G67" t="n">
+        <v>15616.66666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>15888.83333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>2.8682</v>
       </c>
       <c r="G68" t="n">
+        <v>15628.66666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>15883.16666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="G69" t="n">
+        <v>15650.66666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>15880</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>35.1731</v>
       </c>
       <c r="G70" t="n">
+        <v>15674</v>
+      </c>
+      <c r="H70" t="n">
         <v>15875.5</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>13.9318</v>
       </c>
       <c r="G71" t="n">
+        <v>15698</v>
+      </c>
+      <c r="H71" t="n">
         <v>15871.33333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>16.3673</v>
       </c>
       <c r="G72" t="n">
+        <v>15724</v>
+      </c>
+      <c r="H72" t="n">
         <v>15866.66666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>960.7943</v>
       </c>
       <c r="G73" t="n">
+        <v>15744.66666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>15858</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>88.5112</v>
       </c>
       <c r="G74" t="n">
+        <v>15764.66666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>15849.66666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>490.0673</v>
       </c>
       <c r="G75" t="n">
+        <v>15784</v>
+      </c>
+      <c r="H75" t="n">
         <v>15841.66666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>24.7966</v>
       </c>
       <c r="G76" t="n">
+        <v>15798.66666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>15832.66666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>20.5331</v>
       </c>
       <c r="G77" t="n">
+        <v>15813.33333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>15822.83333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>247.1932</v>
       </c>
       <c r="G78" t="n">
+        <v>15822.66666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>15811.5</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>150</v>
       </c>
       <c r="G79" t="n">
+        <v>15826</v>
+      </c>
+      <c r="H79" t="n">
         <v>15799.5</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>159.8088</v>
       </c>
       <c r="G80" t="n">
+        <v>15819.33333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>15787.33333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>59.4001</v>
       </c>
       <c r="G81" t="n">
+        <v>15803.33333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>15774.33333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>166.7364</v>
       </c>
       <c r="G82" t="n">
+        <v>15778.66666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>15761.83333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>121.8931</v>
       </c>
       <c r="G83" t="n">
+        <v>15749.33333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>15749.66666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
+        <v>15714.66666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>15737</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>355.1498</v>
       </c>
       <c r="G85" t="n">
+        <v>15678</v>
+      </c>
+      <c r="H85" t="n">
         <v>15725.5</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>374.406</v>
       </c>
       <c r="G86" t="n">
+        <v>15640</v>
+      </c>
+      <c r="H86" t="n">
         <v>15715.16666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>1.4147</v>
       </c>
       <c r="G87" t="n">
+        <v>15605.33333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>15705.33333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>149.0975</v>
       </c>
       <c r="G88" t="n">
+        <v>15574.66666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>15697.16666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>749.1806</v>
       </c>
       <c r="G89" t="n">
+        <v>15541.33333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>15688.16666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>47.1502</v>
       </c>
       <c r="G90" t="n">
+        <v>15504.66666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>15677.5</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>603.8102</v>
       </c>
       <c r="G91" t="n">
+        <v>15470.66666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>15668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>28.7821</v>
       </c>
       <c r="G92" t="n">
+        <v>15432.66666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>15657.66666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>36.63</v>
       </c>
       <c r="G93" t="n">
+        <v>15400.66666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>15647.5</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>211.4403844138834</v>
       </c>
       <c r="G94" t="n">
+        <v>15370</v>
+      </c>
+      <c r="H94" t="n">
         <v>15636.66666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>0.039</v>
       </c>
       <c r="G95" t="n">
+        <v>15347.33333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>15627.83333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>7.5361</v>
       </c>
       <c r="G96" t="n">
+        <v>15328</v>
+      </c>
+      <c r="H96" t="n">
         <v>15618.66666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>188.9735</v>
       </c>
       <c r="G97" t="n">
+        <v>15309.33333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>15607.66666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>103.2795</v>
       </c>
       <c r="G98" t="n">
+        <v>15299.33333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>15599</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>51.5765</v>
       </c>
       <c r="G99" t="n">
+        <v>15291.33333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>15591</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>32.55</v>
       </c>
       <c r="G100" t="n">
+        <v>15284</v>
+      </c>
+      <c r="H100" t="n">
         <v>15582.83333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>34.1133</v>
       </c>
       <c r="G101" t="n">
+        <v>15274.66666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>15573.83333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>16.3813</v>
       </c>
       <c r="G102" t="n">
+        <v>15263.33333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>15565.83333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>46.8978</v>
       </c>
       <c r="G103" t="n">
+        <v>15254</v>
+      </c>
+      <c r="H103" t="n">
         <v>15557.16666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>5.0385</v>
       </c>
       <c r="G104" t="n">
+        <v>15247.33333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>15550.83333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>11.0105</v>
       </c>
       <c r="G105" t="n">
+        <v>15244.66666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>15542.83333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>22.0583</v>
       </c>
       <c r="G106" t="n">
+        <v>15240</v>
+      </c>
+      <c r="H106" t="n">
         <v>15533.83333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>222.9128</v>
       </c>
       <c r="G107" t="n">
+        <v>15237.33333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>15524.16666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>375.3905</v>
       </c>
       <c r="G108" t="n">
+        <v>15233.33333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>15514</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>59.2571</v>
       </c>
       <c r="G109" t="n">
+        <v>15236</v>
+      </c>
+      <c r="H109" t="n">
         <v>15507.66666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>8.4215</v>
       </c>
       <c r="G110" t="n">
+        <v>15232.66666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>15500</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>12.0425</v>
       </c>
       <c r="G111" t="n">
+        <v>15231.33333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>15491.16666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>19.1546</v>
       </c>
       <c r="G112" t="n">
+        <v>15232</v>
+      </c>
+      <c r="H112" t="n">
         <v>15484.16666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>82.0707</v>
       </c>
       <c r="G113" t="n">
+        <v>15226</v>
+      </c>
+      <c r="H113" t="n">
         <v>15475.83333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>37.3684</v>
       </c>
       <c r="G114" t="n">
+        <v>15216</v>
+      </c>
+      <c r="H114" t="n">
         <v>15468.16666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,22 +4747,21 @@
         <v>98.9509</v>
       </c>
       <c r="G115" t="n">
+        <v>15209.33333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>15461.33333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>15150</v>
-      </c>
-      <c r="K115" t="n">
-        <v>15150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,26 +4785,21 @@
         <v>66.6606</v>
       </c>
       <c r="G116" t="n">
+        <v>15202.66666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>15453.83333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>15190</v>
-      </c>
-      <c r="K116" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4485,26 +4823,21 @@
         <v>11.08</v>
       </c>
       <c r="G117" t="n">
+        <v>15195.33333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>15447</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>15150</v>
-      </c>
-      <c r="K117" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,26 +4861,21 @@
         <v>2.0373</v>
       </c>
       <c r="G118" t="n">
+        <v>15188.66666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>15440.5</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>15150</v>
-      </c>
-      <c r="K118" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4571,26 +4899,21 @@
         <v>0.8827</v>
       </c>
       <c r="G119" t="n">
+        <v>15184</v>
+      </c>
+      <c r="H119" t="n">
         <v>15434.33333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>15150</v>
-      </c>
-      <c r="K119" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,26 +4937,21 @@
         <v>36.7504</v>
       </c>
       <c r="G120" t="n">
+        <v>15178.66666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>15428</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>15180</v>
-      </c>
-      <c r="K120" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4657,26 +4975,21 @@
         <v>25.7584</v>
       </c>
       <c r="G121" t="n">
+        <v>15179.33333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>15422.16666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>15170</v>
-      </c>
-      <c r="K121" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,26 +5013,21 @@
         <v>30.8398</v>
       </c>
       <c r="G122" t="n">
+        <v>15178</v>
+      </c>
+      <c r="H122" t="n">
         <v>15415.33333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>15200</v>
-      </c>
-      <c r="K122" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,26 +5051,21 @@
         <v>0.04</v>
       </c>
       <c r="G123" t="n">
+        <v>15182</v>
+      </c>
+      <c r="H123" t="n">
         <v>15409.66666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>15140</v>
-      </c>
-      <c r="K123" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,26 +5089,21 @@
         <v>60.6967</v>
       </c>
       <c r="G124" t="n">
+        <v>15174</v>
+      </c>
+      <c r="H124" t="n">
         <v>15401.5</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>15210</v>
-      </c>
-      <c r="K124" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4829,26 +5127,21 @@
         <v>20.3833</v>
       </c>
       <c r="G125" t="n">
+        <v>15166</v>
+      </c>
+      <c r="H125" t="n">
         <v>15391.33333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>15120</v>
-      </c>
-      <c r="K125" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4872,26 +5165,21 @@
         <v>7.3311</v>
       </c>
       <c r="G126" t="n">
+        <v>15165.33333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>15382</v>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>15120</v>
-      </c>
-      <c r="K126" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,26 +5203,21 @@
         <v>112.7938</v>
       </c>
       <c r="G127" t="n">
+        <v>15158</v>
+      </c>
+      <c r="H127" t="n">
         <v>15369.5</v>
       </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>15170</v>
-      </c>
-      <c r="K127" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,24 +5241,21 @@
         <v>167.1528</v>
       </c>
       <c r="G128" t="n">
+        <v>15150.66666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>15356.33333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,26 +5279,21 @@
         <v>0.074</v>
       </c>
       <c r="G129" t="n">
+        <v>15151.33333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>15343.33333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>15070</v>
-      </c>
-      <c r="K129" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,24 +5317,21 @@
         <v>118.5111</v>
       </c>
       <c r="G130" t="n">
+        <v>15143.33333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>15328.66666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5083,26 +5355,21 @@
         <v>50.3872</v>
       </c>
       <c r="G131" t="n">
+        <v>15138.66666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>15314</v>
       </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>15070</v>
-      </c>
-      <c r="K131" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,26 +5393,21 @@
         <v>955.7609</v>
       </c>
       <c r="G132" t="n">
+        <v>15130.66666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>15298.66666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>15080</v>
-      </c>
-      <c r="K132" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5169,24 +5431,21 @@
         <v>126.2666</v>
       </c>
       <c r="G133" t="n">
+        <v>15122.66666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>15285</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,24 +5469,21 @@
         <v>176.6322</v>
       </c>
       <c r="G134" t="n">
+        <v>15111.33333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>15271</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5251,24 +5507,21 @@
         <v>367.7026</v>
       </c>
       <c r="G135" t="n">
+        <v>15098</v>
+      </c>
+      <c r="H135" t="n">
         <v>15256.5</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5292,24 +5545,21 @@
         <v>0.5</v>
       </c>
       <c r="G136" t="n">
+        <v>15082</v>
+      </c>
+      <c r="H136" t="n">
         <v>15243</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5333,24 +5583,21 @@
         <v>124.1574</v>
       </c>
       <c r="G137" t="n">
+        <v>15073.33333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>15230.33333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,24 +5621,21 @@
         <v>96.739</v>
       </c>
       <c r="G138" t="n">
+        <v>15061.33333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>15219.33333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,24 +5659,21 @@
         <v>48.6</v>
       </c>
       <c r="G139" t="n">
+        <v>15055.33333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>15208.83333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,24 +5697,21 @@
         <v>10.1199</v>
       </c>
       <c r="G140" t="n">
+        <v>15050</v>
+      </c>
+      <c r="H140" t="n">
         <v>15199</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,24 +5735,21 @@
         <v>2.3046</v>
       </c>
       <c r="G141" t="n">
+        <v>15045.33333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>15192.5</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5538,24 +5773,21 @@
         <v>1.33</v>
       </c>
       <c r="G142" t="n">
+        <v>15046.66666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>15186.5</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5579,24 +5811,21 @@
         <v>114.8823</v>
       </c>
       <c r="G143" t="n">
+        <v>15042.66666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>15179.66666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,24 +5849,21 @@
         <v>1640.5069</v>
       </c>
       <c r="G144" t="n">
+        <v>15039.33333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>15174.5</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5661,24 +5887,21 @@
         <v>1.13</v>
       </c>
       <c r="G145" t="n">
+        <v>15042</v>
+      </c>
+      <c r="H145" t="n">
         <v>15169.66666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5702,24 +5925,21 @@
         <v>4.48</v>
       </c>
       <c r="G146" t="n">
+        <v>15044</v>
+      </c>
+      <c r="H146" t="n">
         <v>15165</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,24 +5963,21 @@
         <v>1.88</v>
       </c>
       <c r="G147" t="n">
+        <v>15049.33333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>15159.66666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,24 +6001,21 @@
         <v>1.89</v>
       </c>
       <c r="G148" t="n">
+        <v>15054.66666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>15155</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5825,24 +6039,21 @@
         <v>0.6205000000000001</v>
       </c>
       <c r="G149" t="n">
+        <v>15066.66666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>15152.33333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5866,24 +6077,21 @@
         <v>38.2066</v>
       </c>
       <c r="G150" t="n">
+        <v>15078</v>
+      </c>
+      <c r="H150" t="n">
         <v>15149.83333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,24 +6115,21 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
+        <v>15090</v>
+      </c>
+      <c r="H151" t="n">
         <v>15147.83333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,24 +6153,21 @@
         <v>50.7</v>
       </c>
       <c r="G152" t="n">
+        <v>15099.33333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>15147</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5989,24 +6191,21 @@
         <v>9.871499999999999</v>
       </c>
       <c r="G153" t="n">
+        <v>15108</v>
+      </c>
+      <c r="H153" t="n">
         <v>15146.16666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6030,24 +6229,27 @@
         <v>17.8311</v>
       </c>
       <c r="G154" t="n">
+        <v>15113.33333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>15144.66666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+        <v>15160</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6071,24 +6273,27 @@
         <v>0.034</v>
       </c>
       <c r="G155" t="n">
+        <v>15118.66666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>15141.83333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>15110</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6112,24 +6317,25 @@
         <v>0.103</v>
       </c>
       <c r="G156" t="n">
+        <v>15127.33333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>15142.33333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,24 +6359,25 @@
         <v>127.1783</v>
       </c>
       <c r="G157" t="n">
+        <v>15135.33333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>15143</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6194,24 +6401,27 @@
         <v>43.6559</v>
       </c>
       <c r="G158" t="n">
+        <v>15150</v>
+      </c>
+      <c r="H158" t="n">
         <v>15142.33333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L158" t="inlineStr">
+        <v>15230</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6235,24 +6445,25 @@
         <v>2.1784</v>
       </c>
       <c r="G159" t="n">
+        <v>15158</v>
+      </c>
+      <c r="H159" t="n">
         <v>15141.16666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,24 +6487,25 @@
         <v>0.066</v>
       </c>
       <c r="G160" t="n">
+        <v>15166</v>
+      </c>
+      <c r="H160" t="n">
         <v>15140.16666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6317,24 +6529,25 @@
         <v>32.1621</v>
       </c>
       <c r="G161" t="n">
+        <v>15175.33333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>15140.16666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6358,24 +6571,25 @@
         <v>76.19540000000001</v>
       </c>
       <c r="G162" t="n">
+        <v>15185.33333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>15140.16666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,24 +6613,25 @@
         <v>106.7735</v>
       </c>
       <c r="G163" t="n">
+        <v>15196.66666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>15140.66666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6440,24 +6655,25 @@
         <v>10.8574</v>
       </c>
       <c r="G164" t="n">
+        <v>15202.66666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>15141.16666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6481,24 +6697,25 @@
         <v>100</v>
       </c>
       <c r="G165" t="n">
+        <v>15210.66666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>15141.33333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6522,24 +6739,27 @@
         <v>76.19540000000001</v>
       </c>
       <c r="G166" t="n">
+        <v>15214.66666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>15141.5</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>15260</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6563,24 +6783,27 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
+        <v>15217.33333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>15142</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>15200</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,24 +6827,27 @@
         <v>0.066</v>
       </c>
       <c r="G168" t="n">
+        <v>15224</v>
+      </c>
+      <c r="H168" t="n">
         <v>15143.83333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>15190</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6645,24 +6871,27 @@
         <v>12.0937</v>
       </c>
       <c r="G169" t="n">
+        <v>15234</v>
+      </c>
+      <c r="H169" t="n">
         <v>15144.16666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>15260</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6686,24 +6915,27 @@
         <v>0.066</v>
       </c>
       <c r="G170" t="n">
+        <v>15244</v>
+      </c>
+      <c r="H170" t="n">
         <v>15144.66666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>15260</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6727,24 +6959,27 @@
         <v>424.9004889913083</v>
       </c>
       <c r="G171" t="n">
+        <v>15250.66666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>15147.16666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>15270</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,24 +7003,25 @@
         <v>0.066</v>
       </c>
       <c r="G172" t="n">
+        <v>15256</v>
+      </c>
+      <c r="H172" t="n">
         <v>15149</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6809,24 +7045,25 @@
         <v>114.3394</v>
       </c>
       <c r="G173" t="n">
+        <v>15261.33333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>15151.16666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6850,24 +7087,25 @@
         <v>0.066</v>
       </c>
       <c r="G174" t="n">
+        <v>15270.66666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>15154.83333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6891,24 +7129,25 @@
         <v>19.4946</v>
       </c>
       <c r="G175" t="n">
+        <v>15280</v>
+      </c>
+      <c r="H175" t="n">
         <v>15157.83333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6932,24 +7171,25 @@
         <v>0.066</v>
       </c>
       <c r="G176" t="n">
+        <v>15292</v>
+      </c>
+      <c r="H176" t="n">
         <v>15162.5</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6973,24 +7213,25 @@
         <v>0.066</v>
       </c>
       <c r="G177" t="n">
+        <v>15308.66666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>15168.5</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,24 +7255,25 @@
         <v>0.132</v>
       </c>
       <c r="G178" t="n">
+        <v>15320.66666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>15173.66666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7055,24 +7297,25 @@
         <v>85.08410000000001</v>
       </c>
       <c r="G179" t="n">
+        <v>15325.33333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>15176.5</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7096,24 +7339,25 @@
         <v>460.1205</v>
       </c>
       <c r="G180" t="n">
+        <v>15330.66666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>15179.33333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7137,24 +7381,25 @@
         <v>45.5</v>
       </c>
       <c r="G181" t="n">
+        <v>15336</v>
+      </c>
+      <c r="H181" t="n">
         <v>15180.66666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,24 +7423,25 @@
         <v>12.0937</v>
       </c>
       <c r="G182" t="n">
+        <v>15336.66666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>15181.66666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,24 +7465,25 @@
         <v>12.3927</v>
       </c>
       <c r="G183" t="n">
+        <v>15332</v>
+      </c>
+      <c r="H183" t="n">
         <v>15181.33333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7260,24 +7507,25 @@
         <v>0.033</v>
       </c>
       <c r="G184" t="n">
+        <v>15329.33333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>15183</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7301,24 +7549,27 @@
         <v>0.033</v>
       </c>
       <c r="G185" t="n">
+        <v>15329.33333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>15185.5</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>15220</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,24 +7593,27 @@
         <v>61.5483</v>
       </c>
       <c r="G186" t="n">
+        <v>15322.66666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>15186.5</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>15270</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7383,24 +7637,27 @@
         <v>20.2214</v>
       </c>
       <c r="G187" t="n">
+        <v>15316.66666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>15188.66666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L187" t="inlineStr">
+        <v>15230</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7424,24 +7681,27 @@
         <v>0.066</v>
       </c>
       <c r="G188" t="n">
+        <v>15316.66666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>15192.66666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>15220</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7465,24 +7725,27 @@
         <v>0.066</v>
       </c>
       <c r="G189" t="n">
+        <v>15312</v>
+      </c>
+      <c r="H189" t="n">
         <v>15195</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L189" t="inlineStr">
+        <v>15310</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7506,24 +7769,27 @@
         <v>0.066</v>
       </c>
       <c r="G190" t="n">
+        <v>15308.66666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>15199.16666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>15300</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7547,24 +7813,27 @@
         <v>3</v>
       </c>
       <c r="G191" t="n">
+        <v>15295.33333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>15201.66666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>15320</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,24 +7857,25 @@
         <v>0.066</v>
       </c>
       <c r="G192" t="n">
+        <v>15282.66666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>15206.5</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7629,24 +7899,25 @@
         <v>0.1525</v>
       </c>
       <c r="G193" t="n">
+        <v>15272.66666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>15211.16666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7670,24 +7941,25 @@
         <v>9.6068</v>
       </c>
       <c r="G194" t="n">
+        <v>15270</v>
+      </c>
+      <c r="H194" t="n">
         <v>15216.16666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,24 +7983,25 @@
         <v>31.0068</v>
       </c>
       <c r="G195" t="n">
+        <v>15268.66666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>15222</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7752,24 +8025,25 @@
         <v>23.3087</v>
       </c>
       <c r="G196" t="n">
+        <v>15270.66666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>15227.83333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7793,24 +8067,25 @@
         <v>0.066</v>
       </c>
       <c r="G197" t="n">
+        <v>15279.33333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>15233.16666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,24 +8109,27 @@
         <v>2.0006</v>
       </c>
       <c r="G198" t="n">
+        <v>15288</v>
+      </c>
+      <c r="H198" t="n">
         <v>15238</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L198" t="inlineStr">
+        <v>15330</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7875,24 +8153,27 @@
         <v>4</v>
       </c>
       <c r="G199" t="n">
+        <v>15291.33333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>15242</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>15320</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7916,24 +8197,27 @@
         <v>0.033</v>
       </c>
       <c r="G200" t="n">
+        <v>15290</v>
+      </c>
+      <c r="H200" t="n">
         <v>15245.5</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>15270</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7957,24 +8241,27 @@
         <v>0.0658</v>
       </c>
       <c r="G201" t="n">
+        <v>15296</v>
+      </c>
+      <c r="H201" t="n">
         <v>15249.16666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>15250</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7998,24 +8285,27 @@
         <v>6.8579</v>
       </c>
       <c r="G202" t="n">
+        <v>15303.33333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>15252.83333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>15320</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8039,24 +8329,27 @@
         <v>52.9106</v>
       </c>
       <c r="G203" t="n">
+        <v>15300</v>
+      </c>
+      <c r="H203" t="n">
         <v>15257</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>15330</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8080,24 +8373,27 @@
         <v>3.3323</v>
       </c>
       <c r="G204" t="n">
+        <v>15302</v>
+      </c>
+      <c r="H204" t="n">
         <v>15260.66666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>15260</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8121,24 +8417,27 @@
         <v>141.2944</v>
       </c>
       <c r="G205" t="n">
+        <v>15295.33333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>15262.5</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>15330</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8162,24 +8461,25 @@
         <v>0.066</v>
       </c>
       <c r="G206" t="n">
+        <v>15300.66666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>15265.83333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8203,24 +8503,25 @@
         <v>0.9615</v>
       </c>
       <c r="G207" t="n">
+        <v>15300.66666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>15269.33333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8244,24 +8545,25 @@
         <v>20</v>
       </c>
       <c r="G208" t="n">
+        <v>15296.66666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>15271.66666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8285,24 +8587,25 @@
         <v>626.4549</v>
       </c>
       <c r="G209" t="n">
+        <v>15288</v>
+      </c>
+      <c r="H209" t="n">
         <v>15271.5</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8326,24 +8629,25 @@
         <v>0.89</v>
       </c>
       <c r="G210" t="n">
+        <v>15280</v>
+      </c>
+      <c r="H210" t="n">
         <v>15272.5</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8367,24 +8671,25 @@
         <v>91.62</v>
       </c>
       <c r="G211" t="n">
+        <v>15272</v>
+      </c>
+      <c r="H211" t="n">
         <v>15273.33333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8408,24 +8713,25 @@
         <v>9.367900000000001</v>
       </c>
       <c r="G212" t="n">
+        <v>15258.66666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>15273</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8449,24 +8755,25 @@
         <v>30.744</v>
       </c>
       <c r="G213" t="n">
+        <v>15244</v>
+      </c>
+      <c r="H213" t="n">
         <v>15272</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8490,24 +8797,25 @@
         <v>15.1855</v>
       </c>
       <c r="G214" t="n">
+        <v>15234.66666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>15272.33333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8531,24 +8839,25 @@
         <v>30.6481</v>
       </c>
       <c r="G215" t="n">
+        <v>15226.66666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>15272.5</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8572,24 +8881,25 @@
         <v>10</v>
       </c>
       <c r="G216" t="n">
+        <v>15209.33333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>15269.66666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8613,24 +8923,25 @@
         <v>408.3205</v>
       </c>
       <c r="G217" t="n">
+        <v>15187.33333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>15265.83333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8654,24 +8965,25 @@
         <v>100</v>
       </c>
       <c r="G218" t="n">
+        <v>15170.66666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>15262.16666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8695,24 +9007,25 @@
         <v>50.7385</v>
       </c>
       <c r="G219" t="n">
+        <v>15147.33333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>15258</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8736,26 +9049,27 @@
         <v>1350.04</v>
       </c>
       <c r="G220" t="n">
+        <v>15135.33333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>15254.83333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
         <v>14980</v>
       </c>
-      <c r="K220" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8779,24 +9093,25 @@
         <v>67.9367</v>
       </c>
       <c r="G221" t="n">
+        <v>15118</v>
+      </c>
+      <c r="H221" t="n">
         <v>15251.5</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8820,24 +9135,25 @@
         <v>19.8574</v>
       </c>
       <c r="G222" t="n">
+        <v>15101.33333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>15248.33333333333</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8861,24 +9177,25 @@
         <v>114.9569</v>
       </c>
       <c r="G223" t="n">
+        <v>15092.66666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>15245.66666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8902,24 +9219,25 @@
         <v>19.672</v>
       </c>
       <c r="G224" t="n">
+        <v>15088.66666666667</v>
+      </c>
+      <c r="H224" t="n">
         <v>15243</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8943,24 +9261,25 @@
         <v>64.3</v>
       </c>
       <c r="G225" t="n">
+        <v>15088</v>
+      </c>
+      <c r="H225" t="n">
         <v>15241.83333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8984,24 +9303,25 @@
         <v>2.0006</v>
       </c>
       <c r="G226" t="n">
+        <v>15093.33333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>15243</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9025,24 +9345,25 @@
         <v>69.4435</v>
       </c>
       <c r="G227" t="n">
+        <v>15098</v>
+      </c>
+      <c r="H227" t="n">
         <v>15243.16666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9066,24 +9387,25 @@
         <v>0.067</v>
       </c>
       <c r="G228" t="n">
+        <v>15110</v>
+      </c>
+      <c r="H228" t="n">
         <v>15243.5</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9107,24 +9429,25 @@
         <v>1.2925</v>
       </c>
       <c r="G229" t="n">
+        <v>15120</v>
+      </c>
+      <c r="H229" t="n">
         <v>15243.83333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9148,24 +9471,25 @@
         <v>150.1129</v>
       </c>
       <c r="G230" t="n">
+        <v>15134</v>
+      </c>
+      <c r="H230" t="n">
         <v>15245</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9189,24 +9513,25 @@
         <v>979.7578</v>
       </c>
       <c r="G231" t="n">
+        <v>15153.33333333333</v>
+      </c>
+      <c r="H231" t="n">
         <v>15245.33333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9230,24 +9555,25 @@
         <v>52</v>
       </c>
       <c r="G232" t="n">
+        <v>15172.66666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>15245</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,24 +9597,25 @@
         <v>75</v>
       </c>
       <c r="G233" t="n">
+        <v>15193.33333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>15245.16666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9312,24 +9639,25 @@
         <v>2.4828</v>
       </c>
       <c r="G234" t="n">
+        <v>15223.33333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>15246.16666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9353,24 +9681,25 @@
         <v>54.7906</v>
       </c>
       <c r="G235" t="n">
+        <v>15243.33333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>15245.66666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9394,24 +9723,25 @@
         <v>28.6393</v>
       </c>
       <c r="G236" t="n">
+        <v>15260.66666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>15243.66666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9435,25 +9765,26 @@
         <v>0.034</v>
       </c>
       <c r="G237" t="n">
+        <v>15277.33333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>15240.5</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>15150</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1.006221122112211</v>
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -9476,18 +9807,25 @@
         <v>0.033</v>
       </c>
       <c r="G238" t="n">
+        <v>15294.66666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>15239.16666666667</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9511,18 +9849,25 @@
         <v>0.066</v>
       </c>
       <c r="G239" t="n">
+        <v>15314.66666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>15240.33333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9546,18 +9891,25 @@
         <v>130.9581</v>
       </c>
       <c r="G240" t="n">
+        <v>15334.66666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>15242.83333333333</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9581,18 +9933,25 @@
         <v>11.9229</v>
       </c>
       <c r="G241" t="n">
+        <v>15346</v>
+      </c>
+      <c r="H241" t="n">
         <v>15245.5</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9616,18 +9975,25 @@
         <v>101.2516</v>
       </c>
       <c r="G242" t="n">
+        <v>15362</v>
+      </c>
+      <c r="H242" t="n">
         <v>15249.5</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9651,18 +10017,25 @@
         <v>76.2137</v>
       </c>
       <c r="G243" t="n">
+        <v>15364.66666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>15251.66666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9686,18 +10059,25 @@
         <v>107.1534560880829</v>
       </c>
       <c r="G244" t="n">
+        <v>15375.33333333333</v>
+      </c>
+      <c r="H244" t="n">
         <v>15255.33333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9721,18 +10101,25 @@
         <v>97.38290000000001</v>
       </c>
       <c r="G245" t="n">
+        <v>15375.33333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>15256.5</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9756,18 +10143,25 @@
         <v>265.2656</v>
       </c>
       <c r="G246" t="n">
+        <v>15380.66666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>15259.83333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9791,18 +10185,445 @@
         <v>36.5313</v>
       </c>
       <c r="G247" t="n">
+        <v>15390</v>
+      </c>
+      <c r="H247" t="n">
         <v>15263.33333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C248" t="n">
+        <v>15500</v>
+      </c>
+      <c r="D248" t="n">
+        <v>15500</v>
+      </c>
+      <c r="E248" t="n">
+        <v>15420</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="G248" t="n">
+        <v>15402</v>
+      </c>
+      <c r="H248" t="n">
+        <v>15266.5</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>15400</v>
+      </c>
+      <c r="C249" t="n">
+        <v>15400</v>
+      </c>
+      <c r="D249" t="n">
+        <v>15400</v>
+      </c>
+      <c r="E249" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>15400</v>
+      </c>
+      <c r="H249" t="n">
+        <v>15268.16666666667</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>15400</v>
+      </c>
+      <c r="C250" t="n">
+        <v>15490</v>
+      </c>
+      <c r="D250" t="n">
+        <v>15490</v>
+      </c>
+      <c r="E250" t="n">
+        <v>15400</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2.0655</v>
+      </c>
+      <c r="G250" t="n">
+        <v>15410</v>
+      </c>
+      <c r="H250" t="n">
+        <v>15271</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C251" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D251" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E251" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3.3856</v>
+      </c>
+      <c r="G251" t="n">
+        <v>15418</v>
+      </c>
+      <c r="H251" t="n">
+        <v>15274.33333333333</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C252" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D252" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E252" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4.483</v>
+      </c>
+      <c r="G252" t="n">
+        <v>15425.33333333333</v>
+      </c>
+      <c r="H252" t="n">
+        <v>15276.16666666667</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C253" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D253" t="n">
+        <v>15480</v>
+      </c>
+      <c r="E253" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1.0655</v>
+      </c>
+      <c r="G253" t="n">
+        <v>15428.66666666667</v>
+      </c>
+      <c r="H253" t="n">
+        <v>15278.16666666667</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>15430</v>
+      </c>
+      <c r="C254" t="n">
+        <v>15430</v>
+      </c>
+      <c r="D254" t="n">
+        <v>15430</v>
+      </c>
+      <c r="E254" t="n">
+        <v>15430</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" t="n">
+        <v>15429.33333333333</v>
+      </c>
+      <c r="H254" t="n">
+        <v>15280.16666666667</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>15490</v>
+      </c>
+      <c r="C255" t="n">
+        <v>15500</v>
+      </c>
+      <c r="D255" t="n">
+        <v>15500</v>
+      </c>
+      <c r="E255" t="n">
+        <v>15490</v>
+      </c>
+      <c r="F255" t="n">
+        <v>207.3394</v>
+      </c>
+      <c r="G255" t="n">
+        <v>15430</v>
+      </c>
+      <c r="H255" t="n">
+        <v>15283.16666666667</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>15450</v>
+      </c>
+      <c r="C256" t="n">
+        <v>15470</v>
+      </c>
+      <c r="D256" t="n">
+        <v>15500</v>
+      </c>
+      <c r="E256" t="n">
+        <v>15450</v>
+      </c>
+      <c r="F256" t="n">
+        <v>110.3428</v>
+      </c>
+      <c r="G256" t="n">
+        <v>15432</v>
+      </c>
+      <c r="H256" t="n">
+        <v>15285.83333333333</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>15470</v>
+      </c>
+      <c r="C257" t="n">
+        <v>15460</v>
+      </c>
+      <c r="D257" t="n">
+        <v>15480</v>
+      </c>
+      <c r="E257" t="n">
+        <v>15460</v>
+      </c>
+      <c r="F257" t="n">
+        <v>85.7088</v>
+      </c>
+      <c r="G257" t="n">
+        <v>15433.33333333333</v>
+      </c>
+      <c r="H257" t="n">
+        <v>15288</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest REP.xlsx
+++ b/BackTest/2020-01-25 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N315"/>
+  <dimension ref="A1:M315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-653.5099159974507</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-597.3952159974507</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-748.342831565561</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-364.6512201613073</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-149.6157201613073</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-149.6157201613073</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-149.6157201613073</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-149.6157201613073</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-194.0605201613072</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-106.8656201613072</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>202.9919798386928</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>2758.599967643413</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>3020.322167643413</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>3020.322167643413</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>3020.322167643413</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>3183.580530336434</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>3042.972930336434</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>3151.656430336434</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>3097.064230336434</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>3766.156130336434</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>3919.486830336434</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>4072.144630336434</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>4114.968530336434</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>3938.187130336434</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>3245.624930336434</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>3467.751830336435</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>3357.360930336435</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>3357.360930336435</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>3426.367630336435</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>3427.081330336435</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>3425.169130336435</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>3425.221030336435</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>3395.119930336435</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>3395.185230336435</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>3462.912030336435</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>3462.956630336435</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>3219.455530336435</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>3243.739830336435</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>3196.685930336435</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>2615.200630336435</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>2615.200630336435</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>2615.200630336435</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,15 @@
         <v>2615.200630336435</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4411,15 @@
         <v>2655.200630336435</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>2658.089530336435</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>2660.957730336435</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>2661.029730336435</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>2696.202830336435</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>2710.134630336435</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4675,15 @@
         <v>2693.767330336435</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,18 +5599,15 @@
         <v>-2242.059154077448</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7512,18 +6919,19 @@
         <v>-4659.680754077449</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>15030</v>
+      </c>
+      <c r="J198" t="n">
+        <v>15030</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7548,22 +6956,23 @@
         <v>-4657.376154077449</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>15040</v>
       </c>
       <c r="J199" t="n">
-        <v>15040</v>
-      </c>
-      <c r="K199" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>15030</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7588,26 +6997,23 @@
         <v>-4656.046154077449</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="J200" t="n">
-        <v>15100</v>
-      </c>
-      <c r="K200" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7632,26 +7038,23 @@
         <v>-4770.928454077449</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>15110</v>
       </c>
       <c r="J201" t="n">
-        <v>15110</v>
-      </c>
-      <c r="K201" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7676,26 +7079,23 @@
         <v>-3130.421554077448</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>15010</v>
       </c>
       <c r="J202" t="n">
-        <v>15010</v>
-      </c>
-      <c r="K202" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7722,22 +7122,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7764,22 +7161,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7806,22 +7200,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7848,22 +7239,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7890,22 +7278,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7930,26 +7315,21 @@
         <v>-3168.007654077448</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>15190</v>
-      </c>
-      <c r="K208" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7976,22 +7356,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8016,24 +7393,23 @@
         <v>-3117.307654077449</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>15140</v>
+      </c>
+      <c r="J210" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8058,24 +7434,23 @@
         <v>-3107.436154077448</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L211" t="inlineStr">
+        <v>15150</v>
+      </c>
+      <c r="J211" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8100,26 +7475,23 @@
         <v>-3125.267254077448</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>15160</v>
       </c>
       <c r="J212" t="n">
-        <v>15160</v>
-      </c>
-      <c r="K212" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8144,24 +7516,23 @@
         <v>-3125.233254077448</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L213" t="inlineStr">
+        <v>15110</v>
+      </c>
+      <c r="J213" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8186,26 +7557,21 @@
         <v>-3125.130254077448</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>15120</v>
-      </c>
-      <c r="K214" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L214" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8230,26 +7596,21 @@
         <v>-3125.130254077448</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K215" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L215" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8274,26 +7635,21 @@
         <v>-3125.130254077448</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K216" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L216" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8320,22 +7676,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8360,26 +7713,21 @@
         <v>-3125.130254077448</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K218" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L218" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8406,22 +7754,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8448,22 +7793,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8490,22 +7832,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8532,22 +7871,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8574,22 +7910,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8614,26 +7947,21 @@
         <v>-3086.194654077448</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K224" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L224" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8658,26 +7986,21 @@
         <v>-3087.194654077448</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>15200</v>
-      </c>
-      <c r="K225" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L225" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8702,26 +8025,21 @@
         <v>-3087.128654077449</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>15190</v>
-      </c>
-      <c r="K226" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L226" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8748,22 +8066,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8788,26 +8103,21 @@
         <v>-3087.062654077449</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K228" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L228" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8832,26 +8142,21 @@
         <v>-2662.162165086141</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>15270</v>
-      </c>
-      <c r="K229" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L229" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8878,22 +8183,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8920,22 +8222,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8962,22 +8261,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9004,22 +8300,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9046,22 +8339,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9088,22 +8378,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9130,22 +8417,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9170,24 +8454,23 @@
         <v>-2747.246265086141</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L237" t="inlineStr">
+        <v>15460</v>
+      </c>
+      <c r="J237" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9214,22 +8497,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9256,22 +8536,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9298,22 +8575,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9340,22 +8614,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9382,22 +8653,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9424,22 +8692,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9464,26 +8729,21 @@
         <v>-3338.835465086141</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>15270</v>
-      </c>
-      <c r="K244" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L244" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9508,26 +8768,21 @@
         <v>-3359.056865086141</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>15230</v>
-      </c>
-      <c r="K245" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L245" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9552,26 +8807,23 @@
         <v>-3358.990865086141</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>15220</v>
       </c>
       <c r="J246" t="n">
-        <v>15220</v>
-      </c>
-      <c r="K246" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L246" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9596,26 +8848,23 @@
         <v>-3359.056865086141</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>15310</v>
       </c>
       <c r="J247" t="n">
-        <v>15310</v>
-      </c>
-      <c r="K247" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L247" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9640,26 +8889,23 @@
         <v>-3358.990865086141</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="J248" t="n">
-        <v>15300</v>
-      </c>
-      <c r="K248" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L248" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9684,26 +8930,23 @@
         <v>-3361.990865086141</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>15320</v>
       </c>
       <c r="J249" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K249" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L249" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9728,24 +8971,23 @@
         <v>-3361.924865086141</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L250" t="inlineStr">
+        <v>15230</v>
+      </c>
+      <c r="J250" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9772,22 +9014,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9814,22 +9053,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9856,22 +9092,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9898,22 +9131,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9940,22 +9170,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9982,22 +9209,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10022,26 +9246,21 @@
         <v>-3360.313865086142</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K257" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L257" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10066,26 +9285,21 @@
         <v>-3360.346865086141</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>15270</v>
-      </c>
-      <c r="K258" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L258" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10110,26 +9324,21 @@
         <v>-3360.281065086142</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>15250</v>
-      </c>
-      <c r="K259" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L259" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10154,26 +9363,21 @@
         <v>-3353.423165086142</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>15320</v>
-      </c>
-      <c r="K260" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L260" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10198,26 +9402,21 @@
         <v>-3406.333765086142</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>15330</v>
-      </c>
-      <c r="K261" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L261" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10242,26 +9441,21 @@
         <v>-3403.001465086142</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>15260</v>
-      </c>
-      <c r="K262" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L262" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10286,26 +9480,21 @@
         <v>-3544.295865086142</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>15330</v>
-      </c>
-      <c r="K263" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L263" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10332,22 +9521,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10374,22 +9560,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10416,22 +9599,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10458,22 +9638,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10500,22 +9677,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10540,24 +9714,23 @@
         <v>-4280.453265086142</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L269" t="inlineStr">
+        <v>15200</v>
+      </c>
+      <c r="J269" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10582,24 +9755,23 @@
         <v>-4289.821165086142</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L270" t="inlineStr">
+        <v>15190</v>
+      </c>
+      <c r="J270" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10624,26 +9796,23 @@
         <v>-4320.565165086142</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>15130</v>
       </c>
       <c r="J271" t="n">
-        <v>15130</v>
-      </c>
-      <c r="K271" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L271" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10668,26 +9837,23 @@
         <v>-4305.379665086142</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="J272" t="n">
-        <v>15100</v>
-      </c>
-      <c r="K272" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L272" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10712,26 +9878,23 @@
         <v>-4305.379665086142</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>15130</v>
       </c>
       <c r="J273" t="n">
-        <v>15130</v>
-      </c>
-      <c r="K273" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L273" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10756,26 +9919,23 @@
         <v>-4315.379665086142</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>15130</v>
       </c>
       <c r="J274" t="n">
-        <v>15130</v>
-      </c>
-      <c r="K274" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L274" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10800,26 +9960,23 @@
         <v>-4723.700165086142</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>15060</v>
       </c>
       <c r="J275" t="n">
-        <v>15060</v>
-      </c>
-      <c r="K275" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L275" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10844,26 +10001,23 @@
         <v>-4623.700165086142</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J276" t="n">
-        <v>15000</v>
-      </c>
-      <c r="K276" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L276" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10888,26 +10042,23 @@
         <v>-4674.438665086142</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>15010</v>
       </c>
       <c r="J277" t="n">
-        <v>15010</v>
-      </c>
-      <c r="K277" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L277" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10932,26 +10083,23 @@
         <v>-3324.398665086143</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>14980</v>
       </c>
       <c r="J278" t="n">
-        <v>14980</v>
-      </c>
-      <c r="K278" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L278" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10978,22 +10126,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11020,22 +10165,19 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L280" t="inlineStr">
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11060,26 +10202,21 @@
         <v>-3121.647665086142</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>15070</v>
-      </c>
-      <c r="K281" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L281" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11104,26 +10241,21 @@
         <v>-3121.647665086142</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>15120</v>
-      </c>
-      <c r="K282" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L282" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11148,26 +10280,21 @@
         <v>-3057.347665086142</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>15120</v>
-      </c>
-      <c r="K283" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L283" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11192,26 +10319,21 @@
         <v>-3055.347065086142</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>15190</v>
-      </c>
-      <c r="K284" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L284" t="inlineStr">
+        <v>15030</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11238,22 +10360,19 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11280,22 +10399,19 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L286" t="inlineStr">
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11320,24 +10436,23 @@
         <v>-3124.723565086142</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L287" t="inlineStr">
+        <v>15280</v>
+      </c>
+      <c r="J287" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11364,22 +10479,19 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11404,24 +10516,23 @@
         <v>-1994.852865086142</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L289" t="inlineStr">
+        <v>15340</v>
+      </c>
+      <c r="J289" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11448,22 +10559,19 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L290" t="inlineStr">
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11490,22 +10598,19 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L291" t="inlineStr">
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11532,22 +10637,19 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L292" t="inlineStr">
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11574,22 +10676,19 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11616,22 +10715,19 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L294" t="inlineStr">
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11658,22 +10754,19 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L295" t="inlineStr">
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11700,22 +10793,19 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L296" t="inlineStr">
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11740,24 +10830,23 @@
         <v>-2052.666965086142</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L297" t="inlineStr">
+        <v>15380</v>
+      </c>
+      <c r="J297" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11784,22 +10873,19 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L298" t="inlineStr">
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11826,22 +10912,19 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L299" t="inlineStr">
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11868,22 +10951,19 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L300" t="inlineStr">
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11910,22 +10990,19 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L301" t="inlineStr">
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11952,22 +11029,19 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L302" t="inlineStr">
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11994,22 +11068,19 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L303" t="inlineStr">
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12036,22 +11107,19 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L304" t="inlineStr">
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12078,22 +11146,19 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L305" t="inlineStr">
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12120,22 +11185,19 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L306" t="inlineStr">
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12162,22 +11224,19 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L307" t="inlineStr">
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12204,22 +11263,19 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L308" t="inlineStr">
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12246,22 +11302,19 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L309" t="inlineStr">
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12288,22 +11341,19 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L310" t="inlineStr">
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12330,22 +11380,19 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12372,22 +11419,19 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12414,22 +11458,19 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L313" t="inlineStr">
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12456,22 +11497,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L314" t="inlineStr">
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12498,24 +11536,21 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>15040</v>
-      </c>
-      <c r="L315" t="inlineStr">
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>15030</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest REP.xlsx
+++ b/BackTest/2020-01-25 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
         <v>-653.5099159974507</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-597.3952159974507</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-748.342831565561</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-364.6512201613073</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-149.6157201613073</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-149.6157201613073</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-149.6157201613073</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-149.6157201613073</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-194.0605201613072</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-106.8656201613072</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>202.9919798386928</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2758.599967643413</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>3020.322167643413</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3020.322167643413</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>3020.322167643413</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3183.580530336434</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>3042.972930336434</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>3151.656430336434</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3097.064230336434</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3766.156130336434</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3919.486830336434</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4072.144630336434</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4114.968530336434</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3938.187130336434</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3697.110730336434</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3245.624930336434</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3050.004030336434</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3050.051230336434</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>2931.044330336435</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>2802.751230336435</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2868.781730336435</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>2584.863330336435</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>2802.008830336435</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3480.530130336434</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3467.751830336435</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3357.360930336435</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3357.360930336435</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3430.009630336435</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3426.367630336435</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3288.388730336435</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3335.982830336435</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3320.687130336435</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3237.561430336435</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3237.561430336435</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3427.081330336435</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3425.169130336435</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3425.221030336435</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3395.119930336435</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>3395.185230336435</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>3462.912030336435</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>3462.956630336435</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>3219.455530336435</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>3243.739830336435</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>3196.685930336435</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>2615.200630336435</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2615.200630336435</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>2615.200630336435</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>2615.200630336435</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2655.200630336435</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2658.089530336435</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2660.957730336435</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2661.029730336435</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2696.202830336435</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2710.134630336435</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>2693.767330336435</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2242.059154077448</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6853,11 +6853,17 @@
         <v>-4669.800654077449</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>15010</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6892,17 @@
         <v>-4669.800654077449</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>15030</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,15 +6931,17 @@
         <v>-4659.680754077449</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>15030</v>
       </c>
-      <c r="J198" t="n">
-        <v>15030</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,17 +6970,15 @@
         <v>-4657.376154077449</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>15040</v>
       </c>
-      <c r="J199" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -6997,17 +7009,15 @@
         <v>-4656.046154077449</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>15100</v>
       </c>
-      <c r="J200" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7038,17 +7048,15 @@
         <v>-4770.928454077449</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>15110</v>
       </c>
-      <c r="J201" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -7079,14 +7087,12 @@
         <v>-3130.421554077448</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>15010</v>
       </c>
-      <c r="J202" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7123,9 +7129,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7162,9 +7166,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7201,9 +7203,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7240,9 +7240,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,9 +7277,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,12 +7311,12 @@
         <v>-3168.007654077448</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>15030</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>15190</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7354,12 +7350,12 @@
         <v>-3168.007654077448</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>15030</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>15140</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7393,14 +7389,12 @@
         <v>-3117.307654077449</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>15140</v>
       </c>
-      <c r="J210" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7434,14 +7428,12 @@
         <v>-3107.436154077448</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>15150</v>
       </c>
-      <c r="J211" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,14 +7467,12 @@
         <v>-3125.267254077448</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>15160</v>
       </c>
-      <c r="J212" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7516,14 +7506,12 @@
         <v>-3125.233254077448</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>15110</v>
       </c>
-      <c r="J213" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,12 +7545,12 @@
         <v>-3125.130254077448</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>15030</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>15120</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,12 +7584,12 @@
         <v>-3125.130254077448</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>15030</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>15230</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7638,9 +7626,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7677,9 +7663,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7716,9 +7700,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7755,9 +7737,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7794,9 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7833,9 +7811,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7872,9 +7848,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7911,9 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7950,9 +7922,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7989,9 +7959,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,9 +7996,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8067,9 +8033,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8106,9 +8070,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8145,9 +8107,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8184,9 +8144,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8223,9 +8181,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,9 +8218,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8301,9 +8255,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,9 +8292,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,9 +8329,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8418,9 +8366,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,14 +8400,10 @@
         <v>-2747.246265086141</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>15460</v>
-      </c>
-      <c r="J237" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8498,9 +8440,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,9 +8477,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8576,9 +8514,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8615,9 +8551,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8654,9 +8588,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8693,9 +8625,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8732,9 +8662,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8771,9 +8699,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8807,14 +8733,10 @@
         <v>-3358.990865086141</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>15220</v>
-      </c>
-      <c r="J246" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8848,14 +8770,10 @@
         <v>-3359.056865086141</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>15310</v>
-      </c>
-      <c r="J247" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8889,14 +8807,10 @@
         <v>-3358.990865086141</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>15300</v>
-      </c>
-      <c r="J248" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8930,14 +8844,10 @@
         <v>-3361.990865086141</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J249" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,14 +8881,10 @@
         <v>-3361.924865086141</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>15230</v>
-      </c>
-      <c r="J250" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9015,9 +8921,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9054,9 +8958,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9093,9 +8995,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9132,9 +9032,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9171,9 +9069,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9210,9 +9106,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9249,9 +9143,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9288,9 +9180,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9327,9 +9217,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9366,9 +9254,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9405,9 +9291,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9444,9 +9328,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9483,9 +9365,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9522,9 +9402,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9561,9 +9439,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9600,9 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9639,9 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9678,9 +9550,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9714,14 +9584,10 @@
         <v>-4280.453265086142</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>15200</v>
-      </c>
-      <c r="J269" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9755,14 +9621,10 @@
         <v>-4289.821165086142</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>15190</v>
-      </c>
-      <c r="J270" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9796,14 +9658,10 @@
         <v>-4320.565165086142</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>15130</v>
-      </c>
-      <c r="J271" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9837,14 +9695,10 @@
         <v>-4305.379665086142</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>15100</v>
-      </c>
-      <c r="J272" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9878,14 +9732,10 @@
         <v>-4305.379665086142</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>15130</v>
-      </c>
-      <c r="J273" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9919,14 +9769,12 @@
         <v>-4315.379665086142</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>15130</v>
       </c>
-      <c r="J274" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9960,14 +9808,12 @@
         <v>-4723.700165086142</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>15060</v>
       </c>
-      <c r="J275" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10001,14 +9847,12 @@
         <v>-4623.700165086142</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>15000</v>
       </c>
-      <c r="J276" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10042,14 +9886,12 @@
         <v>-4674.438665086142</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>15010</v>
       </c>
-      <c r="J277" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10083,14 +9925,12 @@
         <v>-3324.398665086143</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>14980</v>
       </c>
-      <c r="J278" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,9 +9967,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,9 +10004,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10205,9 +10041,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10244,9 +10078,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10280,12 +10112,12 @@
         <v>-3057.347665086142</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>15030</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>15120</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10319,12 +10151,12 @@
         <v>-3055.347065086142</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>15030</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>15190</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10358,12 +10190,12 @@
         <v>-3124.790565086142</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>15030</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>15270</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10397,12 +10229,12 @@
         <v>-3124.723565086142</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>15030</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>15200</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10436,14 +10268,12 @@
         <v>-3124.723565086142</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>15280</v>
       </c>
-      <c r="J287" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10480,9 +10310,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10516,14 +10344,10 @@
         <v>-1994.852865086142</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>15340</v>
-      </c>
-      <c r="J289" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10560,9 +10384,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10599,9 +10421,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10638,9 +10458,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10677,9 +10495,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,9 +10532,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10755,9 +10569,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10794,9 +10606,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10830,14 +10640,10 @@
         <v>-2052.666965086142</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>15380</v>
-      </c>
-      <c r="J297" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,9 +10680,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10913,9 +10717,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10952,9 +10754,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10991,9 +10791,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11030,9 +10828,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11069,9 +10865,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11108,9 +10902,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11147,9 +10939,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11186,9 +10976,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11225,9 +11013,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11264,9 +11050,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11303,9 +11087,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11342,9 +11124,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11381,9 +11161,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11420,9 +11198,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11459,9 +11235,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11498,9 +11272,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11537,9 +11309,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>15030</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,6 +11321,6 @@
       <c r="M315" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest REP.xlsx
+++ b/BackTest/2020-01-25 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-918.3423000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-918.3423000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-917.7423000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-935.3823000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-869.2995000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-870.5749000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-864.6529159974507</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-833.8131159974507</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-839.7351159974507</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-621.8815159974507</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-653.5099159974507</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-581.4853159974507</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-597.3952159974507</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-640.3959159974506</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-604.8747159974506</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-902.8298159974506</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-902.7968159974506</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-902.7638159974506</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-903.3766159974506</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-981.9985159974506</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-953.7577159974505</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-953.7577159974505</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-856.019540793433</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-860.333640793433</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-729.255431565561</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-729.255431565561</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4114.968530336434</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3938.187130336434</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3697.110730336434</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3245.624930336434</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3050.004030336434</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3050.051230336434</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>2931.044330336435</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>2802.751230336435</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2868.781730336435</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>2584.863330336435</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>2802.008830336435</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3480.530130336434</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>3467.751830336435</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3357.360930336435</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>3357.360930336435</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>3430.009630336435</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3288.388730336435</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3335.982830336435</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3320.687130336435</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3237.561430336435</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3237.561430336435</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3427.081330336435</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3425.169130336435</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3425.221030336435</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -6853,17 +6853,11 @@
         <v>-4669.800654077449</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>15010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6892,17 +6886,11 @@
         <v>-4669.800654077449</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6931,17 +6919,11 @@
         <v>-4659.680754077449</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>15030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6970,17 +6952,11 @@
         <v>-4657.376154077449</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>15040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7009,17 +6985,11 @@
         <v>-4656.046154077449</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>15100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7048,17 +7018,11 @@
         <v>-4770.928454077449</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>15110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7087,17 +7051,11 @@
         <v>-3130.421554077448</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>15010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7167,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7204,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7278,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7311,17 +7249,11 @@
         <v>-3168.007654077448</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>15190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7350,17 +7282,11 @@
         <v>-3168.007654077448</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>15140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7389,17 +7315,11 @@
         <v>-3117.307654077449</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>15140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7428,17 +7348,11 @@
         <v>-3107.436154077448</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>15150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7467,17 +7381,11 @@
         <v>-3125.267254077448</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>15160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7506,17 +7414,11 @@
         <v>-3125.233254077448</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>15110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7545,17 +7447,11 @@
         <v>-3125.130254077448</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>15120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7584,17 +7480,11 @@
         <v>-3125.130254077448</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>15230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7627,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7664,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7701,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7738,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7775,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7812,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7849,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7886,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7923,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7960,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7997,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8034,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8071,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8108,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8145,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8182,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8219,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8256,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8293,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8330,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8367,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8441,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8478,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8515,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8552,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8589,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8626,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8663,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8700,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8737,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8774,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8811,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8848,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8885,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8922,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8996,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9033,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9070,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9107,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9144,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9181,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9218,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9255,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9292,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9329,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9403,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9440,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9477,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9514,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9551,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9588,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9699,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9736,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9769,17 +9427,11 @@
         <v>-4315.379665086142</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>15130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9816,7 +9468,7 @@
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -10038,9 +9690,11 @@
         <v>-3121.647665086142</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>15070</v>
+      </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10112,11 +9766,9 @@
         <v>-3057.347665086142</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>15120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10151,11 +9803,9 @@
         <v>-3055.347065086142</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>15190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10190,11 +9840,9 @@
         <v>-3124.790565086142</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>15270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10229,11 +9877,9 @@
         <v>-3124.723565086142</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>15200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10268,11 +9914,9 @@
         <v>-3124.723565086142</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>15280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -11321,6 +10965,6 @@
       <c r="M315" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest REP.xlsx
+++ b/BackTest/2020-01-25 BackTest REP.xlsx
@@ -550,7 +550,7 @@
         <v>-918.3423000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-918.3423000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-917.7423000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-935.3823000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-869.2995000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-870.5749000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-864.6529159974507</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-833.8131159974507</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-839.7351159974507</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-621.8815159974507</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-653.5099159974507</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-581.4853159974507</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-597.3952159974507</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-597.3292159974507</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-640.3959159974506</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-604.8747159974506</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-902.8298159974506</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-902.7968159974506</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-902.7638159974506</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-903.4406159974505</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-903.3766159974506</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-981.9985159974506</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-953.7577159974505</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-953.7577159974505</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-856.019540793433</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-860.333640793433</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-729.255431565561</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-729.255431565561</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>3304.811930336434</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>4072.216730336434</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>3942.242230336434</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>3869.873430336434</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3766.156130336434</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3919.486830336434</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4072.144630336434</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>4114.968530336434</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3938.187130336434</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3697.110730336434</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3245.624930336434</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3050.004030336434</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>2931.044330336435</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>2802.751230336435</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2868.781730336435</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -7018,11 +7018,17 @@
         <v>-4770.928454077449</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>15110</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7057,17 @@
         <v>-3130.421554077448</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>15010</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7100,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7137,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7174,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7211,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7248,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7285,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7322,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7359,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7396,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7433,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7470,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7507,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7544,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7581,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7618,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7655,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7692,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7729,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7766,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7803,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7840,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7877,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7914,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +7951,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +7988,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8025,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8062,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8099,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8136,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8173,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8210,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8247,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8284,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8321,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8358,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8395,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8432,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8469,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8506,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8543,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8580,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8617,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8654,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8691,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8728,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8765,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8798,17 @@
         <v>-3361.990865086141</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>15320</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8837,17 @@
         <v>-3361.924865086141</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>15230</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8880,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8917,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8954,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8991,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9028,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9065,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9102,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9139,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9176,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9213,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9250,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9287,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9324,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9361,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9398,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9435,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9472,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9509,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9546,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9583,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9620,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9657,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9690,17 @@
         <v>-4305.379665086142</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>15130</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9729,17 @@
         <v>-4315.379665086142</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>15130</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9468,7 +9776,7 @@
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9690,11 +9998,9 @@
         <v>-3121.647665086142</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>15070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>

--- a/BackTest/2020-01-25 BackTest REP.xlsx
+++ b/BackTest/2020-01-25 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M315"/>
+  <dimension ref="A1:L315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5.0308</v>
       </c>
       <c r="G2" t="n">
-        <v>-915.9134000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>56.45</v>
       </c>
       <c r="G3" t="n">
-        <v>-859.4634000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>111.8889</v>
       </c>
       <c r="G4" t="n">
-        <v>-971.3523000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>53.01</v>
       </c>
       <c r="G5" t="n">
-        <v>-918.3423000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>-918.3423000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>0.6</v>
       </c>
       <c r="G7" t="n">
-        <v>-917.7423000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>17.64</v>
       </c>
       <c r="G8" t="n">
-        <v>-935.3823000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>71.59520000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>-1006.9775</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>-1005.9775</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>136.612</v>
       </c>
       <c r="G11" t="n">
-        <v>-869.3655000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>0.066</v>
       </c>
       <c r="G12" t="n">
-        <v>-869.2995000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1.2754</v>
       </c>
       <c r="G13" t="n">
-        <v>-870.5749000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>5.921984002549395</v>
       </c>
       <c r="G14" t="n">
-        <v>-864.6529159974507</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>30.8398</v>
       </c>
       <c r="G15" t="n">
-        <v>-833.8131159974507</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>5.922</v>
       </c>
       <c r="G16" t="n">
-        <v>-839.7351159974507</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>0.066</v>
       </c>
       <c r="G17" t="n">
-        <v>-839.6691159974507</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>147.36</v>
       </c>
       <c r="G18" t="n">
-        <v>-692.3091159974507</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>0.066</v>
       </c>
       <c r="G19" t="n">
-        <v>-692.2431159974507</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>70.3616</v>
       </c>
       <c r="G20" t="n">
-        <v>-621.8815159974507</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>31.6284</v>
       </c>
       <c r="G21" t="n">
-        <v>-653.5099159974507</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>72.02460000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-581.4853159974507</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>15.9099</v>
       </c>
       <c r="G23" t="n">
-        <v>-597.3952159974507</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>0.066</v>
       </c>
       <c r="G24" t="n">
-        <v>-597.3292159974507</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>60</v>
       </c>
       <c r="G25" t="n">
-        <v>-597.3292159974507</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>135.8583</v>
       </c>
       <c r="G26" t="n">
-        <v>-597.3292159974507</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>43.0667</v>
       </c>
       <c r="G27" t="n">
-        <v>-640.3959159974506</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>35.5212</v>
       </c>
       <c r="G28" t="n">
-        <v>-604.8747159974506</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>297.9551</v>
       </c>
       <c r="G29" t="n">
-        <v>-902.8298159974506</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>0.033</v>
       </c>
       <c r="G30" t="n">
-        <v>-902.7968159974506</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>0.033</v>
       </c>
       <c r="G31" t="n">
-        <v>-902.7638159974506</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>0.6768</v>
       </c>
       <c r="G32" t="n">
-        <v>-903.4406159974505</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>33.421</v>
       </c>
       <c r="G33" t="n">
-        <v>-903.4406159974505</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>28.1156</v>
       </c>
       <c r="G34" t="n">
-        <v>-903.4406159974505</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>14.8116</v>
       </c>
       <c r="G35" t="n">
-        <v>-903.4406159974505</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>0.064</v>
       </c>
       <c r="G36" t="n">
-        <v>-903.3766159974506</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>78.6219</v>
       </c>
       <c r="G37" t="n">
-        <v>-981.9985159974506</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>28.2408</v>
       </c>
       <c r="G38" t="n">
-        <v>-953.7577159974505</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>-953.7577159974505</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>97.73817520401758</v>
       </c>
       <c r="G40" t="n">
-        <v>-856.019540793433</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4.3141</v>
       </c>
       <c r="G41" t="n">
-        <v>-860.333640793433</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>131.078209227872</v>
       </c>
       <c r="G42" t="n">
-        <v>-729.255431565561</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>4.5573</v>
       </c>
       <c r="G43" t="n">
-        <v>-729.255431565561</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>21.0874</v>
       </c>
       <c r="G44" t="n">
-        <v>-750.342831565561</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>0.032</v>
       </c>
       <c r="G45" t="n">
-        <v>-750.310831565561</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1.968</v>
       </c>
       <c r="G46" t="n">
-        <v>-748.342831565561</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>5.4275</v>
       </c>
       <c r="G47" t="n">
-        <v>-742.915331565561</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>741.706082660028</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.209248905533059</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>169.1588263854425</v>
       </c>
       <c r="G49" t="n">
-        <v>167.9495774799094</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>532.6007976412167</v>
       </c>
       <c r="G50" t="n">
-        <v>-364.6512201613073</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>215.0355</v>
       </c>
       <c r="G51" t="n">
-        <v>-149.6157201613073</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>54.780858808933</v>
       </c>
       <c r="G52" t="n">
-        <v>-149.6157201613073</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>84.2706</v>
       </c>
       <c r="G53" t="n">
-        <v>-149.6157201613073</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>11.1999</v>
       </c>
       <c r="G54" t="n">
-        <v>-149.6157201613073</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>44.4448</v>
       </c>
       <c r="G55" t="n">
-        <v>-194.0605201613072</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>87.1949</v>
       </c>
       <c r="G56" t="n">
-        <v>-106.8656201613072</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>309.8576</v>
       </c>
       <c r="G57" t="n">
-        <v>202.9919798386928</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>281.6359</v>
       </c>
       <c r="G58" t="n">
-        <v>484.6278798386928</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>803.2380504977411</v>
       </c>
       <c r="G59" t="n">
-        <v>1287.865930336434</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>59.779</v>
       </c>
       <c r="G60" t="n">
-        <v>1228.086930336434</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1450.0783</v>
       </c>
       <c r="G61" t="n">
-        <v>2678.165230336434</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>80.43473730697961</v>
       </c>
       <c r="G62" t="n">
-        <v>2758.599967643413</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>261.7222</v>
       </c>
       <c r="G63" t="n">
-        <v>3020.322167643413</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>0.0745</v>
       </c>
       <c r="G64" t="n">
-        <v>3020.322167643413</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>97.40260000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>3020.322167643413</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>163.2583626930204</v>
       </c>
       <c r="G66" t="n">
-        <v>3183.580530336434</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>140.6076</v>
       </c>
       <c r="G67" t="n">
-        <v>3042.972930336434</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>108.6835</v>
       </c>
       <c r="G68" t="n">
-        <v>3151.656430336434</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>54.5922</v>
       </c>
       <c r="G69" t="n">
-        <v>3097.064230336434</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>207.7477</v>
       </c>
       <c r="G70" t="n">
-        <v>3304.811930336434</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>767.4048</v>
       </c>
       <c r="G71" t="n">
-        <v>4072.216730336434</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>129.9745</v>
       </c>
       <c r="G72" t="n">
-        <v>3942.242230336434</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>72.36879999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>3869.873430336434</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>103.7173</v>
       </c>
       <c r="G74" t="n">
-        <v>3766.156130336434</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>153.3307</v>
       </c>
       <c r="G75" t="n">
-        <v>3919.486830336434</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>152.6578</v>
       </c>
       <c r="G76" t="n">
-        <v>4072.144630336434</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>42.8239</v>
       </c>
       <c r="G77" t="n">
-        <v>4114.968530336434</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>176.7814</v>
       </c>
       <c r="G78" t="n">
-        <v>3938.187130336434</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>241.0764</v>
       </c>
       <c r="G79" t="n">
-        <v>3697.110730336434</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>451.4858</v>
       </c>
       <c r="G80" t="n">
-        <v>3245.624930336434</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>195.6209</v>
       </c>
       <c r="G81" t="n">
-        <v>3050.004030336434</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>0.0472</v>
       </c>
       <c r="G82" t="n">
-        <v>3050.051230336434</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>119.0069</v>
       </c>
       <c r="G83" t="n">
-        <v>2931.044330336435</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>128.2931</v>
       </c>
       <c r="G84" t="n">
-        <v>2802.751230336435</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>66.0305</v>
       </c>
       <c r="G85" t="n">
-        <v>2868.781730336435</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>283.9184</v>
       </c>
       <c r="G86" t="n">
-        <v>2584.863330336435</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>217.1455</v>
       </c>
       <c r="G87" t="n">
-        <v>2802.008830336435</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>678.5213</v>
       </c>
       <c r="G88" t="n">
-        <v>3480.530130336434</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>12.7783</v>
       </c>
       <c r="G89" t="n">
-        <v>3467.751830336435</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>110.3909</v>
       </c>
       <c r="G90" t="n">
-        <v>3357.360930336435</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>43.0754</v>
       </c>
       <c r="G91" t="n">
-        <v>3357.360930336435</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>72.64870000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>3430.009630336435</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>3.642</v>
       </c>
       <c r="G93" t="n">
-        <v>3426.367630336435</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>137.9789</v>
       </c>
       <c r="G94" t="n">
-        <v>3288.388730336435</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>47.5941</v>
       </c>
       <c r="G95" t="n">
-        <v>3335.982830336435</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>15.2957</v>
       </c>
       <c r="G96" t="n">
-        <v>3320.687130336435</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>83.12569999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>3237.561430336435</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>114.2199</v>
       </c>
       <c r="G98" t="n">
-        <v>3237.561430336435</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>189.5199</v>
       </c>
       <c r="G99" t="n">
-        <v>3427.081330336435</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1.9122</v>
       </c>
       <c r="G100" t="n">
-        <v>3425.169130336435</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>0.0519</v>
       </c>
       <c r="G101" t="n">
-        <v>3425.221030336435</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>30.1011</v>
       </c>
       <c r="G102" t="n">
-        <v>3395.119930336435</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>0.0653</v>
       </c>
       <c r="G103" t="n">
-        <v>3395.185230336435</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>0.0318</v>
       </c>
       <c r="G104" t="n">
-        <v>3395.185230336435</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>67.7268</v>
       </c>
       <c r="G105" t="n">
-        <v>3462.912030336435</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>0.0446</v>
       </c>
       <c r="G106" t="n">
-        <v>3462.956630336435</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>243.5011</v>
       </c>
       <c r="G107" t="n">
-        <v>3219.455530336435</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>18.7192</v>
       </c>
       <c r="G108" t="n">
-        <v>3238.174730336435</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>10.4424</v>
       </c>
       <c r="G109" t="n">
-        <v>3248.617130336435</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>6.8664</v>
       </c>
       <c r="G110" t="n">
-        <v>3241.750730336435</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1.9891</v>
       </c>
       <c r="G111" t="n">
-        <v>3243.739830336435</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>47.0539</v>
       </c>
       <c r="G112" t="n">
-        <v>3196.685930336435</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>65</v>
       </c>
       <c r="G113" t="n">
-        <v>3131.685930336435</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>0.033</v>
       </c>
       <c r="G114" t="n">
-        <v>3131.685930336435</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>34.8141</v>
       </c>
       <c r="G115" t="n">
-        <v>3096.871830336435</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>649.9846</v>
       </c>
       <c r="G116" t="n">
-        <v>2446.887230336435</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>168.3134</v>
       </c>
       <c r="G117" t="n">
-        <v>2615.200630336435</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>6.575</v>
       </c>
       <c r="G118" t="n">
-        <v>2615.200630336435</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>7.0652</v>
       </c>
       <c r="G119" t="n">
-        <v>2615.200630336435</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>15.8322</v>
       </c>
       <c r="G120" t="n">
-        <v>2615.200630336435</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>4.8288</v>
       </c>
       <c r="G121" t="n">
-        <v>2615.200630336435</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>40</v>
       </c>
       <c r="G122" t="n">
-        <v>2655.200630336435</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1.4889</v>
       </c>
       <c r="G123" t="n">
-        <v>2656.689530336435</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>0.104</v>
       </c>
       <c r="G124" t="n">
-        <v>2656.689530336435</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1.4</v>
       </c>
       <c r="G125" t="n">
-        <v>2658.089530336435</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2.8682</v>
       </c>
       <c r="G126" t="n">
-        <v>2660.957730336435</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>2661.029730336435</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>35.1731</v>
       </c>
       <c r="G128" t="n">
-        <v>2696.202830336435</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>13.9318</v>
       </c>
       <c r="G129" t="n">
-        <v>2710.134630336435</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>16.3673</v>
       </c>
       <c r="G130" t="n">
-        <v>2693.767330336435</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>960.7943</v>
       </c>
       <c r="G131" t="n">
-        <v>1732.973030336435</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>88.5112</v>
       </c>
       <c r="G132" t="n">
-        <v>1732.973030336435</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>490.0673</v>
       </c>
       <c r="G133" t="n">
-        <v>1242.905730336435</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>24.7966</v>
       </c>
       <c r="G134" t="n">
-        <v>1218.109130336435</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>20.5331</v>
       </c>
       <c r="G135" t="n">
-        <v>1218.109130336435</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>247.1932</v>
       </c>
       <c r="G136" t="n">
-        <v>970.9159303364352</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>150</v>
       </c>
       <c r="G137" t="n">
-        <v>820.9159303364352</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>159.8088</v>
       </c>
       <c r="G138" t="n">
-        <v>661.1071303364351</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>59.4001</v>
       </c>
       <c r="G139" t="n">
-        <v>601.7070303364352</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>166.7364</v>
       </c>
       <c r="G140" t="n">
-        <v>434.9706303364352</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>121.8931</v>
       </c>
       <c r="G141" t="n">
-        <v>313.0775303364352</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>313.0775303364352</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>355.1498</v>
       </c>
       <c r="G143" t="n">
-        <v>-42.07226966356484</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>374.406</v>
       </c>
       <c r="G144" t="n">
-        <v>-416.4782696635648</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>1.4147</v>
       </c>
       <c r="G145" t="n">
-        <v>-415.0635696635649</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>149.0975</v>
       </c>
       <c r="G146" t="n">
-        <v>-564.1610696635648</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>749.1806</v>
       </c>
       <c r="G147" t="n">
-        <v>-1313.341669663565</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>47.1502</v>
       </c>
       <c r="G148" t="n">
-        <v>-1360.491869663565</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>603.8102</v>
       </c>
       <c r="G149" t="n">
-        <v>-1964.302069663565</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>28.7821</v>
       </c>
       <c r="G150" t="n">
-        <v>-1993.084169663565</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>36.63</v>
       </c>
       <c r="G151" t="n">
-        <v>-1956.454169663565</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>211.4403844138834</v>
       </c>
       <c r="G152" t="n">
-        <v>-2167.894554077448</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>0.039</v>
       </c>
       <c r="G153" t="n">
-        <v>-2167.855554077448</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>7.5361</v>
       </c>
       <c r="G154" t="n">
-        <v>-2175.391654077448</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>188.9735</v>
       </c>
       <c r="G155" t="n">
-        <v>-2364.365154077448</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>103.2795</v>
       </c>
       <c r="G156" t="n">
-        <v>-2261.085654077448</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>51.5765</v>
       </c>
       <c r="G157" t="n">
-        <v>-2209.509154077447</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>32.55</v>
       </c>
       <c r="G158" t="n">
-        <v>-2242.059154077448</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>34.1133</v>
       </c>
       <c r="G159" t="n">
-        <v>-2276.172454077448</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>16.3813</v>
       </c>
       <c r="G160" t="n">
-        <v>-2259.791154077448</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>46.8978</v>
       </c>
       <c r="G161" t="n">
-        <v>-2306.688954077448</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>5.0385</v>
       </c>
       <c r="G162" t="n">
-        <v>-2306.688954077448</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>11.0105</v>
       </c>
       <c r="G163" t="n">
-        <v>-2306.688954077448</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>22.0583</v>
       </c>
       <c r="G164" t="n">
-        <v>-2328.747254077448</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>222.9128</v>
       </c>
       <c r="G165" t="n">
-        <v>-2551.660054077448</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,21 @@
         <v>375.3905</v>
       </c>
       <c r="G166" t="n">
-        <v>-2927.050554077448</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>15160</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5399,21 @@
         <v>59.2571</v>
       </c>
       <c r="G167" t="n">
-        <v>-2867.793454077448</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>15150</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5435,21 @@
         <v>8.4215</v>
       </c>
       <c r="G168" t="n">
-        <v>-2867.793454077448</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>15240</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5471,19 @@
         <v>12.0425</v>
       </c>
       <c r="G169" t="n">
-        <v>-2879.835954077448</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5505,19 @@
         <v>19.1546</v>
       </c>
       <c r="G170" t="n">
-        <v>-2860.681354077448</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5539,19 @@
         <v>82.0707</v>
       </c>
       <c r="G171" t="n">
-        <v>-2942.752054077449</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5573,21 @@
         <v>37.3684</v>
       </c>
       <c r="G172" t="n">
-        <v>-2980.120454077448</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>15180</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5609,21 @@
         <v>98.9509</v>
       </c>
       <c r="G173" t="n">
-        <v>-2881.169554077449</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>15150</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5645,21 @@
         <v>66.6606</v>
       </c>
       <c r="G174" t="n">
-        <v>-2947.830154077449</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>15190</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5681,21 @@
         <v>11.08</v>
       </c>
       <c r="G175" t="n">
-        <v>-2947.830154077449</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>15150</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5717,21 @@
         <v>2.0373</v>
       </c>
       <c r="G176" t="n">
-        <v>-2947.830154077449</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>15150</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5753,21 @@
         <v>0.8827</v>
       </c>
       <c r="G177" t="n">
-        <v>-2946.947454077449</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>15150</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5789,21 @@
         <v>36.7504</v>
       </c>
       <c r="G178" t="n">
-        <v>-2983.697854077448</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>15180</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5825,21 @@
         <v>25.7584</v>
       </c>
       <c r="G179" t="n">
-        <v>-2957.939454077448</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>15170</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5861,21 @@
         <v>30.8398</v>
       </c>
       <c r="G180" t="n">
-        <v>-2988.779254077449</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>15200</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5897,19 @@
         <v>0.04</v>
       </c>
       <c r="G181" t="n">
-        <v>-2988.739254077449</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5931,19 @@
         <v>60.6967</v>
       </c>
       <c r="G182" t="n">
-        <v>-3049.435954077449</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5965,19 @@
         <v>20.3833</v>
       </c>
       <c r="G183" t="n">
-        <v>-3049.435954077449</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5999,19 @@
         <v>7.3311</v>
       </c>
       <c r="G184" t="n">
-        <v>-3042.104854077449</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6033,19 @@
         <v>112.7938</v>
       </c>
       <c r="G185" t="n">
-        <v>-3154.898654077449</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6067,19 @@
         <v>167.1528</v>
       </c>
       <c r="G186" t="n">
-        <v>-3322.051454077448</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6101,19 @@
         <v>0.074</v>
       </c>
       <c r="G187" t="n">
-        <v>-3321.977454077448</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6135,19 @@
         <v>118.5111</v>
       </c>
       <c r="G188" t="n">
-        <v>-3440.488554077448</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6169,19 @@
         <v>50.3872</v>
       </c>
       <c r="G189" t="n">
-        <v>-3390.101354077448</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6203,19 @@
         <v>955.7609</v>
       </c>
       <c r="G190" t="n">
-        <v>-4345.862254077449</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6237,19 @@
         <v>126.2666</v>
       </c>
       <c r="G191" t="n">
-        <v>-4345.862254077449</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6271,19 @@
         <v>176.6322</v>
       </c>
       <c r="G192" t="n">
-        <v>-4522.494454077449</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6305,19 @@
         <v>367.7026</v>
       </c>
       <c r="G193" t="n">
-        <v>-4890.197054077448</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6339,19 @@
         <v>0.5</v>
       </c>
       <c r="G194" t="n">
-        <v>-4890.697054077448</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6373,21 @@
         <v>124.1574</v>
       </c>
       <c r="G195" t="n">
-        <v>-4766.539654077448</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>14960</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6409,21 @@
         <v>96.739</v>
       </c>
       <c r="G196" t="n">
-        <v>-4669.800654077449</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>15010</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6445,21 @@
         <v>48.6</v>
       </c>
       <c r="G197" t="n">
-        <v>-4669.800654077449</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>15030</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6481,21 @@
         <v>10.1199</v>
       </c>
       <c r="G198" t="n">
-        <v>-4659.680754077449</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>15030</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6517,21 @@
         <v>2.3046</v>
       </c>
       <c r="G199" t="n">
-        <v>-4657.376154077449</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>15040</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6553,21 @@
         <v>1.33</v>
       </c>
       <c r="G200" t="n">
-        <v>-4656.046154077449</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,24 +6589,21 @@
         <v>114.8823</v>
       </c>
       <c r="G201" t="n">
-        <v>-4770.928454077449</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
         <v>15110</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7054,24 +6625,21 @@
         <v>1640.5069</v>
       </c>
       <c r="G202" t="n">
-        <v>-3130.421554077448</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
         <v>15010</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7093,22 +6661,21 @@
         <v>1.13</v>
       </c>
       <c r="G203" t="n">
-        <v>-3130.421554077448</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>15110</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7130,22 +6697,21 @@
         <v>4.48</v>
       </c>
       <c r="G204" t="n">
-        <v>-3130.421554077448</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>15110</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7167,22 +6733,21 @@
         <v>1.88</v>
       </c>
       <c r="G205" t="n">
-        <v>-3130.421554077448</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>15110</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7204,22 +6769,21 @@
         <v>1.89</v>
       </c>
       <c r="G206" t="n">
-        <v>-3130.421554077448</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>15110</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7241,22 +6805,19 @@
         <v>0.6205000000000001</v>
       </c>
       <c r="G207" t="n">
-        <v>-3129.801054077448</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7278,22 +6839,19 @@
         <v>38.2066</v>
       </c>
       <c r="G208" t="n">
-        <v>-3168.007654077448</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7315,22 +6873,19 @@
         <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>-3168.007654077448</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7352,22 +6907,19 @@
         <v>50.7</v>
       </c>
       <c r="G210" t="n">
-        <v>-3117.307654077449</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7389,22 +6941,19 @@
         <v>9.871499999999999</v>
       </c>
       <c r="G211" t="n">
-        <v>-3107.436154077448</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7426,22 +6975,19 @@
         <v>17.8311</v>
       </c>
       <c r="G212" t="n">
-        <v>-3125.267254077448</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7463,22 +7009,19 @@
         <v>0.034</v>
       </c>
       <c r="G213" t="n">
-        <v>-3125.233254077448</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7500,22 +7043,19 @@
         <v>0.103</v>
       </c>
       <c r="G214" t="n">
-        <v>-3125.130254077448</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7537,22 +7077,19 @@
         <v>127.1783</v>
       </c>
       <c r="G215" t="n">
-        <v>-3125.130254077448</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7574,22 +7111,19 @@
         <v>43.6559</v>
       </c>
       <c r="G216" t="n">
-        <v>-3125.130254077448</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7611,22 +7145,19 @@
         <v>2.1784</v>
       </c>
       <c r="G217" t="n">
-        <v>-3125.130254077448</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7648,22 +7179,19 @@
         <v>0.066</v>
       </c>
       <c r="G218" t="n">
-        <v>-3125.130254077448</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7685,22 +7213,19 @@
         <v>32.1621</v>
       </c>
       <c r="G219" t="n">
-        <v>-3092.968154077448</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7722,22 +7247,19 @@
         <v>76.19540000000001</v>
       </c>
       <c r="G220" t="n">
-        <v>-3016.772754077448</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7759,22 +7281,19 @@
         <v>106.7735</v>
       </c>
       <c r="G221" t="n">
-        <v>-2909.999254077448</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7796,22 +7315,19 @@
         <v>10.8574</v>
       </c>
       <c r="G222" t="n">
-        <v>-2909.999254077448</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7833,22 +7349,19 @@
         <v>100</v>
       </c>
       <c r="G223" t="n">
-        <v>-3009.999254077448</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7870,22 +7383,19 @@
         <v>76.19540000000001</v>
       </c>
       <c r="G224" t="n">
-        <v>-3086.194654077448</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7907,22 +7417,19 @@
         <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>-3087.194654077448</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7944,22 +7451,19 @@
         <v>0.066</v>
       </c>
       <c r="G226" t="n">
-        <v>-3087.128654077449</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7981,22 +7485,19 @@
         <v>12.0937</v>
       </c>
       <c r="G227" t="n">
-        <v>-3087.128654077449</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8018,22 +7519,19 @@
         <v>0.066</v>
       </c>
       <c r="G228" t="n">
-        <v>-3087.062654077449</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8055,22 +7553,19 @@
         <v>424.9004889913083</v>
       </c>
       <c r="G229" t="n">
-        <v>-2662.162165086141</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8092,22 +7587,19 @@
         <v>0.066</v>
       </c>
       <c r="G230" t="n">
-        <v>-2662.228165086141</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8129,22 +7621,19 @@
         <v>114.3394</v>
       </c>
       <c r="G231" t="n">
-        <v>-2662.228165086141</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8166,22 +7655,19 @@
         <v>0.066</v>
       </c>
       <c r="G232" t="n">
-        <v>-2662.162165086141</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8203,22 +7689,19 @@
         <v>19.4946</v>
       </c>
       <c r="G233" t="n">
-        <v>-2662.162165086141</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8240,22 +7723,19 @@
         <v>0.066</v>
       </c>
       <c r="G234" t="n">
-        <v>-2662.096165086141</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8277,22 +7757,19 @@
         <v>0.066</v>
       </c>
       <c r="G235" t="n">
-        <v>-2662.030165086141</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8314,22 +7791,19 @@
         <v>0.132</v>
       </c>
       <c r="G236" t="n">
-        <v>-2662.162165086141</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8351,22 +7825,19 @@
         <v>85.08410000000001</v>
       </c>
       <c r="G237" t="n">
-        <v>-2747.246265086141</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8388,22 +7859,19 @@
         <v>460.1205</v>
       </c>
       <c r="G238" t="n">
-        <v>-3207.366765086141</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8425,22 +7893,19 @@
         <v>45.5</v>
       </c>
       <c r="G239" t="n">
-        <v>-3252.866765086141</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8462,22 +7927,19 @@
         <v>12.0937</v>
       </c>
       <c r="G240" t="n">
-        <v>-3264.960465086141</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8499,22 +7961,19 @@
         <v>12.3927</v>
       </c>
       <c r="G241" t="n">
-        <v>-3277.353165086141</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8536,22 +7995,19 @@
         <v>0.033</v>
       </c>
       <c r="G242" t="n">
-        <v>-3277.320165086141</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8573,22 +8029,19 @@
         <v>0.033</v>
       </c>
       <c r="G243" t="n">
-        <v>-3277.287165086141</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8610,22 +8063,19 @@
         <v>61.5483</v>
       </c>
       <c r="G244" t="n">
-        <v>-3338.835465086141</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8647,22 +8097,19 @@
         <v>20.2214</v>
       </c>
       <c r="G245" t="n">
-        <v>-3359.056865086141</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8684,22 +8131,19 @@
         <v>0.066</v>
       </c>
       <c r="G246" t="n">
-        <v>-3358.990865086141</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8721,22 +8165,19 @@
         <v>0.066</v>
       </c>
       <c r="G247" t="n">
-        <v>-3359.056865086141</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8758,22 +8199,19 @@
         <v>0.066</v>
       </c>
       <c r="G248" t="n">
-        <v>-3358.990865086141</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8795,24 +8233,19 @@
         <v>3</v>
       </c>
       <c r="G249" t="n">
-        <v>-3361.990865086141</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>15320</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8834,24 +8267,19 @@
         <v>0.066</v>
       </c>
       <c r="G250" t="n">
-        <v>-3361.924865086141</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>15230</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8873,22 +8301,19 @@
         <v>0.1525</v>
       </c>
       <c r="G251" t="n">
-        <v>-3362.077365086142</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8910,22 +8335,19 @@
         <v>9.6068</v>
       </c>
       <c r="G252" t="n">
-        <v>-3362.077365086142</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8947,22 +8369,19 @@
         <v>31.0068</v>
       </c>
       <c r="G253" t="n">
-        <v>-3331.070565086141</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8984,22 +8403,19 @@
         <v>23.3087</v>
       </c>
       <c r="G254" t="n">
-        <v>-3354.379265086141</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9021,22 +8437,19 @@
         <v>0.066</v>
       </c>
       <c r="G255" t="n">
-        <v>-3354.313265086142</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9058,22 +8471,19 @@
         <v>2.0006</v>
       </c>
       <c r="G256" t="n">
-        <v>-3356.313865086142</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9095,22 +8505,19 @@
         <v>4</v>
       </c>
       <c r="G257" t="n">
-        <v>-3360.313865086142</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9132,22 +8539,19 @@
         <v>0.033</v>
       </c>
       <c r="G258" t="n">
-        <v>-3360.346865086141</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9169,22 +8573,19 @@
         <v>0.0658</v>
       </c>
       <c r="G259" t="n">
-        <v>-3360.281065086142</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9206,22 +8607,19 @@
         <v>6.8579</v>
       </c>
       <c r="G260" t="n">
-        <v>-3353.423165086142</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9243,22 +8641,19 @@
         <v>52.9106</v>
       </c>
       <c r="G261" t="n">
-        <v>-3406.333765086142</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9280,22 +8675,19 @@
         <v>3.3323</v>
       </c>
       <c r="G262" t="n">
-        <v>-3403.001465086142</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9317,22 +8709,19 @@
         <v>141.2944</v>
       </c>
       <c r="G263" t="n">
-        <v>-3544.295865086142</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9354,22 +8743,19 @@
         <v>0.066</v>
       </c>
       <c r="G264" t="n">
-        <v>-3544.229865086142</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9391,22 +8777,19 @@
         <v>0.9615</v>
       </c>
       <c r="G265" t="n">
-        <v>-3543.268365086142</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9428,22 +8811,19 @@
         <v>20</v>
       </c>
       <c r="G266" t="n">
-        <v>-3563.268365086142</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9465,22 +8845,19 @@
         <v>626.4549</v>
       </c>
       <c r="G267" t="n">
-        <v>-4189.723265086142</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9502,22 +8879,19 @@
         <v>0.89</v>
       </c>
       <c r="G268" t="n">
-        <v>-4188.833265086142</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9539,22 +8913,19 @@
         <v>91.62</v>
       </c>
       <c r="G269" t="n">
-        <v>-4280.453265086142</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9576,22 +8947,19 @@
         <v>9.367900000000001</v>
       </c>
       <c r="G270" t="n">
-        <v>-4289.821165086142</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9613,22 +8981,19 @@
         <v>30.744</v>
       </c>
       <c r="G271" t="n">
-        <v>-4320.565165086142</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9650,22 +9015,19 @@
         <v>15.1855</v>
       </c>
       <c r="G272" t="n">
-        <v>-4305.379665086142</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9687,24 +9049,19 @@
         <v>30.6481</v>
       </c>
       <c r="G273" t="n">
-        <v>-4305.379665086142</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>15130</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9726,24 +9083,19 @@
         <v>10</v>
       </c>
       <c r="G274" t="n">
-        <v>-4315.379665086142</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>15130</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9765,24 +9117,19 @@
         <v>408.3205</v>
       </c>
       <c r="G275" t="n">
-        <v>-4723.700165086142</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>15060</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9804,24 +9151,19 @@
         <v>100</v>
       </c>
       <c r="G276" t="n">
-        <v>-4623.700165086142</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>15000</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9843,24 +9185,19 @@
         <v>50.7385</v>
       </c>
       <c r="G277" t="n">
-        <v>-4674.438665086142</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>15010</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9882,24 +9219,19 @@
         <v>1350.04</v>
       </c>
       <c r="G278" t="n">
-        <v>-3324.398665086143</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>14980</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9921,22 +9253,19 @@
         <v>67.9367</v>
       </c>
       <c r="G279" t="n">
-        <v>-3256.461965086142</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9958,22 +9287,21 @@
         <v>19.8574</v>
       </c>
       <c r="G280" t="n">
-        <v>-3236.604565086142</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>15050</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9995,22 +9323,19 @@
         <v>114.9569</v>
       </c>
       <c r="G281" t="n">
-        <v>-3121.647665086142</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10032,22 +9357,19 @@
         <v>19.672</v>
       </c>
       <c r="G282" t="n">
-        <v>-3121.647665086142</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10069,22 +9391,19 @@
         <v>64.3</v>
       </c>
       <c r="G283" t="n">
-        <v>-3057.347665086142</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10106,22 +9425,19 @@
         <v>2.0006</v>
       </c>
       <c r="G284" t="n">
-        <v>-3055.347065086142</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10143,22 +9459,19 @@
         <v>69.4435</v>
       </c>
       <c r="G285" t="n">
-        <v>-3124.790565086142</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10180,22 +9493,19 @@
         <v>0.067</v>
       </c>
       <c r="G286" t="n">
-        <v>-3124.723565086142</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10217,22 +9527,19 @@
         <v>1.2925</v>
       </c>
       <c r="G287" t="n">
-        <v>-3124.723565086142</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10254,22 +9561,19 @@
         <v>150.1129</v>
       </c>
       <c r="G288" t="n">
-        <v>-2974.610665086142</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10291,22 +9595,19 @@
         <v>979.7578</v>
       </c>
       <c r="G289" t="n">
-        <v>-1994.852865086142</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10328,22 +9629,19 @@
         <v>52</v>
       </c>
       <c r="G290" t="n">
-        <v>-2046.852865086142</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10365,22 +9663,19 @@
         <v>75</v>
       </c>
       <c r="G291" t="n">
-        <v>-1971.852865086142</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10402,22 +9697,19 @@
         <v>2.4828</v>
       </c>
       <c r="G292" t="n">
-        <v>-1969.370065086142</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10439,22 +9731,19 @@
         <v>54.7906</v>
       </c>
       <c r="G293" t="n">
-        <v>-2024.160665086142</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10476,22 +9765,19 @@
         <v>28.6393</v>
       </c>
       <c r="G294" t="n">
-        <v>-2052.799965086142</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10513,22 +9799,19 @@
         <v>0.034</v>
       </c>
       <c r="G295" t="n">
-        <v>-2052.765965086142</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10550,22 +9833,19 @@
         <v>0.033</v>
       </c>
       <c r="G296" t="n">
-        <v>-2052.732965086142</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10587,22 +9867,19 @@
         <v>0.066</v>
       </c>
       <c r="G297" t="n">
-        <v>-2052.666965086142</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10624,22 +9901,19 @@
         <v>130.9581</v>
       </c>
       <c r="G298" t="n">
-        <v>-1921.708865086142</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10661,22 +9935,19 @@
         <v>11.9229</v>
       </c>
       <c r="G299" t="n">
-        <v>-1933.631765086142</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10698,22 +9969,19 @@
         <v>101.2516</v>
       </c>
       <c r="G300" t="n">
-        <v>-1933.631765086142</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10735,22 +10003,19 @@
         <v>76.2137</v>
       </c>
       <c r="G301" t="n">
-        <v>-2009.845465086142</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10772,22 +10037,19 @@
         <v>107.1534560880829</v>
       </c>
       <c r="G302" t="n">
-        <v>-1902.692008998059</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10809,22 +10071,19 @@
         <v>97.38290000000001</v>
       </c>
       <c r="G303" t="n">
-        <v>-2000.074908998059</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10846,22 +10105,19 @@
         <v>265.2656</v>
       </c>
       <c r="G304" t="n">
-        <v>-1734.809308998059</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10883,22 +10139,19 @@
         <v>36.5313</v>
       </c>
       <c r="G305" t="n">
-        <v>-1734.809308998059</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10920,22 +10173,19 @@
         <v>0.068</v>
       </c>
       <c r="G306" t="n">
-        <v>-1734.741308998059</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10957,22 +10207,19 @@
         <v>1</v>
       </c>
       <c r="G307" t="n">
-        <v>-1735.741308998059</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10994,22 +10241,19 @@
         <v>2.0655</v>
       </c>
       <c r="G308" t="n">
-        <v>-1733.675808998059</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11031,22 +10275,19 @@
         <v>3.3856</v>
       </c>
       <c r="G309" t="n">
-        <v>-1737.06140899806</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11068,22 +10309,19 @@
         <v>4.483</v>
       </c>
       <c r="G310" t="n">
-        <v>-1737.06140899806</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11105,22 +10343,19 @@
         <v>1.0655</v>
       </c>
       <c r="G311" t="n">
-        <v>-1737.06140899806</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11142,22 +10377,19 @@
         <v>2</v>
       </c>
       <c r="G312" t="n">
-        <v>-1737.06140899806</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11179,22 +10411,19 @@
         <v>207.3394</v>
       </c>
       <c r="G313" t="n">
-        <v>-1529.722008998059</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11216,22 +10445,19 @@
         <v>110.3428</v>
       </c>
       <c r="G314" t="n">
-        <v>-1640.064808998059</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11253,22 +10479,19 @@
         <v>85.7088</v>
       </c>
       <c r="G315" t="n">
-        <v>-1725.773608998059</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
